--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  HERRADURA  JUNIO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  HERRADURA  JUNIO    2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20715" windowHeight="11730" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20715" windowHeight="11730" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="  E N E R O    2 0 2 3     " sheetId="1" r:id="rId1"/>
@@ -22,8 +22,10 @@
     <sheet name="  COMPRAS   ABRIL    2 0 2 3   " sheetId="6" r:id="rId8"/>
     <sheet name="    M A Y O     2 0 2 3        " sheetId="11" r:id="rId9"/>
     <sheet name="  COMPRAS   MAYO    2 0 2 3    " sheetId="12" r:id="rId10"/>
-    <sheet name="Hoja1" sheetId="13" r:id="rId11"/>
-    <sheet name="Hoja4" sheetId="14" r:id="rId12"/>
+    <sheet name="   J U N I O     2 0 2 3     " sheetId="13" r:id="rId11"/>
+    <sheet name=" COMPRAS    JUNIO   2 0 2 3    " sheetId="14" r:id="rId12"/>
+    <sheet name="Hoja2" sheetId="15" r:id="rId13"/>
+    <sheet name="Hoja3" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -324,8 +326,66 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ROUSS</author>
+  </authors>
+  <commentList>
+    <comment ref="J23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="366">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1235,6 +1295,207 @@
   </si>
   <si>
     <t xml:space="preserve">guadia </t>
+  </si>
+  <si>
+    <t>6-jun-2023</t>
+  </si>
+  <si>
+    <t>E-12533</t>
+  </si>
+  <si>
+    <t>E-12593</t>
+  </si>
+  <si>
+    <t>E-12606</t>
+  </si>
+  <si>
+    <t>7-jun-2023</t>
+  </si>
+  <si>
+    <t>E-12709</t>
+  </si>
+  <si>
+    <t>8-jun-2023</t>
+  </si>
+  <si>
+    <t>E-12837</t>
+  </si>
+  <si>
+    <t>E-12840</t>
+  </si>
+  <si>
+    <t>9-jun-2023</t>
+  </si>
+  <si>
+    <t>E-12871</t>
+  </si>
+  <si>
+    <t>E-12969</t>
+  </si>
+  <si>
+    <t>10-jun-2023</t>
+  </si>
+  <si>
+    <t>E-13074</t>
+  </si>
+  <si>
+    <t>E-13086</t>
+  </si>
+  <si>
+    <t>12-jun-2023</t>
+  </si>
+  <si>
+    <t>E-13220</t>
+  </si>
+  <si>
+    <t>E-13221</t>
+  </si>
+  <si>
+    <t>13-jun-2023</t>
+  </si>
+  <si>
+    <t>E-13236</t>
+  </si>
+  <si>
+    <t>E-13307</t>
+  </si>
+  <si>
+    <t>15-jun-2023</t>
+  </si>
+  <si>
+    <t>E-13436</t>
+  </si>
+  <si>
+    <t>E-13456</t>
+  </si>
+  <si>
+    <t>E-13530</t>
+  </si>
+  <si>
+    <t>16-jun-2023</t>
+  </si>
+  <si>
+    <t>E-13625</t>
+  </si>
+  <si>
+    <t>17-jun-2023</t>
+  </si>
+  <si>
+    <t>E-13769</t>
+  </si>
+  <si>
+    <t>E-13775</t>
+  </si>
+  <si>
+    <t>E-13807</t>
+  </si>
+  <si>
+    <t>19-jun-2023</t>
+  </si>
+  <si>
+    <t>E-13871</t>
+  </si>
+  <si>
+    <t>20-jun-2023</t>
+  </si>
+  <si>
+    <t>E-14022</t>
+  </si>
+  <si>
+    <t>E-14024</t>
+  </si>
+  <si>
+    <t>22-jun-2023</t>
+  </si>
+  <si>
+    <t>E-14204</t>
+  </si>
+  <si>
+    <t>E-14205</t>
+  </si>
+  <si>
+    <t>E-14232</t>
+  </si>
+  <si>
+    <t>E-14234</t>
+  </si>
+  <si>
+    <t>E-14244</t>
+  </si>
+  <si>
+    <t>23-jun-2023</t>
+  </si>
+  <si>
+    <t>E-14295</t>
+  </si>
+  <si>
+    <t>E-14296</t>
+  </si>
+  <si>
+    <t>E-14297</t>
+  </si>
+  <si>
+    <t>24-jun-2023</t>
+  </si>
+  <si>
+    <t>E-14478</t>
+  </si>
+  <si>
+    <t>E-14483</t>
+  </si>
+  <si>
+    <t>26-jun-2023</t>
+  </si>
+  <si>
+    <t>E-14536</t>
+  </si>
+  <si>
+    <t>E-14553</t>
+  </si>
+  <si>
+    <t>27-jun-2023</t>
+  </si>
+  <si>
+    <t>E-14675</t>
+  </si>
+  <si>
+    <t>28-jun-2023</t>
+  </si>
+  <si>
+    <t>E-14765</t>
+  </si>
+  <si>
+    <t>E-14819</t>
+  </si>
+  <si>
+    <t>29-jun-2023</t>
+  </si>
+  <si>
+    <t>E-14842</t>
+  </si>
+  <si>
+    <t>E-14854</t>
+  </si>
+  <si>
+    <t>E-14898</t>
+  </si>
+  <si>
+    <t>E-14902</t>
+  </si>
+  <si>
+    <t>30-jun-2023</t>
+  </si>
+  <si>
+    <t>E-14960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>E-15127</t>
+  </si>
+  <si>
+    <t>E-15132</t>
   </si>
 </sst>
 </file>
@@ -1770,7 +2031,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="69">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -2626,12 +2887,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="375">
+  <cellXfs count="381">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3258,6 +3543,69 @@
     <xf numFmtId="16" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3309,69 +3657,6 @@
     <xf numFmtId="167" fontId="14" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3402,12 +3687,6 @@
     <xf numFmtId="166" fontId="3" fillId="7" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="51" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="51" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="14" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3417,11 +3696,27 @@
     <xf numFmtId="166" fontId="16" fillId="9" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="51" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="51" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="51" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="51" fillId="12" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="48" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3432,6 +3727,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF66FF"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FFFFCCCC"/>
       <color rgb="FFCCFF33"/>
@@ -5582,6 +5878,432 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83BD9866-FF79-48A3-8125-274D02C358E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5076825" y="11715749"/>
+          <a:ext cx="152400" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CB40F1F-8813-4BFC-8C98-C4B9398EBA6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4991100" y="11210925"/>
+          <a:ext cx="533400" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7705E016-15EF-48E9-8112-55956DB9A028}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5076825" y="11715749"/>
+          <a:ext cx="152400" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto de flecha 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EFF9FBA-ADFD-4F21-8022-9D7FA8728028}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2152650" y="11191875"/>
+          <a:ext cx="1781175" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>200023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133352</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Abrir llave 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DF22E63-49BB-45F3-B7CF-F3196DA45995}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7648576" y="10325097"/>
+          <a:ext cx="200026" cy="2124077"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 52985"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>64250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1323990" cy="419708"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectángulo 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADB3AFF8-1821-4422-8C39-1F09F5802A6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18916712">
+          <a:off x="0" y="12027650"/>
+          <a:ext cx="1323990" cy="419708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" cap="none" spc="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Rosy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> Tellez</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1400" b="1" cap="none" spc="0">
+            <a:ln w="6600">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent2"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector recto de flecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C60128-65EF-4D68-902C-E7D41384C4E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5000625" y="12049125"/>
+          <a:ext cx="923925" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -5876,23 +6598,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="337"/>
-      <c r="C1" s="339" t="s">
+      <c r="B1" s="332"/>
+      <c r="C1" s="334" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="340"/>
-      <c r="I1" s="340"/>
-      <c r="J1" s="340"/>
-      <c r="K1" s="340"/>
-      <c r="L1" s="340"/>
-      <c r="M1" s="340"/>
+      <c r="D1" s="335"/>
+      <c r="E1" s="335"/>
+      <c r="F1" s="335"/>
+      <c r="G1" s="335"/>
+      <c r="H1" s="335"/>
+      <c r="I1" s="335"/>
+      <c r="J1" s="335"/>
+      <c r="K1" s="335"/>
+      <c r="L1" s="335"/>
+      <c r="M1" s="335"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="338"/>
+      <c r="B2" s="333"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -5902,21 +6624,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="341" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="342"/>
+      <c r="B3" s="336" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="337"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="343" t="s">
+      <c r="H3" s="338" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="343"/>
+      <c r="I3" s="338"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="320" t="s">
+      <c r="R3" s="341" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5931,14 +6653,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="322" t="s">
+      <c r="E4" s="343" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="323"/>
-      <c r="H4" s="324" t="s">
+      <c r="F4" s="344"/>
+      <c r="H4" s="345" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="325"/>
+      <c r="I4" s="346"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -5948,11 +6670,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="326" t="s">
+      <c r="P4" s="347" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="327"/>
-      <c r="R4" s="321"/>
+      <c r="Q4" s="348"/>
+      <c r="R4" s="342"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -7757,11 +8479,11 @@
       <c r="L49" s="76">
         <v>549</v>
       </c>
-      <c r="M49" s="344">
+      <c r="M49" s="339">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="329">
+      <c r="N49" s="350">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
@@ -7796,8 +8518,8 @@
       <c r="L50" s="76">
         <v>2591.1799999999998</v>
       </c>
-      <c r="M50" s="345"/>
-      <c r="N50" s="330"/>
+      <c r="M50" s="340"/>
+      <c r="N50" s="351"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -7889,29 +8611,29 @@
       <c r="A55" s="133"/>
       <c r="B55" s="134"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="331" t="s">
+      <c r="H55" s="352" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="332"/>
+      <c r="I55" s="353"/>
       <c r="J55" s="135"/>
-      <c r="K55" s="333">
+      <c r="K55" s="354">
         <f>I53+L53</f>
         <v>63475.360000000001</v>
       </c>
-      <c r="L55" s="334"/>
-      <c r="M55" s="335">
+      <c r="L55" s="355"/>
+      <c r="M55" s="356">
         <f>N49+M49</f>
         <v>1715746.5</v>
       </c>
-      <c r="N55" s="336"/>
+      <c r="N55" s="357"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="328" t="s">
+      <c r="D56" s="349" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="328"/>
+      <c r="E56" s="349"/>
       <c r="F56" s="136">
         <f>F53-K55-C53</f>
         <v>1656897.64</v>
@@ -7922,22 +8644,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="346" t="s">
+      <c r="D57" s="320" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="346"/>
+      <c r="E57" s="320"/>
       <c r="F57" s="131">
         <v>-1524395.48</v>
       </c>
-      <c r="I57" s="347" t="s">
+      <c r="I57" s="321" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="348"/>
-      <c r="K57" s="349">
+      <c r="J57" s="322"/>
+      <c r="K57" s="323">
         <f>F59+F60+F61</f>
         <v>393764.05999999994</v>
       </c>
-      <c r="L57" s="350"/>
+      <c r="L57" s="324"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
@@ -7968,11 +8690,11 @@
         <v>18</v>
       </c>
       <c r="J59" s="147"/>
-      <c r="K59" s="351">
+      <c r="K59" s="325">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L59" s="352"/>
+      <c r="L59" s="326"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="148" t="s">
@@ -7989,22 +8711,22 @@
       <c r="C61" s="150">
         <v>44955</v>
       </c>
-      <c r="D61" s="353" t="s">
+      <c r="D61" s="327" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="354"/>
+      <c r="E61" s="328"/>
       <c r="F61" s="151">
         <v>223528.9</v>
       </c>
-      <c r="I61" s="355" t="s">
+      <c r="I61" s="329" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="356"/>
-      <c r="K61" s="357">
+      <c r="J61" s="330"/>
+      <c r="K61" s="331">
         <f>K57+K59</f>
         <v>19815.339999999967</v>
       </c>
-      <c r="L61" s="357"/>
+      <c r="L61" s="331"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="152"/>
@@ -8129,18 +8851,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M49:M50"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -8150,6 +8860,18 @@
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="M55:N55"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8167,7 +8889,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
+      <selection pane="bottomLeft" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9547,6 +10269,3391 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF66FF"/>
+  </sheetPr>
+  <dimension ref="A1:U79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="132" customWidth="1"/>
+    <col min="3" max="3" width="16" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="254" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="252" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="293" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27" style="2" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B1" s="332"/>
+      <c r="C1" s="334" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" s="335"/>
+      <c r="E1" s="335"/>
+      <c r="F1" s="335"/>
+      <c r="G1" s="335"/>
+      <c r="H1" s="335"/>
+      <c r="I1" s="335"/>
+      <c r="J1" s="335"/>
+      <c r="K1" s="335"/>
+      <c r="L1" s="335"/>
+      <c r="M1" s="335"/>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="333"/>
+      <c r="C2" s="4"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="303" t="s">
+        <v>214</v>
+      </c>
+      <c r="K2" s="304"/>
+      <c r="L2" s="253"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="336" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="337"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="H3" s="338" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="338"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="6"/>
+      <c r="R3" s="373" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16">
+        <v>345633.69</v>
+      </c>
+      <c r="D4" s="307">
+        <v>45081</v>
+      </c>
+      <c r="E4" s="343" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="344"/>
+      <c r="H4" s="345" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="346"/>
+      <c r="J4" s="255"/>
+      <c r="K4" s="256"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="359" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="360"/>
+      <c r="R4" s="374"/>
+    </row>
+    <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="24">
+        <v>45082</v>
+      </c>
+      <c r="C5" s="25">
+        <v>1965</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" s="27">
+        <v>45082</v>
+      </c>
+      <c r="F5" s="28">
+        <v>122017</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30">
+        <v>45082</v>
+      </c>
+      <c r="I5" s="31">
+        <v>135</v>
+      </c>
+      <c r="J5" s="251"/>
+      <c r="K5" s="257"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="33">
+        <f>73000+62801</f>
+        <v>135801</v>
+      </c>
+      <c r="N5" s="34">
+        <v>8009.28</v>
+      </c>
+      <c r="O5" s="35"/>
+      <c r="P5" s="235">
+        <f>N5+M5+L5+I5+C5</f>
+        <v>145910.28</v>
+      </c>
+      <c r="Q5" s="236">
+        <v>233.28</v>
+      </c>
+      <c r="R5" s="237">
+        <v>23660</v>
+      </c>
+      <c r="S5" s="37"/>
+    </row>
+    <row r="6" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="23"/>
+      <c r="B6" s="24">
+        <v>45083</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="27">
+        <v>45083</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30">
+        <v>45083</v>
+      </c>
+      <c r="I6" s="31"/>
+      <c r="J6" s="258"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="259"/>
+      <c r="M6" s="33">
+        <v>0</v>
+      </c>
+      <c r="N6" s="34">
+        <v>0</v>
+      </c>
+      <c r="O6" s="35"/>
+      <c r="P6" s="235">
+        <f>N6+M6+L6+I6+C6</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="236">
+        <f t="shared" ref="Q5:Q45" si="0">P6-F6</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="238">
+        <v>0</v>
+      </c>
+      <c r="S6" s="37"/>
+      <c r="T6" s="9"/>
+    </row>
+    <row r="7" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24">
+        <v>45084</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="27">
+        <v>45084</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30">
+        <v>45084</v>
+      </c>
+      <c r="I7" s="31"/>
+      <c r="J7" s="258"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="259"/>
+      <c r="M7" s="33">
+        <v>0</v>
+      </c>
+      <c r="N7" s="34">
+        <v>0</v>
+      </c>
+      <c r="O7" s="35"/>
+      <c r="P7" s="235">
+        <f>N7+M7+L7+I7+C7</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="238">
+        <v>0</v>
+      </c>
+      <c r="S7" s="37"/>
+    </row>
+    <row r="8" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="23"/>
+      <c r="B8" s="24">
+        <v>45085</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="27">
+        <v>45085</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30">
+        <v>45085</v>
+      </c>
+      <c r="I8" s="31"/>
+      <c r="J8" s="258"/>
+      <c r="K8" s="260"/>
+      <c r="L8" s="259"/>
+      <c r="M8" s="33">
+        <v>0</v>
+      </c>
+      <c r="N8" s="34">
+        <v>0</v>
+      </c>
+      <c r="O8" s="35"/>
+      <c r="P8" s="235">
+        <f t="shared" ref="P8:P45" si="1">N8+M8+L8+I8+C8</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="238">
+        <v>0</v>
+      </c>
+      <c r="S8" s="37"/>
+    </row>
+    <row r="9" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24">
+        <v>45086</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="27">
+        <v>45086</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30">
+        <v>45086</v>
+      </c>
+      <c r="I9" s="31"/>
+      <c r="J9" s="258"/>
+      <c r="K9" s="261"/>
+      <c r="L9" s="259"/>
+      <c r="M9" s="33">
+        <v>0</v>
+      </c>
+      <c r="N9" s="34">
+        <v>0</v>
+      </c>
+      <c r="O9" s="35"/>
+      <c r="P9" s="235">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="238">
+        <v>0</v>
+      </c>
+      <c r="S9" s="37"/>
+    </row>
+    <row r="10" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24">
+        <v>45087</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="27">
+        <v>45087</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30">
+        <v>45087</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="258"/>
+      <c r="K10" s="262"/>
+      <c r="L10" s="263"/>
+      <c r="M10" s="33">
+        <v>0</v>
+      </c>
+      <c r="N10" s="34">
+        <v>0</v>
+      </c>
+      <c r="O10" s="35"/>
+      <c r="P10" s="235">
+        <f>N10+M10+L10+I10+C10</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="238">
+        <v>0</v>
+      </c>
+      <c r="S10" s="37"/>
+      <c r="U10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24">
+        <v>45088</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="27">
+        <v>45088</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30">
+        <v>45088</v>
+      </c>
+      <c r="I11" s="31"/>
+      <c r="J11" s="258"/>
+      <c r="K11" s="261"/>
+      <c r="L11" s="259"/>
+      <c r="M11" s="33">
+        <v>0</v>
+      </c>
+      <c r="N11" s="34">
+        <v>0</v>
+      </c>
+      <c r="O11" s="35"/>
+      <c r="P11" s="235">
+        <f>N11+M11+L11+I11+C11</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="238">
+        <v>0</v>
+      </c>
+      <c r="S11" s="37"/>
+    </row>
+    <row r="12" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24">
+        <v>45089</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="27">
+        <v>45089</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="30">
+        <v>45089</v>
+      </c>
+      <c r="I12" s="31"/>
+      <c r="J12" s="258"/>
+      <c r="K12" s="264"/>
+      <c r="L12" s="259"/>
+      <c r="M12" s="33">
+        <v>0</v>
+      </c>
+      <c r="N12" s="34">
+        <v>0</v>
+      </c>
+      <c r="O12" s="35"/>
+      <c r="P12" s="235">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="238">
+        <v>0</v>
+      </c>
+      <c r="S12" s="37"/>
+    </row>
+    <row r="13" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24">
+        <v>45090</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="27">
+        <v>45090</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30">
+        <v>45090</v>
+      </c>
+      <c r="I13" s="31"/>
+      <c r="J13" s="258"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="259"/>
+      <c r="M13" s="33">
+        <v>0</v>
+      </c>
+      <c r="N13" s="34">
+        <v>0</v>
+      </c>
+      <c r="O13" s="35"/>
+      <c r="P13" s="235">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="238">
+        <v>0</v>
+      </c>
+      <c r="S13" s="37"/>
+    </row>
+    <row r="14" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24">
+        <v>45091</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="27">
+        <v>45091</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30">
+        <v>45091</v>
+      </c>
+      <c r="I14" s="31"/>
+      <c r="J14" s="258"/>
+      <c r="K14" s="260"/>
+      <c r="L14" s="259"/>
+      <c r="M14" s="33">
+        <v>0</v>
+      </c>
+      <c r="N14" s="34">
+        <v>0</v>
+      </c>
+      <c r="O14" s="35"/>
+      <c r="P14" s="235">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="238">
+        <v>0</v>
+      </c>
+      <c r="S14" s="37"/>
+    </row>
+    <row r="15" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24">
+        <v>45092</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="27">
+        <v>45092</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30">
+        <v>45092</v>
+      </c>
+      <c r="I15" s="31"/>
+      <c r="J15" s="258"/>
+      <c r="K15" s="260"/>
+      <c r="L15" s="259"/>
+      <c r="M15" s="33">
+        <v>0</v>
+      </c>
+      <c r="N15" s="34">
+        <v>0</v>
+      </c>
+      <c r="O15" s="314"/>
+      <c r="P15" s="235">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="238">
+        <v>0</v>
+      </c>
+      <c r="S15" s="37"/>
+    </row>
+    <row r="16" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24">
+        <v>45093</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="27">
+        <v>45093</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30">
+        <v>45093</v>
+      </c>
+      <c r="I16" s="31"/>
+      <c r="J16" s="258"/>
+      <c r="K16" s="260"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="33">
+        <v>0</v>
+      </c>
+      <c r="N16" s="34">
+        <v>0</v>
+      </c>
+      <c r="O16" s="35"/>
+      <c r="P16" s="235">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="238">
+        <v>0</v>
+      </c>
+      <c r="S16" s="37"/>
+    </row>
+    <row r="17" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24">
+        <v>45094</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="27">
+        <v>45094</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30">
+        <v>45094</v>
+      </c>
+      <c r="I17" s="31"/>
+      <c r="J17" s="258"/>
+      <c r="K17" s="260"/>
+      <c r="L17" s="263"/>
+      <c r="M17" s="33">
+        <v>0</v>
+      </c>
+      <c r="N17" s="34">
+        <v>0</v>
+      </c>
+      <c r="O17" s="35"/>
+      <c r="P17" s="235">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="238">
+        <v>0</v>
+      </c>
+      <c r="S17" s="37"/>
+    </row>
+    <row r="18" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24">
+        <v>45095</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="27">
+        <v>45095</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30">
+        <v>45095</v>
+      </c>
+      <c r="I18" s="31"/>
+      <c r="J18" s="258"/>
+      <c r="K18" s="265"/>
+      <c r="L18" s="259"/>
+      <c r="M18" s="33">
+        <v>0</v>
+      </c>
+      <c r="N18" s="34">
+        <v>0</v>
+      </c>
+      <c r="O18" s="35"/>
+      <c r="P18" s="235">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="238">
+        <v>0</v>
+      </c>
+      <c r="S18" s="37"/>
+    </row>
+    <row r="19" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24">
+        <v>45096</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="27">
+        <v>45096</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30">
+        <v>45096</v>
+      </c>
+      <c r="I19" s="31"/>
+      <c r="J19" s="258"/>
+      <c r="K19" s="266"/>
+      <c r="L19" s="267"/>
+      <c r="M19" s="33">
+        <v>0</v>
+      </c>
+      <c r="N19" s="34">
+        <v>0</v>
+      </c>
+      <c r="O19" s="35"/>
+      <c r="P19" s="235">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="238">
+        <v>0</v>
+      </c>
+      <c r="S19" s="37"/>
+    </row>
+    <row r="20" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="23"/>
+      <c r="B20" s="24">
+        <v>45097</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="27">
+        <v>45097</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30">
+        <v>45097</v>
+      </c>
+      <c r="I20" s="31"/>
+      <c r="J20" s="258"/>
+      <c r="K20" s="262"/>
+      <c r="L20" s="263"/>
+      <c r="M20" s="33">
+        <v>0</v>
+      </c>
+      <c r="N20" s="34">
+        <v>0</v>
+      </c>
+      <c r="O20" s="35"/>
+      <c r="P20" s="235">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="238">
+        <v>0</v>
+      </c>
+      <c r="S20" s="37"/>
+    </row>
+    <row r="21" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="23"/>
+      <c r="B21" s="24">
+        <v>45098</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="27">
+        <v>45098</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30">
+        <v>45098</v>
+      </c>
+      <c r="I21" s="31"/>
+      <c r="J21" s="258"/>
+      <c r="K21" s="268"/>
+      <c r="L21" s="263"/>
+      <c r="M21" s="33">
+        <v>0</v>
+      </c>
+      <c r="N21" s="34">
+        <v>0</v>
+      </c>
+      <c r="O21" s="35"/>
+      <c r="P21" s="235">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="238">
+        <v>0</v>
+      </c>
+      <c r="S21" s="37"/>
+    </row>
+    <row r="22" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="23"/>
+      <c r="B22" s="24">
+        <v>45099</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="27">
+        <v>45099</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30">
+        <v>45099</v>
+      </c>
+      <c r="I22" s="31"/>
+      <c r="J22" s="258"/>
+      <c r="K22" s="302"/>
+      <c r="L22" s="269"/>
+      <c r="M22" s="33">
+        <v>0</v>
+      </c>
+      <c r="N22" s="34">
+        <v>0</v>
+      </c>
+      <c r="O22" s="315"/>
+      <c r="P22" s="235">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="238">
+        <v>0</v>
+      </c>
+      <c r="S22" s="37"/>
+    </row>
+    <row r="23" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24">
+        <v>45100</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="27">
+        <v>45100</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30">
+        <v>45100</v>
+      </c>
+      <c r="I23" s="31"/>
+      <c r="J23" s="270"/>
+      <c r="K23" s="271"/>
+      <c r="L23" s="263"/>
+      <c r="M23" s="33">
+        <v>0</v>
+      </c>
+      <c r="N23" s="34">
+        <v>0</v>
+      </c>
+      <c r="O23" s="35"/>
+      <c r="P23" s="235">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="238">
+        <v>0</v>
+      </c>
+      <c r="S23" s="37"/>
+    </row>
+    <row r="24" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="23"/>
+      <c r="B24" s="24">
+        <v>45101</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="27">
+        <v>45101</v>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30">
+        <v>45101</v>
+      </c>
+      <c r="I24" s="31"/>
+      <c r="J24" s="272"/>
+      <c r="K24" s="271"/>
+      <c r="L24" s="273"/>
+      <c r="M24" s="33">
+        <v>0</v>
+      </c>
+      <c r="N24" s="34">
+        <v>0</v>
+      </c>
+      <c r="O24" s="35"/>
+      <c r="P24" s="235">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="238">
+        <v>0</v>
+      </c>
+      <c r="S24" s="37"/>
+    </row>
+    <row r="25" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24">
+        <v>45102</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="27">
+        <v>45102</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30">
+        <v>45102</v>
+      </c>
+      <c r="I25" s="31"/>
+      <c r="J25" s="274"/>
+      <c r="K25" s="275"/>
+      <c r="L25" s="276"/>
+      <c r="M25" s="33">
+        <v>0</v>
+      </c>
+      <c r="N25" s="34">
+        <v>0</v>
+      </c>
+      <c r="O25" s="35"/>
+      <c r="P25" s="235">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="238">
+        <v>0</v>
+      </c>
+      <c r="S25" s="37"/>
+    </row>
+    <row r="26" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="23"/>
+      <c r="B26" s="24">
+        <v>45103</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="27">
+        <v>45103</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30">
+        <v>45103</v>
+      </c>
+      <c r="I26" s="31"/>
+      <c r="J26" s="258"/>
+      <c r="K26" s="271"/>
+      <c r="L26" s="263"/>
+      <c r="M26" s="33">
+        <v>0</v>
+      </c>
+      <c r="N26" s="34">
+        <v>0</v>
+      </c>
+      <c r="O26" s="35"/>
+      <c r="P26" s="235">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="238">
+        <v>0</v>
+      </c>
+      <c r="S26" s="37"/>
+    </row>
+    <row r="27" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="23"/>
+      <c r="B27" s="24">
+        <v>45104</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="27">
+        <v>45104</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30">
+        <v>45104</v>
+      </c>
+      <c r="I27" s="31"/>
+      <c r="J27" s="277"/>
+      <c r="K27" s="275"/>
+      <c r="L27" s="276"/>
+      <c r="M27" s="33">
+        <v>0</v>
+      </c>
+      <c r="N27" s="34">
+        <v>0</v>
+      </c>
+      <c r="O27" s="35"/>
+      <c r="P27" s="235">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="238">
+        <v>0</v>
+      </c>
+      <c r="S27" s="37"/>
+    </row>
+    <row r="28" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="23"/>
+      <c r="B28" s="24">
+        <v>45105</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="27">
+        <v>45105</v>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="30">
+        <v>45105</v>
+      </c>
+      <c r="I28" s="31"/>
+      <c r="J28" s="278"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="276"/>
+      <c r="M28" s="33">
+        <v>0</v>
+      </c>
+      <c r="N28" s="34">
+        <v>0</v>
+      </c>
+      <c r="O28" s="35"/>
+      <c r="P28" s="235">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="238">
+        <v>0</v>
+      </c>
+      <c r="S28" s="37"/>
+    </row>
+    <row r="29" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24">
+        <v>45106</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="27">
+        <v>45106</v>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="30">
+        <v>45106</v>
+      </c>
+      <c r="I29" s="31"/>
+      <c r="J29" s="277"/>
+      <c r="K29" s="279"/>
+      <c r="L29" s="276"/>
+      <c r="M29" s="33">
+        <v>0</v>
+      </c>
+      <c r="N29" s="34">
+        <v>0</v>
+      </c>
+      <c r="O29" s="35"/>
+      <c r="P29" s="235">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="238">
+        <v>0</v>
+      </c>
+      <c r="S29" s="37"/>
+      <c r="T29" s="9"/>
+    </row>
+    <row r="30" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24">
+        <v>45107</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="27">
+        <v>45107</v>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="30">
+        <v>45107</v>
+      </c>
+      <c r="I30" s="31"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="280"/>
+      <c r="L30" s="281"/>
+      <c r="M30" s="33">
+        <v>0</v>
+      </c>
+      <c r="N30" s="34">
+        <v>0</v>
+      </c>
+      <c r="O30" s="35"/>
+      <c r="P30" s="235">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="238">
+        <v>0</v>
+      </c>
+      <c r="S30" s="37"/>
+    </row>
+    <row r="31" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24">
+        <v>45108</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="27">
+        <v>45108</v>
+      </c>
+      <c r="F31" s="28"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="30">
+        <v>45108</v>
+      </c>
+      <c r="I31" s="31"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="282"/>
+      <c r="L31" s="283"/>
+      <c r="M31" s="33">
+        <v>0</v>
+      </c>
+      <c r="N31" s="34">
+        <v>0</v>
+      </c>
+      <c r="O31" s="35"/>
+      <c r="P31" s="235">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="238">
+        <v>0</v>
+      </c>
+      <c r="S31" s="37"/>
+    </row>
+    <row r="32" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="23"/>
+      <c r="B32" s="24">
+        <v>45109</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="27">
+        <v>45109</v>
+      </c>
+      <c r="F32" s="28"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="30">
+        <v>45109</v>
+      </c>
+      <c r="I32" s="31"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="280"/>
+      <c r="L32" s="281"/>
+      <c r="M32" s="33">
+        <v>0</v>
+      </c>
+      <c r="N32" s="34">
+        <v>0</v>
+      </c>
+      <c r="O32" s="35"/>
+      <c r="P32" s="235">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="238">
+        <v>0</v>
+      </c>
+      <c r="S32" s="37"/>
+    </row>
+    <row r="33" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="282"/>
+      <c r="L33" s="216"/>
+      <c r="M33" s="33">
+        <v>0</v>
+      </c>
+      <c r="N33" s="34">
+        <v>0</v>
+      </c>
+      <c r="O33" s="35"/>
+      <c r="P33" s="235">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="238">
+        <v>0</v>
+      </c>
+      <c r="S33" s="37"/>
+    </row>
+    <row r="34" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="284"/>
+      <c r="M34" s="33">
+        <v>0</v>
+      </c>
+      <c r="N34" s="34">
+        <v>0</v>
+      </c>
+      <c r="O34" s="35"/>
+      <c r="P34" s="235">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="238">
+        <v>0</v>
+      </c>
+      <c r="S34" s="37"/>
+    </row>
+    <row r="35" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="23"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="282"/>
+      <c r="L35" s="216"/>
+      <c r="M35" s="33">
+        <v>0</v>
+      </c>
+      <c r="N35" s="34">
+        <v>0</v>
+      </c>
+      <c r="O35" s="35"/>
+      <c r="P35" s="235">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="238">
+        <v>0</v>
+      </c>
+      <c r="S35" s="37"/>
+    </row>
+    <row r="36" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="23"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="285"/>
+      <c r="L36" s="216"/>
+      <c r="M36" s="33">
+        <v>0</v>
+      </c>
+      <c r="N36" s="34">
+        <v>0</v>
+      </c>
+      <c r="O36" s="35"/>
+      <c r="P36" s="235">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="238">
+        <v>0</v>
+      </c>
+      <c r="S36" s="37"/>
+    </row>
+    <row r="37" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="23"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="318"/>
+      <c r="L37" s="216"/>
+      <c r="M37" s="33">
+        <v>0</v>
+      </c>
+      <c r="N37" s="34">
+        <v>0</v>
+      </c>
+      <c r="O37" s="35"/>
+      <c r="P37" s="235">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="238">
+        <v>0</v>
+      </c>
+      <c r="S37" s="37"/>
+    </row>
+    <row r="38" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="23"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="282"/>
+      <c r="L38" s="216"/>
+      <c r="M38" s="33">
+        <v>0</v>
+      </c>
+      <c r="N38" s="34">
+        <v>0</v>
+      </c>
+      <c r="O38" s="35"/>
+      <c r="P38" s="235">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="238">
+        <v>0</v>
+      </c>
+      <c r="S38" s="37"/>
+    </row>
+    <row r="39" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="23"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="86"/>
+      <c r="K39" s="319"/>
+      <c r="L39" s="281"/>
+      <c r="M39" s="33">
+        <v>0</v>
+      </c>
+      <c r="N39" s="34">
+        <v>0</v>
+      </c>
+      <c r="O39" s="35"/>
+      <c r="P39" s="235">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="238">
+        <v>0</v>
+      </c>
+      <c r="S39" s="37"/>
+    </row>
+    <row r="40" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="231"/>
+      <c r="L40" s="281"/>
+      <c r="M40" s="33">
+        <v>0</v>
+      </c>
+      <c r="N40" s="34">
+        <v>0</v>
+      </c>
+      <c r="O40" s="35"/>
+      <c r="P40" s="235">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="238">
+        <v>0</v>
+      </c>
+      <c r="S40" s="37"/>
+    </row>
+    <row r="41" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="23"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="305"/>
+      <c r="L41" s="281"/>
+      <c r="M41" s="33">
+        <v>0</v>
+      </c>
+      <c r="N41" s="34">
+        <v>0</v>
+      </c>
+      <c r="O41" s="35"/>
+      <c r="P41" s="235">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="238">
+        <v>0</v>
+      </c>
+      <c r="S41" s="37"/>
+    </row>
+    <row r="42" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="23"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="231"/>
+      <c r="L42" s="281"/>
+      <c r="M42" s="33">
+        <v>0</v>
+      </c>
+      <c r="N42" s="34">
+        <v>0</v>
+      </c>
+      <c r="O42" s="35"/>
+      <c r="P42" s="235">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="238">
+        <v>0</v>
+      </c>
+      <c r="S42" s="37"/>
+    </row>
+    <row r="43" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="23"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="91"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="89"/>
+      <c r="L43" s="281"/>
+      <c r="M43" s="33">
+        <v>0</v>
+      </c>
+      <c r="N43" s="34">
+        <v>0</v>
+      </c>
+      <c r="O43" s="35"/>
+      <c r="P43" s="240">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="242">
+        <v>0</v>
+      </c>
+      <c r="S43" s="37"/>
+    </row>
+    <row r="44" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="23"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="90"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="91"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="231"/>
+      <c r="L44" s="281"/>
+      <c r="M44" s="92">
+        <v>0</v>
+      </c>
+      <c r="N44" s="93"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="13">
+        <v>0</v>
+      </c>
+      <c r="S44" s="37"/>
+    </row>
+    <row r="45" spans="1:19" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="23"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="86"/>
+      <c r="K45" s="89"/>
+      <c r="L45" s="281"/>
+      <c r="M45" s="339">
+        <f>SUM(M5:M39)</f>
+        <v>135801</v>
+      </c>
+      <c r="N45" s="350">
+        <f>SUM(N5:N39)</f>
+        <v>8009.28</v>
+      </c>
+      <c r="P45" s="98">
+        <f t="shared" si="1"/>
+        <v>143810.28</v>
+      </c>
+      <c r="Q45" s="236">
+        <f t="shared" si="0"/>
+        <v>143810.28</v>
+      </c>
+      <c r="R45" s="99">
+        <f>SUM(R5:R39)</f>
+        <v>23660</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="23"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="96"/>
+      <c r="J46" s="86"/>
+      <c r="K46" s="102"/>
+      <c r="L46" s="281"/>
+      <c r="M46" s="340"/>
+      <c r="N46" s="351"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="23"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="109"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="113"/>
+      <c r="I47" s="91"/>
+      <c r="J47" s="86"/>
+      <c r="K47" s="287"/>
+      <c r="L47" s="216"/>
+      <c r="M47" s="105"/>
+      <c r="N47" s="106"/>
+      <c r="P47" s="36"/>
+      <c r="Q47" s="9"/>
+    </row>
+    <row r="48" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="23"/>
+      <c r="B48" s="111"/>
+      <c r="C48" s="25">
+        <v>0</v>
+      </c>
+      <c r="D48" s="115"/>
+      <c r="E48" s="116"/>
+      <c r="F48" s="107"/>
+      <c r="H48" s="117"/>
+      <c r="I48" s="91"/>
+      <c r="J48" s="288"/>
+      <c r="K48" s="289"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="120"/>
+      <c r="N48" s="34"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="9"/>
+    </row>
+    <row r="49" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="122">
+        <f>SUM(C5:C48)</f>
+        <v>1965</v>
+      </c>
+      <c r="D49" s="123"/>
+      <c r="E49" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="125">
+        <f>SUM(F5:F48)</f>
+        <v>122017</v>
+      </c>
+      <c r="G49" s="123"/>
+      <c r="H49" s="126" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" s="127">
+        <f>SUM(I5:I48)</f>
+        <v>135</v>
+      </c>
+      <c r="J49" s="290"/>
+      <c r="K49" s="291" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49" s="292">
+        <f>SUM(L5:L48)</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="131"/>
+      <c r="N49" s="131"/>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="9"/>
+    </row>
+    <row r="50" spans="1:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P50" s="36"/>
+      <c r="Q50" s="9"/>
+    </row>
+    <row r="51" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="133"/>
+      <c r="B51" s="134"/>
+      <c r="C51" s="1"/>
+      <c r="H51" s="352" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" s="353"/>
+      <c r="J51" s="135"/>
+      <c r="K51" s="354">
+        <f>I49+L49</f>
+        <v>135</v>
+      </c>
+      <c r="L51" s="355"/>
+      <c r="M51" s="356">
+        <f>N45+M45</f>
+        <v>143810.28</v>
+      </c>
+      <c r="N51" s="357"/>
+      <c r="P51" s="36"/>
+      <c r="Q51" s="9"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D52" s="349" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="349"/>
+      <c r="F52" s="136">
+        <f>F49-K51-C49</f>
+        <v>119917</v>
+      </c>
+      <c r="I52" s="137"/>
+      <c r="J52" s="138"/>
+      <c r="P52" s="36"/>
+      <c r="Q52" s="9"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D53" s="320" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="320"/>
+      <c r="F53" s="131">
+        <v>-3128572.23</v>
+      </c>
+      <c r="I53" s="321" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="322"/>
+      <c r="K53" s="361">
+        <f>F55+F56+F57</f>
+        <v>-2649547.12</v>
+      </c>
+      <c r="L53" s="362"/>
+      <c r="P53" s="36"/>
+      <c r="Q53" s="9"/>
+    </row>
+    <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D54" s="139"/>
+      <c r="E54" s="140"/>
+      <c r="F54" s="141">
+        <v>0</v>
+      </c>
+      <c r="I54" s="142"/>
+      <c r="J54" s="143"/>
+      <c r="K54" s="108"/>
+      <c r="L54" s="294"/>
+    </row>
+    <row r="55" spans="1:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="133" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="131">
+        <f>SUM(F52:F54)</f>
+        <v>-3008655.23</v>
+      </c>
+      <c r="H55" s="23"/>
+      <c r="I55" s="146" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" s="147"/>
+      <c r="K55" s="363">
+        <f>-C4</f>
+        <v>-345633.69</v>
+      </c>
+      <c r="L55" s="364"/>
+    </row>
+    <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D56" s="148" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="133" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C57" s="150">
+        <v>45109</v>
+      </c>
+      <c r="D57" s="327" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="328"/>
+      <c r="F57" s="316">
+        <v>359108.11</v>
+      </c>
+      <c r="I57" s="368" t="s">
+        <v>22</v>
+      </c>
+      <c r="J57" s="369"/>
+      <c r="K57" s="370">
+        <f>K53+K55</f>
+        <v>-2995180.81</v>
+      </c>
+      <c r="L57" s="370"/>
+    </row>
+    <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C58" s="152"/>
+      <c r="D58" s="153"/>
+      <c r="E58" s="154"/>
+      <c r="F58" s="155"/>
+      <c r="J58" s="295"/>
+    </row>
+    <row r="59" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="157"/>
+      <c r="J59" s="296"/>
+      <c r="K59" s="297"/>
+      <c r="L59" s="297"/>
+    </row>
+    <row r="60" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="159"/>
+      <c r="C60" s="160"/>
+      <c r="D60" s="161"/>
+      <c r="E60" s="36"/>
+      <c r="I60" s="157"/>
+      <c r="J60" s="296"/>
+      <c r="K60" s="297"/>
+      <c r="L60" s="297"/>
+      <c r="M60" s="162"/>
+      <c r="N60" s="133"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B61" s="159"/>
+      <c r="C61" s="163"/>
+      <c r="E61" s="36"/>
+      <c r="M61" s="162"/>
+      <c r="N61" s="133"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B62" s="159"/>
+      <c r="C62" s="163"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="164"/>
+      <c r="L62" s="298"/>
+      <c r="M62" s="1"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B63" s="159"/>
+      <c r="C63" s="163"/>
+      <c r="E63" s="36"/>
+      <c r="M63" s="1"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B64" s="159"/>
+      <c r="C64" s="163"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="166"/>
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E65" s="167"/>
+      <c r="F65" s="36"/>
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E66" s="167"/>
+      <c r="F66" s="36"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E67" s="167"/>
+      <c r="F67" s="36"/>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E68" s="167"/>
+      <c r="F68" s="36"/>
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E69" s="167"/>
+      <c r="F69" s="36"/>
+      <c r="M69" s="1"/>
+    </row>
+    <row r="70" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E70" s="167"/>
+      <c r="F70" s="36"/>
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E71" s="167"/>
+      <c r="F71" s="36"/>
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E72" s="167"/>
+      <c r="F72" s="36"/>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E73" s="167"/>
+      <c r="F73" s="36"/>
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E74" s="167"/>
+      <c r="F74" s="36"/>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E75" s="167"/>
+      <c r="F75" s="36"/>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E76" s="167"/>
+      <c r="F76" s="36"/>
+    </row>
+    <row r="77" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F77" s="166"/>
+    </row>
+    <row r="78" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F78" s="166"/>
+    </row>
+    <row r="79" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F79" s="166"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF66FF"/>
+  </sheetPr>
+  <dimension ref="A1:J115"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" style="206" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="207" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="209" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.42578125" style="133"/>
+    <col min="10" max="11" width="17.140625" style="133" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="133"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="211" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="168"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="171" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="172" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="173" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="174" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="175" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="174" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="176" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="375" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" s="376" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" s="378">
+        <v>3978.8</v>
+      </c>
+      <c r="D3" s="244"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="180">
+        <f>C3-E3</f>
+        <v>3978.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="375" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" s="376" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" s="378">
+        <v>64419.48</v>
+      </c>
+      <c r="D4" s="244"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="183">
+        <f>C4-E4+F3</f>
+        <v>68398.28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="375" t="s">
+        <v>299</v>
+      </c>
+      <c r="B5" s="376" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" s="378">
+        <v>95868.9</v>
+      </c>
+      <c r="D5" s="244"/>
+      <c r="E5" s="220"/>
+      <c r="F5" s="183">
+        <f t="shared" ref="F5:F68" si="0">C5-E5+F4</f>
+        <v>164267.18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="375" t="s">
+        <v>303</v>
+      </c>
+      <c r="B6" s="376" t="s">
+        <v>304</v>
+      </c>
+      <c r="C6" s="378">
+        <v>44423.7</v>
+      </c>
+      <c r="D6" s="244"/>
+      <c r="E6" s="220"/>
+      <c r="F6" s="183">
+        <f t="shared" si="0"/>
+        <v>208690.88</v>
+      </c>
+      <c r="G6" s="184"/>
+    </row>
+    <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="375" t="s">
+        <v>305</v>
+      </c>
+      <c r="B7" s="376" t="s">
+        <v>306</v>
+      </c>
+      <c r="C7" s="378">
+        <v>170743.1</v>
+      </c>
+      <c r="D7" s="244"/>
+      <c r="E7" s="220"/>
+      <c r="F7" s="183">
+        <f t="shared" si="0"/>
+        <v>379433.98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="375" t="s">
+        <v>305</v>
+      </c>
+      <c r="B8" s="376" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="378">
+        <v>60459.24</v>
+      </c>
+      <c r="D8" s="244"/>
+      <c r="E8" s="220"/>
+      <c r="F8" s="183">
+        <f t="shared" si="0"/>
+        <v>439893.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="375" t="s">
+        <v>308</v>
+      </c>
+      <c r="B9" s="376" t="s">
+        <v>309</v>
+      </c>
+      <c r="C9" s="378">
+        <v>7758.5</v>
+      </c>
+      <c r="D9" s="181"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="183">
+        <f t="shared" si="0"/>
+        <v>447651.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="375" t="s">
+        <v>308</v>
+      </c>
+      <c r="B10" s="376" t="s">
+        <v>310</v>
+      </c>
+      <c r="C10" s="378">
+        <v>132173.82</v>
+      </c>
+      <c r="D10" s="181"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="183">
+        <f t="shared" si="0"/>
+        <v>579825.54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="375" t="s">
+        <v>311</v>
+      </c>
+      <c r="B11" s="376" t="s">
+        <v>312</v>
+      </c>
+      <c r="C11" s="378">
+        <v>120438.76</v>
+      </c>
+      <c r="D11" s="181"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="183">
+        <f t="shared" si="0"/>
+        <v>700264.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="375" t="s">
+        <v>311</v>
+      </c>
+      <c r="B12" s="376" t="s">
+        <v>313</v>
+      </c>
+      <c r="C12" s="378">
+        <v>7203.42</v>
+      </c>
+      <c r="D12" s="181"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="183">
+        <f t="shared" si="0"/>
+        <v>707467.72000000009</v>
+      </c>
+      <c r="G12" s="184"/>
+    </row>
+    <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="375" t="s">
+        <v>314</v>
+      </c>
+      <c r="B13" s="376" t="s">
+        <v>315</v>
+      </c>
+      <c r="C13" s="378">
+        <v>107201.98</v>
+      </c>
+      <c r="D13" s="181"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="183">
+        <f t="shared" si="0"/>
+        <v>814669.70000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="375" t="s">
+        <v>314</v>
+      </c>
+      <c r="B14" s="376" t="s">
+        <v>316</v>
+      </c>
+      <c r="C14" s="378">
+        <v>16000.8</v>
+      </c>
+      <c r="D14" s="181"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="183">
+        <f t="shared" si="0"/>
+        <v>830670.50000000012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="375" t="s">
+        <v>317</v>
+      </c>
+      <c r="B15" s="376" t="s">
+        <v>318</v>
+      </c>
+      <c r="C15" s="378">
+        <v>10953.36</v>
+      </c>
+      <c r="D15" s="181"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="183">
+        <f t="shared" si="0"/>
+        <v>841623.8600000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="375" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" s="376" t="s">
+        <v>319</v>
+      </c>
+      <c r="C16" s="378">
+        <v>97086.17</v>
+      </c>
+      <c r="D16" s="181"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="183">
+        <f t="shared" si="0"/>
+        <v>938710.03000000014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="375" t="s">
+        <v>320</v>
+      </c>
+      <c r="B17" s="376" t="s">
+        <v>321</v>
+      </c>
+      <c r="C17" s="378">
+        <v>1822.2</v>
+      </c>
+      <c r="D17" s="181"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="183">
+        <f t="shared" si="0"/>
+        <v>940532.2300000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="375" t="s">
+        <v>320</v>
+      </c>
+      <c r="B18" s="376" t="s">
+        <v>322</v>
+      </c>
+      <c r="C18" s="378">
+        <v>161998.60999999999</v>
+      </c>
+      <c r="D18" s="181"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="183">
+        <f t="shared" si="0"/>
+        <v>1102530.8400000001</v>
+      </c>
+      <c r="J18" s="133" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="375" t="s">
+        <v>320</v>
+      </c>
+      <c r="B19" s="376" t="s">
+        <v>323</v>
+      </c>
+      <c r="C19" s="378">
+        <v>134198.39999999999</v>
+      </c>
+      <c r="D19" s="181"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="183">
+        <f t="shared" si="0"/>
+        <v>1236729.24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="375" t="s">
+        <v>324</v>
+      </c>
+      <c r="B20" s="376" t="s">
+        <v>325</v>
+      </c>
+      <c r="C20" s="378">
+        <v>22309.25</v>
+      </c>
+      <c r="D20" s="181"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="183">
+        <f t="shared" si="0"/>
+        <v>1259038.49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="375" t="s">
+        <v>326</v>
+      </c>
+      <c r="B21" s="376" t="s">
+        <v>327</v>
+      </c>
+      <c r="C21" s="378">
+        <v>123022.82</v>
+      </c>
+      <c r="D21" s="181"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="183">
+        <f t="shared" si="0"/>
+        <v>1382061.31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="375" t="s">
+        <v>326</v>
+      </c>
+      <c r="B22" s="376" t="s">
+        <v>328</v>
+      </c>
+      <c r="C22" s="378">
+        <v>68289.399999999994</v>
+      </c>
+      <c r="D22" s="181"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="183">
+        <f t="shared" si="0"/>
+        <v>1450350.71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="375" t="s">
+        <v>326</v>
+      </c>
+      <c r="B23" s="376" t="s">
+        <v>329</v>
+      </c>
+      <c r="C23" s="378">
+        <v>71866.8</v>
+      </c>
+      <c r="D23" s="181"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="183">
+        <f t="shared" si="0"/>
+        <v>1522217.51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="375" t="s">
+        <v>330</v>
+      </c>
+      <c r="B24" s="376" t="s">
+        <v>331</v>
+      </c>
+      <c r="C24" s="378">
+        <v>96915.5</v>
+      </c>
+      <c r="D24" s="181"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="183">
+        <f t="shared" si="0"/>
+        <v>1619133.01</v>
+      </c>
+      <c r="G24" s="184"/>
+    </row>
+    <row r="25" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="375" t="s">
+        <v>332</v>
+      </c>
+      <c r="B25" s="376" t="s">
+        <v>333</v>
+      </c>
+      <c r="C25" s="378">
+        <v>146054.39999999999</v>
+      </c>
+      <c r="D25" s="181"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="183">
+        <f t="shared" si="0"/>
+        <v>1765187.41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="375" t="s">
+        <v>332</v>
+      </c>
+      <c r="B26" s="376" t="s">
+        <v>334</v>
+      </c>
+      <c r="C26" s="378">
+        <v>37448.699999999997</v>
+      </c>
+      <c r="D26" s="181"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="183">
+        <f t="shared" si="0"/>
+        <v>1802636.1099999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="375" t="s">
+        <v>335</v>
+      </c>
+      <c r="B27" s="376" t="s">
+        <v>336</v>
+      </c>
+      <c r="C27" s="378">
+        <v>25900.95</v>
+      </c>
+      <c r="D27" s="181"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="183">
+        <f t="shared" si="0"/>
+        <v>1828537.0599999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="375" t="s">
+        <v>335</v>
+      </c>
+      <c r="B28" s="376" t="s">
+        <v>337</v>
+      </c>
+      <c r="C28" s="378">
+        <v>60133.8</v>
+      </c>
+      <c r="D28" s="181"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="183">
+        <f t="shared" si="0"/>
+        <v>1888670.8599999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="375" t="s">
+        <v>335</v>
+      </c>
+      <c r="B29" s="376" t="s">
+        <v>338</v>
+      </c>
+      <c r="C29" s="378">
+        <v>90966.99</v>
+      </c>
+      <c r="D29" s="181"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="183">
+        <f t="shared" si="0"/>
+        <v>1979637.8499999999</v>
+      </c>
+      <c r="J29" s="149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="375" t="s">
+        <v>335</v>
+      </c>
+      <c r="B30" s="376" t="s">
+        <v>339</v>
+      </c>
+      <c r="C30" s="378">
+        <v>2249.6</v>
+      </c>
+      <c r="D30" s="181"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="183">
+        <f t="shared" si="0"/>
+        <v>1981887.45</v>
+      </c>
+      <c r="J30" s="149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="375" t="s">
+        <v>335</v>
+      </c>
+      <c r="B31" s="376" t="s">
+        <v>340</v>
+      </c>
+      <c r="C31" s="378">
+        <v>76221.8</v>
+      </c>
+      <c r="D31" s="181"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="183">
+        <f t="shared" si="0"/>
+        <v>2058109.25</v>
+      </c>
+      <c r="J31" s="149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="375" t="s">
+        <v>341</v>
+      </c>
+      <c r="B32" s="376" t="s">
+        <v>342</v>
+      </c>
+      <c r="C32" s="378">
+        <v>151130.51999999999</v>
+      </c>
+      <c r="D32" s="181"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="183">
+        <f t="shared" si="0"/>
+        <v>2209239.77</v>
+      </c>
+      <c r="G32" s="184"/>
+      <c r="J32" s="149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="375" t="s">
+        <v>341</v>
+      </c>
+      <c r="B33" s="376" t="s">
+        <v>343</v>
+      </c>
+      <c r="C33" s="378">
+        <v>12096</v>
+      </c>
+      <c r="D33" s="181"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="183">
+        <f t="shared" si="0"/>
+        <v>2221335.77</v>
+      </c>
+      <c r="J33" s="149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="375" t="s">
+        <v>341</v>
+      </c>
+      <c r="B34" s="376" t="s">
+        <v>344</v>
+      </c>
+      <c r="C34" s="378">
+        <v>2859.98</v>
+      </c>
+      <c r="D34" s="181"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="183">
+        <f t="shared" si="0"/>
+        <v>2224195.75</v>
+      </c>
+      <c r="J34" s="149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="375" t="s">
+        <v>345</v>
+      </c>
+      <c r="B35" s="376" t="s">
+        <v>346</v>
+      </c>
+      <c r="C35" s="378">
+        <v>108017.5</v>
+      </c>
+      <c r="D35" s="181"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="183">
+        <f t="shared" si="0"/>
+        <v>2332213.25</v>
+      </c>
+      <c r="J35" s="149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="375" t="s">
+        <v>345</v>
+      </c>
+      <c r="B36" s="376" t="s">
+        <v>347</v>
+      </c>
+      <c r="C36" s="378">
+        <v>78286</v>
+      </c>
+      <c r="D36" s="181"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="183">
+        <f t="shared" si="0"/>
+        <v>2410499.25</v>
+      </c>
+      <c r="J36" s="133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="375" t="s">
+        <v>348</v>
+      </c>
+      <c r="B37" s="376" t="s">
+        <v>349</v>
+      </c>
+      <c r="C37" s="378">
+        <v>21014.12</v>
+      </c>
+      <c r="D37" s="181"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="183">
+        <f t="shared" si="0"/>
+        <v>2431513.37</v>
+      </c>
+      <c r="J37" s="187">
+        <f>SUM(J29:J36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="375" t="s">
+        <v>348</v>
+      </c>
+      <c r="B38" s="376" t="s">
+        <v>350</v>
+      </c>
+      <c r="C38" s="378">
+        <v>19076.400000000001</v>
+      </c>
+      <c r="D38" s="181"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="183">
+        <f t="shared" si="0"/>
+        <v>2450589.77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="375" t="s">
+        <v>351</v>
+      </c>
+      <c r="B39" s="376" t="s">
+        <v>352</v>
+      </c>
+      <c r="C39" s="378">
+        <v>74198.06</v>
+      </c>
+      <c r="D39" s="181"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="183">
+        <f t="shared" si="0"/>
+        <v>2524787.83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="375" t="s">
+        <v>353</v>
+      </c>
+      <c r="B40" s="376" t="s">
+        <v>354</v>
+      </c>
+      <c r="C40" s="378">
+        <v>20015.7</v>
+      </c>
+      <c r="D40" s="181"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="183">
+        <f t="shared" si="0"/>
+        <v>2544803.5300000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="375" t="s">
+        <v>353</v>
+      </c>
+      <c r="B41" s="376" t="s">
+        <v>355</v>
+      </c>
+      <c r="C41" s="378">
+        <v>98367.76</v>
+      </c>
+      <c r="D41" s="181"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="183">
+        <f t="shared" si="0"/>
+        <v>2643171.29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="375" t="s">
+        <v>356</v>
+      </c>
+      <c r="B42" s="376" t="s">
+        <v>357</v>
+      </c>
+      <c r="C42" s="378">
+        <v>36491.4</v>
+      </c>
+      <c r="D42" s="185"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="183">
+        <f t="shared" si="0"/>
+        <v>2679662.69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="375" t="s">
+        <v>356</v>
+      </c>
+      <c r="B43" s="376" t="s">
+        <v>358</v>
+      </c>
+      <c r="C43" s="378">
+        <v>83135.100000000006</v>
+      </c>
+      <c r="D43" s="192"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="183">
+        <f t="shared" si="0"/>
+        <v>2762797.79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="375" t="s">
+        <v>356</v>
+      </c>
+      <c r="B44" s="376" t="s">
+        <v>359</v>
+      </c>
+      <c r="C44" s="378">
+        <v>91182.07</v>
+      </c>
+      <c r="D44" s="192"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="183">
+        <f t="shared" si="0"/>
+        <v>2853979.86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="375" t="s">
+        <v>356</v>
+      </c>
+      <c r="B45" s="376" t="s">
+        <v>360</v>
+      </c>
+      <c r="C45" s="378">
+        <v>375</v>
+      </c>
+      <c r="D45" s="192"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="183">
+        <f t="shared" si="0"/>
+        <v>2854354.86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="375" t="s">
+        <v>361</v>
+      </c>
+      <c r="B46" s="376" t="s">
+        <v>362</v>
+      </c>
+      <c r="C46" s="378">
+        <v>117319.28</v>
+      </c>
+      <c r="D46" s="192"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="183">
+        <f t="shared" si="0"/>
+        <v>2971674.1399999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="380">
+        <v>45108</v>
+      </c>
+      <c r="B47" s="376" t="s">
+        <v>364</v>
+      </c>
+      <c r="C47" s="377">
+        <v>155507.29</v>
+      </c>
+      <c r="D47" s="192"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="183">
+        <f t="shared" si="0"/>
+        <v>3127181.4299999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="380">
+        <v>45108</v>
+      </c>
+      <c r="B48" s="376" t="s">
+        <v>365</v>
+      </c>
+      <c r="C48" s="377">
+        <v>1390.8</v>
+      </c>
+      <c r="D48" s="192"/>
+      <c r="E48" s="100"/>
+      <c r="F48" s="183">
+        <f t="shared" si="0"/>
+        <v>3128572.2299999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="380"/>
+      <c r="B49" s="376"/>
+      <c r="C49" s="377"/>
+      <c r="D49" s="192"/>
+      <c r="E49" s="100"/>
+      <c r="F49" s="183">
+        <f t="shared" si="0"/>
+        <v>3128572.2299999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="380"/>
+      <c r="B50" s="376"/>
+      <c r="C50" s="377"/>
+      <c r="D50" s="192"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="183">
+        <f t="shared" si="0"/>
+        <v>3128572.2299999995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="380"/>
+      <c r="B51" s="376"/>
+      <c r="C51" s="377"/>
+      <c r="D51" s="192"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="183">
+        <f t="shared" si="0"/>
+        <v>3128572.2299999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="379"/>
+      <c r="B52" s="248"/>
+      <c r="C52" s="149"/>
+      <c r="D52" s="192"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="183">
+        <f t="shared" si="0"/>
+        <v>3128572.2299999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="379"/>
+      <c r="B53" s="248"/>
+      <c r="C53" s="149"/>
+      <c r="D53" s="192"/>
+      <c r="E53" s="100"/>
+      <c r="F53" s="183">
+        <f t="shared" si="0"/>
+        <v>3128572.2299999995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="379"/>
+      <c r="B54" s="248"/>
+      <c r="C54" s="149"/>
+      <c r="D54" s="192"/>
+      <c r="E54" s="100"/>
+      <c r="F54" s="183">
+        <f t="shared" si="0"/>
+        <v>3128572.2299999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="246"/>
+      <c r="B55" s="248"/>
+      <c r="C55" s="149"/>
+      <c r="D55" s="192"/>
+      <c r="E55" s="100"/>
+      <c r="F55" s="183">
+        <f t="shared" si="0"/>
+        <v>3128572.2299999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="246"/>
+      <c r="B56" s="248"/>
+      <c r="C56" s="149"/>
+      <c r="D56" s="192"/>
+      <c r="E56" s="100"/>
+      <c r="F56" s="183">
+        <f t="shared" si="0"/>
+        <v>3128572.2299999995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="193"/>
+      <c r="B57" s="194"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="192"/>
+      <c r="E57" s="100"/>
+      <c r="F57" s="183">
+        <f t="shared" si="0"/>
+        <v>3128572.2299999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="193"/>
+      <c r="B58" s="194"/>
+      <c r="C58" s="100"/>
+      <c r="D58" s="192"/>
+      <c r="E58" s="100"/>
+      <c r="F58" s="183">
+        <f t="shared" si="0"/>
+        <v>3128572.2299999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="193"/>
+      <c r="B59" s="194"/>
+      <c r="C59" s="100"/>
+      <c r="D59" s="192"/>
+      <c r="E59" s="100"/>
+      <c r="F59" s="183">
+        <f t="shared" si="0"/>
+        <v>3128572.2299999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="193"/>
+      <c r="B60" s="194"/>
+      <c r="C60" s="100"/>
+      <c r="D60" s="192"/>
+      <c r="E60" s="100"/>
+      <c r="F60" s="183">
+        <f t="shared" si="0"/>
+        <v>3128572.2299999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="193"/>
+      <c r="B61" s="194"/>
+      <c r="C61" s="100"/>
+      <c r="D61" s="192"/>
+      <c r="E61" s="100"/>
+      <c r="F61" s="183">
+        <f t="shared" si="0"/>
+        <v>3128572.2299999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="195"/>
+      <c r="B62" s="196"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="197"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="183">
+        <f t="shared" si="0"/>
+        <v>3128572.2299999995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="195"/>
+      <c r="B63" s="196"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="197"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="183">
+        <f t="shared" si="0"/>
+        <v>3128572.2299999995</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="195"/>
+      <c r="B64" s="196"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="197"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="183">
+        <f t="shared" si="0"/>
+        <v>3128572.2299999995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="195"/>
+      <c r="B65" s="196"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="197"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="183">
+        <f t="shared" si="0"/>
+        <v>3128572.2299999995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="195"/>
+      <c r="B66" s="196"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="197"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="183">
+        <f t="shared" si="0"/>
+        <v>3128572.2299999995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="195"/>
+      <c r="B67" s="196"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="197"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="183">
+        <f t="shared" si="0"/>
+        <v>3128572.2299999995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="193"/>
+      <c r="B68" s="198"/>
+      <c r="C68" s="100"/>
+      <c r="D68" s="192"/>
+      <c r="E68" s="100"/>
+      <c r="F68" s="183">
+        <f t="shared" si="0"/>
+        <v>3128572.2299999995</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="193"/>
+      <c r="B69" s="198"/>
+      <c r="C69" s="100"/>
+      <c r="D69" s="192"/>
+      <c r="E69" s="100"/>
+      <c r="F69" s="183">
+        <f t="shared" ref="F69:F78" si="1">C69-E69+F68</f>
+        <v>3128572.2299999995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="193"/>
+      <c r="B70" s="198"/>
+      <c r="C70" s="100"/>
+      <c r="D70" s="192"/>
+      <c r="E70" s="100"/>
+      <c r="F70" s="183">
+        <f t="shared" si="1"/>
+        <v>3128572.2299999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="193"/>
+      <c r="B71" s="198"/>
+      <c r="C71" s="100"/>
+      <c r="D71" s="192"/>
+      <c r="E71" s="100"/>
+      <c r="F71" s="183">
+        <f t="shared" si="1"/>
+        <v>3128572.2299999995</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="193"/>
+      <c r="B72" s="198"/>
+      <c r="C72" s="100"/>
+      <c r="D72" s="192"/>
+      <c r="E72" s="100"/>
+      <c r="F72" s="183">
+        <f t="shared" si="1"/>
+        <v>3128572.2299999995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="193"/>
+      <c r="B73" s="198"/>
+      <c r="C73" s="100"/>
+      <c r="D73" s="192"/>
+      <c r="E73" s="100"/>
+      <c r="F73" s="183">
+        <f t="shared" si="1"/>
+        <v>3128572.2299999995</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="193"/>
+      <c r="B74" s="198"/>
+      <c r="C74" s="100"/>
+      <c r="D74" s="192"/>
+      <c r="E74" s="100"/>
+      <c r="F74" s="183">
+        <f t="shared" si="1"/>
+        <v>3128572.2299999995</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="193"/>
+      <c r="B75" s="198"/>
+      <c r="C75" s="100"/>
+      <c r="D75" s="192"/>
+      <c r="E75" s="100"/>
+      <c r="F75" s="183">
+        <f t="shared" si="1"/>
+        <v>3128572.2299999995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="193"/>
+      <c r="B76" s="198"/>
+      <c r="C76" s="100"/>
+      <c r="D76" s="192"/>
+      <c r="E76" s="100"/>
+      <c r="F76" s="183">
+        <f t="shared" si="1"/>
+        <v>3128572.2299999995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="193"/>
+      <c r="B77" s="198"/>
+      <c r="C77" s="100"/>
+      <c r="D77" s="192"/>
+      <c r="E77" s="100"/>
+      <c r="F77" s="183">
+        <f t="shared" si="1"/>
+        <v>3128572.2299999995</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="199"/>
+      <c r="B78" s="200"/>
+      <c r="C78" s="36">
+        <v>0</v>
+      </c>
+      <c r="D78" s="197"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="183">
+        <f t="shared" si="1"/>
+        <v>3128572.2299999995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="201"/>
+      <c r="B79" s="202"/>
+      <c r="C79" s="317">
+        <f>SUM(C3:C78)</f>
+        <v>3128572.2299999995</v>
+      </c>
+      <c r="D79" s="175"/>
+      <c r="E79" s="204">
+        <f>SUM(E3:E78)</f>
+        <v>0</v>
+      </c>
+      <c r="F79" s="205">
+        <f>F78</f>
+        <v>3128572.2299999995</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D80" s="197"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="197"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="208"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="208"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="208"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="208"/>
+      <c r="F85" s="133"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="208"/>
+      <c r="F86" s="133"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="208"/>
+      <c r="F87" s="133"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="208"/>
+      <c r="F88" s="133"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="208"/>
+      <c r="F89" s="133"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="208"/>
+      <c r="F90" s="133"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="208"/>
+      <c r="F91" s="133"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="208"/>
+      <c r="F92" s="133"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="208"/>
+      <c r="F93" s="133"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="208"/>
+      <c r="E94" s="133"/>
+      <c r="F94" s="133"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="208"/>
+      <c r="E95" s="133"/>
+      <c r="F95" s="133"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="208"/>
+      <c r="E96" s="133"/>
+      <c r="F96" s="133"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="208"/>
+      <c r="E97" s="133"/>
+      <c r="F97" s="133"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="208"/>
+      <c r="E98" s="133"/>
+      <c r="F98" s="133"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="208"/>
+      <c r="E99" s="133"/>
+      <c r="F99" s="133"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="208"/>
+      <c r="E100" s="133"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="208"/>
+      <c r="E101" s="133"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="208"/>
+      <c r="E102" s="133"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="208"/>
+      <c r="E103" s="133"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="208"/>
+      <c r="E104" s="133"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="208"/>
+      <c r="E105" s="133"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="208"/>
+      <c r="E106" s="133"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="208"/>
+      <c r="E107" s="133"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="208"/>
+      <c r="E108" s="133"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="208"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="208"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="208"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="208"/>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="208"/>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" s="208"/>
+    </row>
+    <row r="115" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C115" s="210"/>
+    </row>
+  </sheetData>
+  <sortState ref="A34:C51">
+    <sortCondition ref="B34:B51"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -9558,7 +13665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10929,23 +15036,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="337"/>
-      <c r="C1" s="339" t="s">
+      <c r="B1" s="332"/>
+      <c r="C1" s="334" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="340"/>
-      <c r="I1" s="340"/>
-      <c r="J1" s="340"/>
-      <c r="K1" s="340"/>
-      <c r="L1" s="340"/>
-      <c r="M1" s="340"/>
+      <c r="D1" s="335"/>
+      <c r="E1" s="335"/>
+      <c r="F1" s="335"/>
+      <c r="G1" s="335"/>
+      <c r="H1" s="335"/>
+      <c r="I1" s="335"/>
+      <c r="J1" s="335"/>
+      <c r="K1" s="335"/>
+      <c r="L1" s="335"/>
+      <c r="M1" s="335"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="338"/>
+      <c r="B2" s="333"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -10955,21 +15062,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="341" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="342"/>
+      <c r="B3" s="336" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="337"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="343" t="s">
+      <c r="H3" s="338" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="343"/>
+      <c r="I3" s="338"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="320" t="s">
+      <c r="R3" s="341" t="s">
         <v>2</v>
       </c>
     </row>
@@ -10984,14 +15091,14 @@
       <c r="D4" s="17">
         <v>44955</v>
       </c>
-      <c r="E4" s="322" t="s">
+      <c r="E4" s="343" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="323"/>
-      <c r="H4" s="324" t="s">
+      <c r="F4" s="344"/>
+      <c r="H4" s="345" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="325"/>
+      <c r="I4" s="346"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -12806,11 +16913,11 @@
       <c r="J45" s="74"/>
       <c r="K45" s="97"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="344">
+      <c r="M45" s="339">
         <f>SUM(M5:M39)</f>
         <v>2238523</v>
       </c>
-      <c r="N45" s="329">
+      <c r="N45" s="350">
         <f>SUM(N5:N39)</f>
         <v>97258</v>
       </c>
@@ -12840,8 +16947,8 @@
       <c r="J46" s="74"/>
       <c r="K46" s="102"/>
       <c r="L46" s="76"/>
-      <c r="M46" s="345"/>
-      <c r="N46" s="330"/>
+      <c r="M46" s="340"/>
+      <c r="N46" s="351"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -12933,29 +17040,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="331" t="s">
+      <c r="H51" s="352" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="332"/>
+      <c r="I51" s="353"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="333">
+      <c r="K51" s="354">
         <f>I49+L49</f>
         <v>90767.040000000008</v>
       </c>
-      <c r="L51" s="334"/>
-      <c r="M51" s="335">
+      <c r="L51" s="355"/>
+      <c r="M51" s="356">
         <f>N45+M45</f>
         <v>2335781</v>
       </c>
-      <c r="N51" s="336"/>
+      <c r="N51" s="357"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="328" t="s">
+      <c r="D52" s="349" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="328"/>
+      <c r="E52" s="349"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2261973.96</v>
@@ -12966,22 +17073,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="346" t="s">
+      <c r="D53" s="320" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="346"/>
+      <c r="E53" s="320"/>
       <c r="F53" s="131">
         <v>-2224189.7400000002</v>
       </c>
-      <c r="I53" s="347" t="s">
+      <c r="I53" s="321" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="348"/>
-      <c r="K53" s="349">
+      <c r="J53" s="322"/>
+      <c r="K53" s="323">
         <f>F55+F56+F57</f>
         <v>296963.76999999973</v>
       </c>
-      <c r="L53" s="350"/>
+      <c r="L53" s="324"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -13012,11 +17119,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="351">
+      <c r="K55" s="325">
         <f>-C4</f>
         <v>-223528.9</v>
       </c>
-      <c r="L55" s="352"/>
+      <c r="L55" s="326"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -13033,22 +17140,22 @@
       <c r="C57" s="150">
         <v>44985</v>
       </c>
-      <c r="D57" s="353" t="s">
+      <c r="D57" s="327" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="354"/>
+      <c r="E57" s="328"/>
       <c r="F57" s="151">
         <v>230554.55</v>
       </c>
-      <c r="I57" s="355" t="s">
+      <c r="I57" s="329" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="356"/>
-      <c r="K57" s="357">
+      <c r="J57" s="330"/>
+      <c r="K57" s="331">
         <f>K53+K55</f>
         <v>73434.869999999733</v>
       </c>
-      <c r="L57" s="357"/>
+      <c r="L57" s="331"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -13173,18 +17280,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -13194,6 +17289,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14652,23 +18759,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="337"/>
-      <c r="C1" s="339" t="s">
+      <c r="B1" s="332"/>
+      <c r="C1" s="334" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="340"/>
-      <c r="I1" s="340"/>
-      <c r="J1" s="340"/>
-      <c r="K1" s="340"/>
-      <c r="L1" s="340"/>
-      <c r="M1" s="340"/>
+      <c r="D1" s="335"/>
+      <c r="E1" s="335"/>
+      <c r="F1" s="335"/>
+      <c r="G1" s="335"/>
+      <c r="H1" s="335"/>
+      <c r="I1" s="335"/>
+      <c r="J1" s="335"/>
+      <c r="K1" s="335"/>
+      <c r="L1" s="335"/>
+      <c r="M1" s="335"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="338"/>
+      <c r="B2" s="333"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -14678,21 +18785,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="341" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="342"/>
+      <c r="B3" s="336" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="337"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="343" t="s">
+      <c r="H3" s="338" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="343"/>
+      <c r="I3" s="338"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="320" t="s">
+      <c r="R3" s="341" t="s">
         <v>2</v>
       </c>
     </row>
@@ -14707,14 +18814,14 @@
       <c r="D4" s="17">
         <v>44985</v>
       </c>
-      <c r="E4" s="322" t="s">
+      <c r="E4" s="343" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="323"/>
-      <c r="H4" s="324" t="s">
+      <c r="F4" s="344"/>
+      <c r="H4" s="345" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="325"/>
+      <c r="I4" s="346"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -16521,11 +20628,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="231"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="344">
+      <c r="M45" s="339">
         <f>SUM(M5:M39)</f>
         <v>2689952</v>
       </c>
-      <c r="N45" s="329">
+      <c r="N45" s="350">
         <f>SUM(N5:N39)</f>
         <v>61422</v>
       </c>
@@ -16555,8 +20662,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="345"/>
-      <c r="N46" s="330"/>
+      <c r="M46" s="340"/>
+      <c r="N46" s="351"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -16648,29 +20755,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="331" t="s">
+      <c r="H51" s="352" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="332"/>
+      <c r="I51" s="353"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="333">
+      <c r="K51" s="354">
         <f>I49+L49</f>
         <v>425400.67</v>
       </c>
-      <c r="L51" s="334"/>
-      <c r="M51" s="335">
+      <c r="L51" s="355"/>
+      <c r="M51" s="356">
         <f>N45+M45</f>
         <v>2751374</v>
       </c>
-      <c r="N51" s="336"/>
+      <c r="N51" s="357"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="328" t="s">
+      <c r="D52" s="349" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="328"/>
+      <c r="E52" s="349"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2464124.33</v>
@@ -16681,17 +20788,17 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="346" t="s">
+      <c r="D53" s="320" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="346"/>
+      <c r="E53" s="320"/>
       <c r="F53" s="131">
         <v>-2869426.04</v>
       </c>
-      <c r="I53" s="347" t="s">
+      <c r="I53" s="321" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="348"/>
+      <c r="J53" s="322"/>
       <c r="K53" s="361">
         <f>F55+F56+F57</f>
         <v>-32021.369999999937</v>
@@ -16748,10 +20855,10 @@
       <c r="C57" s="150">
         <v>45015</v>
       </c>
-      <c r="D57" s="353" t="s">
+      <c r="D57" s="327" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="354"/>
+      <c r="E57" s="328"/>
       <c r="F57" s="151">
         <v>341192.34</v>
       </c>
@@ -16888,6 +20995,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -16897,18 +21016,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18310,23 +22417,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="337"/>
-      <c r="C1" s="339" t="s">
+      <c r="B1" s="332"/>
+      <c r="C1" s="334" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="340"/>
-      <c r="I1" s="340"/>
-      <c r="J1" s="340"/>
-      <c r="K1" s="340"/>
-      <c r="L1" s="340"/>
-      <c r="M1" s="340"/>
+      <c r="D1" s="335"/>
+      <c r="E1" s="335"/>
+      <c r="F1" s="335"/>
+      <c r="G1" s="335"/>
+      <c r="H1" s="335"/>
+      <c r="I1" s="335"/>
+      <c r="J1" s="335"/>
+      <c r="K1" s="335"/>
+      <c r="L1" s="335"/>
+      <c r="M1" s="335"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="338"/>
+      <c r="B2" s="333"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -18339,21 +22446,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="341" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="342"/>
+      <c r="B3" s="336" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="337"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="343" t="s">
+      <c r="H3" s="338" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="343"/>
+      <c r="I3" s="338"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="368" t="s">
+      <c r="R3" s="371" t="s">
         <v>2</v>
       </c>
     </row>
@@ -18368,14 +22475,14 @@
       <c r="D4" s="17">
         <v>45015</v>
       </c>
-      <c r="E4" s="322" t="s">
+      <c r="E4" s="343" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="323"/>
-      <c r="H4" s="324" t="s">
+      <c r="F4" s="344"/>
+      <c r="H4" s="345" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="325"/>
+      <c r="I4" s="346"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -18389,7 +22496,7 @@
         <v>8</v>
       </c>
       <c r="Q4" s="360"/>
-      <c r="R4" s="369"/>
+      <c r="R4" s="372"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -20276,11 +24383,11 @@
       <c r="L45" s="312">
         <v>2123.98</v>
       </c>
-      <c r="M45" s="344">
+      <c r="M45" s="339">
         <f>SUM(M5:M39)</f>
         <v>2488709</v>
       </c>
-      <c r="N45" s="329">
+      <c r="N45" s="350">
         <f>SUM(N5:N39)</f>
         <v>78710</v>
       </c>
@@ -20316,8 +24423,8 @@
       <c r="L46" s="281">
         <v>34015</v>
       </c>
-      <c r="M46" s="345"/>
-      <c r="N46" s="330"/>
+      <c r="M46" s="340"/>
+      <c r="N46" s="351"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -20409,29 +24516,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="331" t="s">
+      <c r="H51" s="352" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="332"/>
+      <c r="I51" s="353"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="333">
+      <c r="K51" s="354">
         <f>I49+L49</f>
         <v>124244.06999999999</v>
       </c>
-      <c r="L51" s="334"/>
-      <c r="M51" s="335">
+      <c r="L51" s="355"/>
+      <c r="M51" s="356">
         <f>N45+M45</f>
         <v>2567419</v>
       </c>
-      <c r="N51" s="336"/>
+      <c r="N51" s="357"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="328" t="s">
+      <c r="D52" s="349" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="328"/>
+      <c r="E52" s="349"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2480239.9300000002</v>
@@ -20442,17 +24549,17 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="346" t="s">
+      <c r="D53" s="320" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="346"/>
+      <c r="E53" s="320"/>
       <c r="F53" s="131">
         <v>-2463938.5299999998</v>
       </c>
-      <c r="I53" s="347" t="s">
+      <c r="I53" s="321" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="348"/>
+      <c r="J53" s="322"/>
       <c r="K53" s="361">
         <f>F55+F56+F57</f>
         <v>439109.10000000038</v>
@@ -20509,22 +24616,22 @@
       <c r="C57" s="150">
         <v>45050</v>
       </c>
-      <c r="D57" s="353" t="s">
+      <c r="D57" s="327" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="354"/>
+      <c r="E57" s="328"/>
       <c r="F57" s="151">
         <v>394548.7</v>
       </c>
-      <c r="I57" s="370" t="s">
+      <c r="I57" s="368" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="371"/>
-      <c r="K57" s="372">
+      <c r="J57" s="369"/>
+      <c r="K57" s="370">
         <f>K53+K55</f>
         <v>97916.760000000359</v>
       </c>
-      <c r="L57" s="372"/>
+      <c r="L57" s="370"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -20649,18 +24756,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -20670,6 +24765,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.27559055118110237" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22035,8 +26142,8 @@
   </sheetPr>
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D34" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+    <sheetView topLeftCell="D28" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -22061,23 +26168,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="337"/>
-      <c r="C1" s="339" t="s">
+      <c r="B1" s="332"/>
+      <c r="C1" s="334" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="340"/>
-      <c r="I1" s="340"/>
-      <c r="J1" s="340"/>
-      <c r="K1" s="340"/>
-      <c r="L1" s="340"/>
-      <c r="M1" s="340"/>
+      <c r="D1" s="335"/>
+      <c r="E1" s="335"/>
+      <c r="F1" s="335"/>
+      <c r="G1" s="335"/>
+      <c r="H1" s="335"/>
+      <c r="I1" s="335"/>
+      <c r="J1" s="335"/>
+      <c r="K1" s="335"/>
+      <c r="L1" s="335"/>
+      <c r="M1" s="335"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="338"/>
+      <c r="B2" s="333"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -22090,17 +26197,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="341" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="342"/>
+      <c r="B3" s="336" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="337"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="343" t="s">
+      <c r="H3" s="338" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="343"/>
+      <c r="I3" s="338"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
@@ -22119,14 +26226,14 @@
       <c r="D4" s="307">
         <v>45050</v>
       </c>
-      <c r="E4" s="322" t="s">
+      <c r="E4" s="343" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="323"/>
-      <c r="H4" s="324" t="s">
+      <c r="F4" s="344"/>
+      <c r="H4" s="345" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="325"/>
+      <c r="I4" s="346"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -24013,11 +28120,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="344">
+      <c r="M45" s="339">
         <f>SUM(M5:M39)</f>
         <v>3007589</v>
       </c>
-      <c r="N45" s="329">
+      <c r="N45" s="350">
         <f>SUM(N5:N39)</f>
         <v>29752</v>
       </c>
@@ -24047,8 +28154,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="345"/>
-      <c r="N46" s="330"/>
+      <c r="M46" s="340"/>
+      <c r="N46" s="351"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -24140,29 +28247,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="331" t="s">
+      <c r="H51" s="352" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="332"/>
+      <c r="I51" s="353"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="333">
+      <c r="K51" s="354">
         <f>I49+L49</f>
         <v>84500.43</v>
       </c>
-      <c r="L51" s="334"/>
-      <c r="M51" s="335">
+      <c r="L51" s="355"/>
+      <c r="M51" s="356">
         <f>N45+M45</f>
         <v>3037341</v>
       </c>
-      <c r="N51" s="336"/>
+      <c r="N51" s="357"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="328" t="s">
+      <c r="D52" s="349" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="328"/>
+      <c r="E52" s="349"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2988109.57</v>
@@ -24173,17 +28280,17 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="346" t="s">
+      <c r="D53" s="320" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="346"/>
+      <c r="E53" s="320"/>
       <c r="F53" s="131">
         <v>-2955802.29</v>
       </c>
-      <c r="I53" s="347" t="s">
+      <c r="I53" s="321" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="348"/>
+      <c r="J53" s="322"/>
       <c r="K53" s="361">
         <f>F55+F56+F57</f>
         <v>419364.9699999998</v>
@@ -24240,22 +28347,22 @@
       <c r="C57" s="150">
         <v>45081</v>
       </c>
-      <c r="D57" s="353" t="s">
+      <c r="D57" s="327" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="354"/>
+      <c r="E57" s="328"/>
       <c r="F57" s="316">
         <v>345633.69</v>
       </c>
-      <c r="I57" s="370" t="s">
+      <c r="I57" s="368" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="371"/>
-      <c r="K57" s="372">
+      <c r="J57" s="369"/>
+      <c r="K57" s="370">
         <f>K53+K55</f>
         <v>24816.269999999786</v>
       </c>
-      <c r="L57" s="372"/>
+      <c r="L57" s="370"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -24380,6 +28487,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -24389,18 +28508,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  HERRADURA  JUNIO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  HERRADURA  JUNIO    2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20715" windowHeight="11730" firstSheet="9" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20715" windowHeight="11730" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="  E N E R O    2 0 2 3     " sheetId="1" r:id="rId1"/>
@@ -385,7 +385,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="367">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1496,6 +1496,9 @@
   </si>
   <si>
     <t>E-15132</t>
+  </si>
+  <si>
+    <t>NOMINA # 23</t>
   </si>
 </sst>
 </file>
@@ -3543,6 +3546,16 @@
     <xf numFmtId="16" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="48" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3707,16 +3720,6 @@
     </xf>
     <xf numFmtId="44" fontId="51" fillId="12" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="4" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="48" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6598,23 +6601,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="332"/>
-      <c r="C1" s="334" t="s">
+      <c r="B1" s="338"/>
+      <c r="C1" s="340" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="335"/>
-      <c r="E1" s="335"/>
-      <c r="F1" s="335"/>
-      <c r="G1" s="335"/>
-      <c r="H1" s="335"/>
-      <c r="I1" s="335"/>
-      <c r="J1" s="335"/>
-      <c r="K1" s="335"/>
-      <c r="L1" s="335"/>
-      <c r="M1" s="335"/>
+      <c r="D1" s="341"/>
+      <c r="E1" s="341"/>
+      <c r="F1" s="341"/>
+      <c r="G1" s="341"/>
+      <c r="H1" s="341"/>
+      <c r="I1" s="341"/>
+      <c r="J1" s="341"/>
+      <c r="K1" s="341"/>
+      <c r="L1" s="341"/>
+      <c r="M1" s="341"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="333"/>
+      <c r="B2" s="339"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -6624,21 +6627,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="336" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="337"/>
+      <c r="B3" s="342" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="343"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="338" t="s">
+      <c r="H3" s="344" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="338"/>
+      <c r="I3" s="344"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="341" t="s">
+      <c r="R3" s="347" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6653,14 +6656,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="343" t="s">
+      <c r="E4" s="349" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="344"/>
-      <c r="H4" s="345" t="s">
+      <c r="F4" s="350"/>
+      <c r="H4" s="351" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="346"/>
+      <c r="I4" s="352"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -6670,11 +6673,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="347" t="s">
+      <c r="P4" s="353" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="348"/>
-      <c r="R4" s="342"/>
+      <c r="Q4" s="354"/>
+      <c r="R4" s="348"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -8479,11 +8482,11 @@
       <c r="L49" s="76">
         <v>549</v>
       </c>
-      <c r="M49" s="339">
+      <c r="M49" s="345">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="350">
+      <c r="N49" s="356">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
@@ -8518,8 +8521,8 @@
       <c r="L50" s="76">
         <v>2591.1799999999998</v>
       </c>
-      <c r="M50" s="340"/>
-      <c r="N50" s="351"/>
+      <c r="M50" s="346"/>
+      <c r="N50" s="357"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -8611,29 +8614,29 @@
       <c r="A55" s="133"/>
       <c r="B55" s="134"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="352" t="s">
+      <c r="H55" s="358" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="353"/>
+      <c r="I55" s="359"/>
       <c r="J55" s="135"/>
-      <c r="K55" s="354">
+      <c r="K55" s="360">
         <f>I53+L53</f>
         <v>63475.360000000001</v>
       </c>
-      <c r="L55" s="355"/>
-      <c r="M55" s="356">
+      <c r="L55" s="361"/>
+      <c r="M55" s="362">
         <f>N49+M49</f>
         <v>1715746.5</v>
       </c>
-      <c r="N55" s="357"/>
+      <c r="N55" s="363"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="349" t="s">
+      <c r="D56" s="355" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="349"/>
+      <c r="E56" s="355"/>
       <c r="F56" s="136">
         <f>F53-K55-C53</f>
         <v>1656897.64</v>
@@ -8644,22 +8647,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="320" t="s">
+      <c r="D57" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="326"/>
       <c r="F57" s="131">
         <v>-1524395.48</v>
       </c>
-      <c r="I57" s="321" t="s">
+      <c r="I57" s="327" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="322"/>
-      <c r="K57" s="323">
+      <c r="J57" s="328"/>
+      <c r="K57" s="329">
         <f>F59+F60+F61</f>
         <v>393764.05999999994</v>
       </c>
-      <c r="L57" s="324"/>
+      <c r="L57" s="330"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
@@ -8690,11 +8693,11 @@
         <v>18</v>
       </c>
       <c r="J59" s="147"/>
-      <c r="K59" s="325">
+      <c r="K59" s="331">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L59" s="326"/>
+      <c r="L59" s="332"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="148" t="s">
@@ -8711,22 +8714,22 @@
       <c r="C61" s="150">
         <v>44955</v>
       </c>
-      <c r="D61" s="327" t="s">
+      <c r="D61" s="333" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="328"/>
+      <c r="E61" s="334"/>
       <c r="F61" s="151">
         <v>223528.9</v>
       </c>
-      <c r="I61" s="329" t="s">
+      <c r="I61" s="335" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="330"/>
-      <c r="K61" s="331">
+      <c r="J61" s="336"/>
+      <c r="K61" s="337">
         <f>K57+K59</f>
         <v>19815.339999999967</v>
       </c>
-      <c r="L61" s="331"/>
+      <c r="L61" s="337"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="152"/>
@@ -10275,8 +10278,8 @@
   </sheetPr>
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10301,23 +10304,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="332"/>
-      <c r="C1" s="334" t="s">
+      <c r="B1" s="338"/>
+      <c r="C1" s="340" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="335"/>
-      <c r="E1" s="335"/>
-      <c r="F1" s="335"/>
-      <c r="G1" s="335"/>
-      <c r="H1" s="335"/>
-      <c r="I1" s="335"/>
-      <c r="J1" s="335"/>
-      <c r="K1" s="335"/>
-      <c r="L1" s="335"/>
-      <c r="M1" s="335"/>
+      <c r="D1" s="341"/>
+      <c r="E1" s="341"/>
+      <c r="F1" s="341"/>
+      <c r="G1" s="341"/>
+      <c r="H1" s="341"/>
+      <c r="I1" s="341"/>
+      <c r="J1" s="341"/>
+      <c r="K1" s="341"/>
+      <c r="L1" s="341"/>
+      <c r="M1" s="341"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="333"/>
+      <c r="B2" s="339"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -10330,21 +10333,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="336" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="337"/>
+      <c r="B3" s="342" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="343"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="338" t="s">
+      <c r="H3" s="344" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="338"/>
+      <c r="I3" s="344"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="373" t="s">
+      <c r="R3" s="379" t="s">
         <v>2</v>
       </c>
     </row>
@@ -10359,14 +10362,14 @@
       <c r="D4" s="307">
         <v>45081</v>
       </c>
-      <c r="E4" s="343" t="s">
+      <c r="E4" s="349" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="344"/>
-      <c r="H4" s="345" t="s">
+      <c r="F4" s="350"/>
+      <c r="H4" s="351" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="346"/>
+      <c r="I4" s="352"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -10376,11 +10379,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="359" t="s">
+      <c r="P4" s="365" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="360"/>
-      <c r="R4" s="374"/>
+      <c r="Q4" s="366"/>
+      <c r="R4" s="380"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -10436,37 +10439,43 @@
       <c r="B6" s="24">
         <v>45083</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="25">
+        <v>0</v>
+      </c>
       <c r="D6" s="38"/>
       <c r="E6" s="27">
         <v>45083</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="28">
+        <v>79057</v>
+      </c>
       <c r="G6" s="29"/>
       <c r="H6" s="30">
         <v>45083</v>
       </c>
-      <c r="I6" s="31"/>
+      <c r="I6" s="31">
+        <v>0</v>
+      </c>
       <c r="J6" s="258"/>
       <c r="K6" s="71"/>
       <c r="L6" s="259"/>
       <c r="M6" s="33">
-        <v>0</v>
+        <f>20500+58034</f>
+        <v>78534</v>
       </c>
       <c r="N6" s="34">
-        <v>0</v>
+        <v>757</v>
       </c>
       <c r="O6" s="35"/>
       <c r="P6" s="235">
         <f>N6+M6+L6+I6+C6</f>
-        <v>0</v>
+        <v>79291</v>
       </c>
       <c r="Q6" s="236">
-        <f t="shared" ref="Q5:Q45" si="0">P6-F6</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="238">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="R6" s="237">
+        <v>211</v>
       </c>
       <c r="S6" s="37"/>
       <c r="T6" s="9"/>
@@ -10476,37 +10485,42 @@
       <c r="B7" s="24">
         <v>45084</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="25">
+        <v>0</v>
+      </c>
       <c r="D7" s="42"/>
       <c r="E7" s="27">
         <v>45084</v>
       </c>
-      <c r="F7" s="28"/>
+      <c r="F7" s="28">
+        <v>70746</v>
+      </c>
       <c r="G7" s="29"/>
       <c r="H7" s="30">
         <v>45084</v>
       </c>
-      <c r="I7" s="31"/>
+      <c r="I7" s="31">
+        <v>180</v>
+      </c>
       <c r="J7" s="258"/>
       <c r="K7" s="102"/>
       <c r="L7" s="259"/>
       <c r="M7" s="33">
-        <v>0</v>
+        <v>73359</v>
       </c>
       <c r="N7" s="34">
-        <v>0</v>
+        <v>526</v>
       </c>
       <c r="O7" s="35"/>
       <c r="P7" s="235">
         <f>N7+M7+L7+I7+C7</f>
-        <v>0</v>
+        <v>74065</v>
       </c>
       <c r="Q7" s="236">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="238">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="R7" s="237">
+        <v>3303</v>
       </c>
       <c r="S7" s="37"/>
     </row>
@@ -10515,34 +10529,41 @@
       <c r="B8" s="24">
         <v>45085</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="25">
+        <v>0</v>
+      </c>
       <c r="D8" s="42"/>
       <c r="E8" s="27">
         <v>45085</v>
       </c>
-      <c r="F8" s="28"/>
+      <c r="F8" s="28">
+        <v>122318</v>
+      </c>
       <c r="G8" s="29"/>
       <c r="H8" s="30">
         <v>45085</v>
       </c>
-      <c r="I8" s="31"/>
+      <c r="I8" s="31">
+        <v>100</v>
+      </c>
       <c r="J8" s="258"/>
       <c r="K8" s="260"/>
       <c r="L8" s="259"/>
       <c r="M8" s="33">
-        <v>0</v>
+        <f>36400+85590</f>
+        <v>121990</v>
       </c>
       <c r="N8" s="34">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="O8" s="35"/>
       <c r="P8" s="235">
-        <f t="shared" ref="P8:P45" si="1">N8+M8+L8+I8+C8</f>
-        <v>0</v>
+        <f t="shared" ref="P8:P45" si="0">N8+M8+L8+I8+C8</f>
+        <v>122325</v>
       </c>
       <c r="Q8" s="236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="Q8:Q45" si="1">P8-F8</f>
+        <v>7</v>
       </c>
       <c r="R8" s="238">
         <v>0</v>
@@ -10554,33 +10575,41 @@
       <c r="B9" s="24">
         <v>45086</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="46"/>
+      <c r="C9" s="25">
+        <v>11989</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>69</v>
+      </c>
       <c r="E9" s="27">
         <v>45086</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="28">
+        <v>102953</v>
+      </c>
       <c r="G9" s="29"/>
       <c r="H9" s="30">
         <v>45086</v>
       </c>
-      <c r="I9" s="31"/>
+      <c r="I9" s="31">
+        <v>201</v>
+      </c>
       <c r="J9" s="258"/>
       <c r="K9" s="261"/>
       <c r="L9" s="259"/>
       <c r="M9" s="33">
-        <v>0</v>
+        <v>90763</v>
       </c>
       <c r="N9" s="34">
         <v>0</v>
       </c>
       <c r="O9" s="35"/>
       <c r="P9" s="235">
+        <f t="shared" si="0"/>
+        <v>102953</v>
+      </c>
+      <c r="Q9" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R9" s="238">
@@ -10593,34 +10622,49 @@
       <c r="B10" s="24">
         <v>45087</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="25">
+        <v>3480</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>213</v>
+      </c>
       <c r="E10" s="27">
         <v>45087</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="28">
+        <v>109011</v>
+      </c>
       <c r="G10" s="29"/>
       <c r="H10" s="30">
         <v>45087</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="258"/>
-      <c r="K10" s="262"/>
-      <c r="L10" s="263"/>
+      <c r="I10" s="31">
+        <v>116</v>
+      </c>
+      <c r="J10" s="258">
+        <v>45087</v>
+      </c>
+      <c r="K10" s="262" t="s">
+        <v>366</v>
+      </c>
+      <c r="L10" s="263">
+        <v>8700</v>
+      </c>
       <c r="M10" s="33">
-        <v>0</v>
+        <f>34600+53069</f>
+        <v>87669</v>
       </c>
       <c r="N10" s="34">
-        <v>0</v>
+        <v>9317</v>
       </c>
       <c r="O10" s="35"/>
       <c r="P10" s="235">
         <f>N10+M10+L10+I10+C10</f>
-        <v>0</v>
+        <v>109282</v>
       </c>
       <c r="Q10" s="236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>271</v>
       </c>
       <c r="R10" s="238">
         <v>0</v>
@@ -10635,37 +10679,43 @@
       <c r="B11" s="24">
         <v>45088</v>
       </c>
-      <c r="C11" s="25"/>
+      <c r="C11" s="25">
+        <v>0</v>
+      </c>
       <c r="D11" s="38"/>
       <c r="E11" s="27">
         <v>45088</v>
       </c>
-      <c r="F11" s="28"/>
+      <c r="F11" s="28">
+        <v>90289</v>
+      </c>
       <c r="G11" s="29"/>
       <c r="H11" s="30">
         <v>45088</v>
       </c>
-      <c r="I11" s="31"/>
+      <c r="I11" s="31">
+        <v>0</v>
+      </c>
       <c r="J11" s="258"/>
       <c r="K11" s="261"/>
       <c r="L11" s="259"/>
       <c r="M11" s="33">
-        <v>0</v>
+        <f>65600+38070</f>
+        <v>103670</v>
       </c>
       <c r="N11" s="34">
-        <v>0</v>
+        <v>896</v>
       </c>
       <c r="O11" s="35"/>
       <c r="P11" s="235">
         <f>N11+M11+L11+I11+C11</f>
-        <v>0</v>
+        <v>104566</v>
       </c>
       <c r="Q11" s="236">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="238">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="R11" s="237">
+        <v>14250</v>
       </c>
       <c r="S11" s="37"/>
     </row>
@@ -10674,7 +10724,9 @@
       <c r="B12" s="24">
         <v>45089</v>
       </c>
-      <c r="C12" s="25"/>
+      <c r="C12" s="25">
+        <v>0</v>
+      </c>
       <c r="D12" s="38"/>
       <c r="E12" s="27">
         <v>45089</v>
@@ -10696,11 +10748,11 @@
       </c>
       <c r="O12" s="35"/>
       <c r="P12" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R12" s="238">
@@ -10713,7 +10765,9 @@
       <c r="B13" s="24">
         <v>45090</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="25">
+        <v>0</v>
+      </c>
       <c r="D13" s="42"/>
       <c r="E13" s="27">
         <v>45090</v>
@@ -10735,11 +10789,11 @@
       </c>
       <c r="O13" s="35"/>
       <c r="P13" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R13" s="238">
@@ -10752,7 +10806,9 @@
       <c r="B14" s="24">
         <v>45091</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="25">
+        <v>0</v>
+      </c>
       <c r="D14" s="46"/>
       <c r="E14" s="27">
         <v>45091</v>
@@ -10774,11 +10830,11 @@
       </c>
       <c r="O14" s="35"/>
       <c r="P14" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R14" s="238">
@@ -10791,7 +10847,9 @@
       <c r="B15" s="24">
         <v>45092</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="25">
+        <v>0</v>
+      </c>
       <c r="D15" s="46"/>
       <c r="E15" s="27">
         <v>45092</v>
@@ -10813,11 +10871,11 @@
       </c>
       <c r="O15" s="314"/>
       <c r="P15" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R15" s="238">
@@ -10830,7 +10888,9 @@
       <c r="B16" s="24">
         <v>45093</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="25">
+        <v>0</v>
+      </c>
       <c r="D16" s="52"/>
       <c r="E16" s="27">
         <v>45093</v>
@@ -10852,11 +10912,11 @@
       </c>
       <c r="O16" s="35"/>
       <c r="P16" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R16" s="238">
@@ -10869,7 +10929,9 @@
       <c r="B17" s="24">
         <v>45094</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="25">
+        <v>0</v>
+      </c>
       <c r="D17" s="46"/>
       <c r="E17" s="27">
         <v>45094</v>
@@ -10891,11 +10953,11 @@
       </c>
       <c r="O17" s="35"/>
       <c r="P17" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R17" s="238">
@@ -10908,7 +10970,9 @@
       <c r="B18" s="24">
         <v>45095</v>
       </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="25">
+        <v>0</v>
+      </c>
       <c r="D18" s="38"/>
       <c r="E18" s="27">
         <v>45095</v>
@@ -10930,11 +10994,11 @@
       </c>
       <c r="O18" s="35"/>
       <c r="P18" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R18" s="238">
@@ -10947,7 +11011,9 @@
       <c r="B19" s="24">
         <v>45096</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="25">
+        <v>0</v>
+      </c>
       <c r="D19" s="38"/>
       <c r="E19" s="27">
         <v>45096</v>
@@ -10969,11 +11035,11 @@
       </c>
       <c r="O19" s="35"/>
       <c r="P19" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R19" s="238">
@@ -10986,7 +11052,9 @@
       <c r="B20" s="24">
         <v>45097</v>
       </c>
-      <c r="C20" s="25"/>
+      <c r="C20" s="25">
+        <v>0</v>
+      </c>
       <c r="D20" s="38"/>
       <c r="E20" s="27">
         <v>45097</v>
@@ -11008,11 +11076,11 @@
       </c>
       <c r="O20" s="35"/>
       <c r="P20" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R20" s="238">
@@ -11025,7 +11093,9 @@
       <c r="B21" s="24">
         <v>45098</v>
       </c>
-      <c r="C21" s="25"/>
+      <c r="C21" s="25">
+        <v>0</v>
+      </c>
       <c r="D21" s="38"/>
       <c r="E21" s="27">
         <v>45098</v>
@@ -11047,11 +11117,11 @@
       </c>
       <c r="O21" s="35"/>
       <c r="P21" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R21" s="238">
@@ -11064,7 +11134,9 @@
       <c r="B22" s="24">
         <v>45099</v>
       </c>
-      <c r="C22" s="25"/>
+      <c r="C22" s="25">
+        <v>0</v>
+      </c>
       <c r="D22" s="38"/>
       <c r="E22" s="27">
         <v>45099</v>
@@ -11086,11 +11158,11 @@
       </c>
       <c r="O22" s="315"/>
       <c r="P22" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R22" s="238">
@@ -11103,7 +11175,9 @@
       <c r="B23" s="24">
         <v>45100</v>
       </c>
-      <c r="C23" s="25"/>
+      <c r="C23" s="25">
+        <v>0</v>
+      </c>
       <c r="D23" s="46"/>
       <c r="E23" s="27">
         <v>45100</v>
@@ -11125,11 +11199,11 @@
       </c>
       <c r="O23" s="35"/>
       <c r="P23" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R23" s="238">
@@ -11142,7 +11216,9 @@
       <c r="B24" s="24">
         <v>45101</v>
       </c>
-      <c r="C24" s="25"/>
+      <c r="C24" s="25">
+        <v>0</v>
+      </c>
       <c r="D24" s="42"/>
       <c r="E24" s="27">
         <v>45101</v>
@@ -11164,11 +11240,11 @@
       </c>
       <c r="O24" s="35"/>
       <c r="P24" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R24" s="238">
@@ -11181,7 +11257,9 @@
       <c r="B25" s="24">
         <v>45102</v>
       </c>
-      <c r="C25" s="25"/>
+      <c r="C25" s="25">
+        <v>0</v>
+      </c>
       <c r="D25" s="38"/>
       <c r="E25" s="27">
         <v>45102</v>
@@ -11203,11 +11281,11 @@
       </c>
       <c r="O25" s="35"/>
       <c r="P25" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R25" s="238">
@@ -11220,7 +11298,9 @@
       <c r="B26" s="24">
         <v>45103</v>
       </c>
-      <c r="C26" s="25"/>
+      <c r="C26" s="25">
+        <v>0</v>
+      </c>
       <c r="D26" s="38"/>
       <c r="E26" s="27">
         <v>45103</v>
@@ -11242,11 +11322,11 @@
       </c>
       <c r="O26" s="35"/>
       <c r="P26" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R26" s="238">
@@ -11259,7 +11339,9 @@
       <c r="B27" s="24">
         <v>45104</v>
       </c>
-      <c r="C27" s="25"/>
+      <c r="C27" s="25">
+        <v>0</v>
+      </c>
       <c r="D27" s="42"/>
       <c r="E27" s="27">
         <v>45104</v>
@@ -11281,11 +11363,11 @@
       </c>
       <c r="O27" s="35"/>
       <c r="P27" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R27" s="238">
@@ -11298,7 +11380,9 @@
       <c r="B28" s="24">
         <v>45105</v>
       </c>
-      <c r="C28" s="25"/>
+      <c r="C28" s="25">
+        <v>0</v>
+      </c>
       <c r="D28" s="42"/>
       <c r="E28" s="27">
         <v>45105</v>
@@ -11320,11 +11404,11 @@
       </c>
       <c r="O28" s="35"/>
       <c r="P28" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R28" s="238">
@@ -11337,7 +11421,9 @@
       <c r="B29" s="24">
         <v>45106</v>
       </c>
-      <c r="C29" s="25"/>
+      <c r="C29" s="25">
+        <v>0</v>
+      </c>
       <c r="D29" s="72"/>
       <c r="E29" s="27">
         <v>45106</v>
@@ -11359,11 +11445,11 @@
       </c>
       <c r="O29" s="35"/>
       <c r="P29" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R29" s="238">
@@ -11377,7 +11463,9 @@
       <c r="B30" s="24">
         <v>45107</v>
       </c>
-      <c r="C30" s="25"/>
+      <c r="C30" s="25">
+        <v>0</v>
+      </c>
       <c r="D30" s="72"/>
       <c r="E30" s="27">
         <v>45107</v>
@@ -11399,11 +11487,11 @@
       </c>
       <c r="O30" s="35"/>
       <c r="P30" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R30" s="238">
@@ -11416,7 +11504,9 @@
       <c r="B31" s="24">
         <v>45108</v>
       </c>
-      <c r="C31" s="25"/>
+      <c r="C31" s="25">
+        <v>0</v>
+      </c>
       <c r="D31" s="77"/>
       <c r="E31" s="27">
         <v>45108</v>
@@ -11438,11 +11528,11 @@
       </c>
       <c r="O31" s="35"/>
       <c r="P31" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R31" s="238">
@@ -11455,7 +11545,9 @@
       <c r="B32" s="24">
         <v>45109</v>
       </c>
-      <c r="C32" s="25"/>
+      <c r="C32" s="25">
+        <v>0</v>
+      </c>
       <c r="D32" s="82"/>
       <c r="E32" s="27">
         <v>45109</v>
@@ -11477,11 +11569,11 @@
       </c>
       <c r="O32" s="35"/>
       <c r="P32" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R32" s="238">
@@ -11510,11 +11602,11 @@
       </c>
       <c r="O33" s="35"/>
       <c r="P33" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R33" s="238">
@@ -11543,11 +11635,11 @@
       </c>
       <c r="O34" s="35"/>
       <c r="P34" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R34" s="238">
@@ -11576,11 +11668,11 @@
       </c>
       <c r="O35" s="35"/>
       <c r="P35" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R35" s="238">
@@ -11609,11 +11701,11 @@
       </c>
       <c r="O36" s="35"/>
       <c r="P36" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R36" s="238">
@@ -11645,7 +11737,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="236">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R37" s="238">
@@ -11677,7 +11769,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="236">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R38" s="238">
@@ -11709,7 +11801,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="236">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R39" s="238">
@@ -11741,7 +11833,7 @@
         <v>0</v>
       </c>
       <c r="Q40" s="236">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R40" s="238">
@@ -11773,7 +11865,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="236">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R41" s="238">
@@ -11805,7 +11897,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="236">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R42" s="238">
@@ -11837,7 +11929,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="236">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R43" s="242">
@@ -11864,11 +11956,11 @@
       <c r="N44" s="93"/>
       <c r="O44" s="35"/>
       <c r="P44" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R44" s="13">
@@ -11889,25 +11981,25 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="339">
+      <c r="M45" s="345">
         <f>SUM(M5:M39)</f>
-        <v>135801</v>
-      </c>
-      <c r="N45" s="350">
+        <v>691786</v>
+      </c>
+      <c r="N45" s="356">
         <f>SUM(N5:N39)</f>
-        <v>8009.28</v>
+        <v>19740.28</v>
       </c>
       <c r="P45" s="98">
+        <f t="shared" si="0"/>
+        <v>711526.28</v>
+      </c>
+      <c r="Q45" s="236">
         <f t="shared" si="1"/>
-        <v>143810.28</v>
-      </c>
-      <c r="Q45" s="236">
-        <f t="shared" si="0"/>
-        <v>143810.28</v>
+        <v>711526.28</v>
       </c>
       <c r="R45" s="99">
         <f>SUM(R5:R39)</f>
-        <v>23660</v>
+        <v>41424</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -11923,8 +12015,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="340"/>
-      <c r="N46" s="351"/>
+      <c r="M46" s="346"/>
+      <c r="N46" s="357"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -11974,7 +12066,7 @@
       </c>
       <c r="C49" s="122">
         <f>SUM(C5:C48)</f>
-        <v>1965</v>
+        <v>17434</v>
       </c>
       <c r="D49" s="123"/>
       <c r="E49" s="124" t="s">
@@ -11982,7 +12074,7 @@
       </c>
       <c r="F49" s="125">
         <f>SUM(F5:F48)</f>
-        <v>122017</v>
+        <v>696391</v>
       </c>
       <c r="G49" s="123"/>
       <c r="H49" s="126" t="s">
@@ -11990,7 +12082,7 @@
       </c>
       <c r="I49" s="127">
         <f>SUM(I5:I48)</f>
-        <v>135</v>
+        <v>732</v>
       </c>
       <c r="J49" s="290"/>
       <c r="K49" s="291" t="s">
@@ -11998,7 +12090,7 @@
       </c>
       <c r="L49" s="292">
         <f>SUM(L5:L48)</f>
-        <v>0</v>
+        <v>8700</v>
       </c>
       <c r="M49" s="131"/>
       <c r="N49" s="131"/>
@@ -12016,32 +12108,32 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="352" t="s">
+      <c r="H51" s="358" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="353"/>
+      <c r="I51" s="359"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="354">
+      <c r="K51" s="360">
         <f>I49+L49</f>
-        <v>135</v>
-      </c>
-      <c r="L51" s="355"/>
-      <c r="M51" s="356">
+        <v>9432</v>
+      </c>
+      <c r="L51" s="361"/>
+      <c r="M51" s="362">
         <f>N45+M45</f>
-        <v>143810.28</v>
-      </c>
-      <c r="N51" s="357"/>
+        <v>711526.28</v>
+      </c>
+      <c r="N51" s="363"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="349" t="s">
+      <c r="D52" s="355" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="349"/>
+      <c r="E52" s="355"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
-        <v>119917</v>
+        <v>669525</v>
       </c>
       <c r="I52" s="137"/>
       <c r="J52" s="138"/>
@@ -12049,22 +12141,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="320" t="s">
+      <c r="D53" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="320"/>
+      <c r="E53" s="326"/>
       <c r="F53" s="131">
         <v>-3128572.23</v>
       </c>
-      <c r="I53" s="321" t="s">
+      <c r="I53" s="327" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="322"/>
-      <c r="K53" s="361">
+      <c r="J53" s="328"/>
+      <c r="K53" s="367">
         <f>F55+F56+F57</f>
-        <v>-2649547.12</v>
-      </c>
-      <c r="L53" s="362"/>
+        <v>-2099939.12</v>
+      </c>
+      <c r="L53" s="368"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -12088,18 +12180,18 @@
       </c>
       <c r="F55" s="131">
         <f>SUM(F52:F54)</f>
-        <v>-3008655.23</v>
+        <v>-2459047.23</v>
       </c>
       <c r="H55" s="23"/>
       <c r="I55" s="146" t="s">
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="363">
+      <c r="K55" s="369">
         <f>-C4</f>
         <v>-345633.69</v>
       </c>
-      <c r="L55" s="364"/>
+      <c r="L55" s="370"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -12116,22 +12208,22 @@
       <c r="C57" s="150">
         <v>45109</v>
       </c>
-      <c r="D57" s="327" t="s">
+      <c r="D57" s="333" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="328"/>
+      <c r="E57" s="334"/>
       <c r="F57" s="316">
         <v>359108.11</v>
       </c>
-      <c r="I57" s="368" t="s">
+      <c r="I57" s="374" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="369"/>
-      <c r="K57" s="370">
+      <c r="J57" s="375"/>
+      <c r="K57" s="376">
         <f>K53+K55</f>
-        <v>-2995180.81</v>
-      </c>
-      <c r="L57" s="370"/>
+        <v>-2445572.81</v>
+      </c>
+      <c r="L57" s="376"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -12263,20 +12355,20 @@
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="I57:J57"/>
     <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="M45:M46"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D52:E52"/>
     <mergeCell ref="N45:N46"/>
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12341,13 +12433,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="375" t="s">
+      <c r="A3" s="320" t="s">
         <v>299</v>
       </c>
-      <c r="B3" s="376" t="s">
+      <c r="B3" s="321" t="s">
         <v>300</v>
       </c>
-      <c r="C3" s="378">
+      <c r="C3" s="323">
         <v>3978.8</v>
       </c>
       <c r="D3" s="244"/>
@@ -12358,13 +12450,13 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="375" t="s">
+      <c r="A4" s="320" t="s">
         <v>299</v>
       </c>
-      <c r="B4" s="376" t="s">
+      <c r="B4" s="321" t="s">
         <v>301</v>
       </c>
-      <c r="C4" s="378">
+      <c r="C4" s="323">
         <v>64419.48</v>
       </c>
       <c r="D4" s="244"/>
@@ -12375,13 +12467,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="375" t="s">
+      <c r="A5" s="320" t="s">
         <v>299</v>
       </c>
-      <c r="B5" s="376" t="s">
+      <c r="B5" s="321" t="s">
         <v>302</v>
       </c>
-      <c r="C5" s="378">
+      <c r="C5" s="323">
         <v>95868.9</v>
       </c>
       <c r="D5" s="244"/>
@@ -12392,13 +12484,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="375" t="s">
+      <c r="A6" s="320" t="s">
         <v>303</v>
       </c>
-      <c r="B6" s="376" t="s">
+      <c r="B6" s="321" t="s">
         <v>304</v>
       </c>
-      <c r="C6" s="378">
+      <c r="C6" s="323">
         <v>44423.7</v>
       </c>
       <c r="D6" s="244"/>
@@ -12410,13 +12502,13 @@
       <c r="G6" s="184"/>
     </row>
     <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="375" t="s">
+      <c r="A7" s="320" t="s">
         <v>305</v>
       </c>
-      <c r="B7" s="376" t="s">
+      <c r="B7" s="321" t="s">
         <v>306</v>
       </c>
-      <c r="C7" s="378">
+      <c r="C7" s="323">
         <v>170743.1</v>
       </c>
       <c r="D7" s="244"/>
@@ -12427,13 +12519,13 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="375" t="s">
+      <c r="A8" s="320" t="s">
         <v>305</v>
       </c>
-      <c r="B8" s="376" t="s">
+      <c r="B8" s="321" t="s">
         <v>307</v>
       </c>
-      <c r="C8" s="378">
+      <c r="C8" s="323">
         <v>60459.24</v>
       </c>
       <c r="D8" s="244"/>
@@ -12444,13 +12536,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="375" t="s">
+      <c r="A9" s="320" t="s">
         <v>308</v>
       </c>
-      <c r="B9" s="376" t="s">
+      <c r="B9" s="321" t="s">
         <v>309</v>
       </c>
-      <c r="C9" s="378">
+      <c r="C9" s="323">
         <v>7758.5</v>
       </c>
       <c r="D9" s="181"/>
@@ -12461,13 +12553,13 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="375" t="s">
+      <c r="A10" s="320" t="s">
         <v>308</v>
       </c>
-      <c r="B10" s="376" t="s">
+      <c r="B10" s="321" t="s">
         <v>310</v>
       </c>
-      <c r="C10" s="378">
+      <c r="C10" s="323">
         <v>132173.82</v>
       </c>
       <c r="D10" s="181"/>
@@ -12478,13 +12570,13 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="375" t="s">
+      <c r="A11" s="320" t="s">
         <v>311</v>
       </c>
-      <c r="B11" s="376" t="s">
+      <c r="B11" s="321" t="s">
         <v>312</v>
       </c>
-      <c r="C11" s="378">
+      <c r="C11" s="323">
         <v>120438.76</v>
       </c>
       <c r="D11" s="181"/>
@@ -12495,13 +12587,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="375" t="s">
+      <c r="A12" s="320" t="s">
         <v>311</v>
       </c>
-      <c r="B12" s="376" t="s">
+      <c r="B12" s="321" t="s">
         <v>313</v>
       </c>
-      <c r="C12" s="378">
+      <c r="C12" s="323">
         <v>7203.42</v>
       </c>
       <c r="D12" s="181"/>
@@ -12513,13 +12605,13 @@
       <c r="G12" s="184"/>
     </row>
     <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="375" t="s">
+      <c r="A13" s="320" t="s">
         <v>314</v>
       </c>
-      <c r="B13" s="376" t="s">
+      <c r="B13" s="321" t="s">
         <v>315</v>
       </c>
-      <c r="C13" s="378">
+      <c r="C13" s="323">
         <v>107201.98</v>
       </c>
       <c r="D13" s="181"/>
@@ -12530,13 +12622,13 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="375" t="s">
+      <c r="A14" s="320" t="s">
         <v>314</v>
       </c>
-      <c r="B14" s="376" t="s">
+      <c r="B14" s="321" t="s">
         <v>316</v>
       </c>
-      <c r="C14" s="378">
+      <c r="C14" s="323">
         <v>16000.8</v>
       </c>
       <c r="D14" s="181"/>
@@ -12547,13 +12639,13 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="375" t="s">
+      <c r="A15" s="320" t="s">
         <v>317</v>
       </c>
-      <c r="B15" s="376" t="s">
+      <c r="B15" s="321" t="s">
         <v>318</v>
       </c>
-      <c r="C15" s="378">
+      <c r="C15" s="323">
         <v>10953.36</v>
       </c>
       <c r="D15" s="181"/>
@@ -12564,13 +12656,13 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="375" t="s">
+      <c r="A16" s="320" t="s">
         <v>317</v>
       </c>
-      <c r="B16" s="376" t="s">
+      <c r="B16" s="321" t="s">
         <v>319</v>
       </c>
-      <c r="C16" s="378">
+      <c r="C16" s="323">
         <v>97086.17</v>
       </c>
       <c r="D16" s="181"/>
@@ -12581,13 +12673,13 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="375" t="s">
+      <c r="A17" s="320" t="s">
         <v>320</v>
       </c>
-      <c r="B17" s="376" t="s">
+      <c r="B17" s="321" t="s">
         <v>321</v>
       </c>
-      <c r="C17" s="378">
+      <c r="C17" s="323">
         <v>1822.2</v>
       </c>
       <c r="D17" s="181"/>
@@ -12598,13 +12690,13 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="375" t="s">
+      <c r="A18" s="320" t="s">
         <v>320</v>
       </c>
-      <c r="B18" s="376" t="s">
+      <c r="B18" s="321" t="s">
         <v>322</v>
       </c>
-      <c r="C18" s="378">
+      <c r="C18" s="323">
         <v>161998.60999999999</v>
       </c>
       <c r="D18" s="181"/>
@@ -12618,13 +12710,13 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="375" t="s">
+      <c r="A19" s="320" t="s">
         <v>320</v>
       </c>
-      <c r="B19" s="376" t="s">
+      <c r="B19" s="321" t="s">
         <v>323</v>
       </c>
-      <c r="C19" s="378">
+      <c r="C19" s="323">
         <v>134198.39999999999</v>
       </c>
       <c r="D19" s="181"/>
@@ -12635,13 +12727,13 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="375" t="s">
+      <c r="A20" s="320" t="s">
         <v>324</v>
       </c>
-      <c r="B20" s="376" t="s">
+      <c r="B20" s="321" t="s">
         <v>325</v>
       </c>
-      <c r="C20" s="378">
+      <c r="C20" s="323">
         <v>22309.25</v>
       </c>
       <c r="D20" s="181"/>
@@ -12652,13 +12744,13 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="375" t="s">
+      <c r="A21" s="320" t="s">
         <v>326</v>
       </c>
-      <c r="B21" s="376" t="s">
+      <c r="B21" s="321" t="s">
         <v>327</v>
       </c>
-      <c r="C21" s="378">
+      <c r="C21" s="323">
         <v>123022.82</v>
       </c>
       <c r="D21" s="181"/>
@@ -12669,13 +12761,13 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="375" t="s">
+      <c r="A22" s="320" t="s">
         <v>326</v>
       </c>
-      <c r="B22" s="376" t="s">
+      <c r="B22" s="321" t="s">
         <v>328</v>
       </c>
-      <c r="C22" s="378">
+      <c r="C22" s="323">
         <v>68289.399999999994</v>
       </c>
       <c r="D22" s="181"/>
@@ -12686,13 +12778,13 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="375" t="s">
+      <c r="A23" s="320" t="s">
         <v>326</v>
       </c>
-      <c r="B23" s="376" t="s">
+      <c r="B23" s="321" t="s">
         <v>329</v>
       </c>
-      <c r="C23" s="378">
+      <c r="C23" s="323">
         <v>71866.8</v>
       </c>
       <c r="D23" s="181"/>
@@ -12703,13 +12795,13 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="375" t="s">
+      <c r="A24" s="320" t="s">
         <v>330</v>
       </c>
-      <c r="B24" s="376" t="s">
+      <c r="B24" s="321" t="s">
         <v>331</v>
       </c>
-      <c r="C24" s="378">
+      <c r="C24" s="323">
         <v>96915.5</v>
       </c>
       <c r="D24" s="181"/>
@@ -12721,13 +12813,13 @@
       <c r="G24" s="184"/>
     </row>
     <row r="25" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="375" t="s">
+      <c r="A25" s="320" t="s">
         <v>332</v>
       </c>
-      <c r="B25" s="376" t="s">
+      <c r="B25" s="321" t="s">
         <v>333</v>
       </c>
-      <c r="C25" s="378">
+      <c r="C25" s="323">
         <v>146054.39999999999</v>
       </c>
       <c r="D25" s="181"/>
@@ -12738,13 +12830,13 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="375" t="s">
+      <c r="A26" s="320" t="s">
         <v>332</v>
       </c>
-      <c r="B26" s="376" t="s">
+      <c r="B26" s="321" t="s">
         <v>334</v>
       </c>
-      <c r="C26" s="378">
+      <c r="C26" s="323">
         <v>37448.699999999997</v>
       </c>
       <c r="D26" s="181"/>
@@ -12755,13 +12847,13 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="375" t="s">
+      <c r="A27" s="320" t="s">
         <v>335</v>
       </c>
-      <c r="B27" s="376" t="s">
+      <c r="B27" s="321" t="s">
         <v>336</v>
       </c>
-      <c r="C27" s="378">
+      <c r="C27" s="323">
         <v>25900.95</v>
       </c>
       <c r="D27" s="181"/>
@@ -12772,13 +12864,13 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="375" t="s">
+      <c r="A28" s="320" t="s">
         <v>335</v>
       </c>
-      <c r="B28" s="376" t="s">
+      <c r="B28" s="321" t="s">
         <v>337</v>
       </c>
-      <c r="C28" s="378">
+      <c r="C28" s="323">
         <v>60133.8</v>
       </c>
       <c r="D28" s="181"/>
@@ -12789,13 +12881,13 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="375" t="s">
+      <c r="A29" s="320" t="s">
         <v>335</v>
       </c>
-      <c r="B29" s="376" t="s">
+      <c r="B29" s="321" t="s">
         <v>338</v>
       </c>
-      <c r="C29" s="378">
+      <c r="C29" s="323">
         <v>90966.99</v>
       </c>
       <c r="D29" s="181"/>
@@ -12809,13 +12901,13 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="375" t="s">
+      <c r="A30" s="320" t="s">
         <v>335</v>
       </c>
-      <c r="B30" s="376" t="s">
+      <c r="B30" s="321" t="s">
         <v>339</v>
       </c>
-      <c r="C30" s="378">
+      <c r="C30" s="323">
         <v>2249.6</v>
       </c>
       <c r="D30" s="181"/>
@@ -12829,13 +12921,13 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="375" t="s">
+      <c r="A31" s="320" t="s">
         <v>335</v>
       </c>
-      <c r="B31" s="376" t="s">
+      <c r="B31" s="321" t="s">
         <v>340</v>
       </c>
-      <c r="C31" s="378">
+      <c r="C31" s="323">
         <v>76221.8</v>
       </c>
       <c r="D31" s="181"/>
@@ -12849,13 +12941,13 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="375" t="s">
+      <c r="A32" s="320" t="s">
         <v>341</v>
       </c>
-      <c r="B32" s="376" t="s">
+      <c r="B32" s="321" t="s">
         <v>342</v>
       </c>
-      <c r="C32" s="378">
+      <c r="C32" s="323">
         <v>151130.51999999999</v>
       </c>
       <c r="D32" s="181"/>
@@ -12870,13 +12962,13 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="375" t="s">
+      <c r="A33" s="320" t="s">
         <v>341</v>
       </c>
-      <c r="B33" s="376" t="s">
+      <c r="B33" s="321" t="s">
         <v>343</v>
       </c>
-      <c r="C33" s="378">
+      <c r="C33" s="323">
         <v>12096</v>
       </c>
       <c r="D33" s="181"/>
@@ -12890,13 +12982,13 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="375" t="s">
+      <c r="A34" s="320" t="s">
         <v>341</v>
       </c>
-      <c r="B34" s="376" t="s">
+      <c r="B34" s="321" t="s">
         <v>344</v>
       </c>
-      <c r="C34" s="378">
+      <c r="C34" s="323">
         <v>2859.98</v>
       </c>
       <c r="D34" s="181"/>
@@ -12910,13 +13002,13 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="375" t="s">
+      <c r="A35" s="320" t="s">
         <v>345</v>
       </c>
-      <c r="B35" s="376" t="s">
+      <c r="B35" s="321" t="s">
         <v>346</v>
       </c>
-      <c r="C35" s="378">
+      <c r="C35" s="323">
         <v>108017.5</v>
       </c>
       <c r="D35" s="181"/>
@@ -12930,13 +13022,13 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="375" t="s">
+      <c r="A36" s="320" t="s">
         <v>345</v>
       </c>
-      <c r="B36" s="376" t="s">
+      <c r="B36" s="321" t="s">
         <v>347</v>
       </c>
-      <c r="C36" s="378">
+      <c r="C36" s="323">
         <v>78286</v>
       </c>
       <c r="D36" s="181"/>
@@ -12950,13 +13042,13 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="375" t="s">
+      <c r="A37" s="320" t="s">
         <v>348</v>
       </c>
-      <c r="B37" s="376" t="s">
+      <c r="B37" s="321" t="s">
         <v>349</v>
       </c>
-      <c r="C37" s="378">
+      <c r="C37" s="323">
         <v>21014.12</v>
       </c>
       <c r="D37" s="181"/>
@@ -12971,13 +13063,13 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="375" t="s">
+      <c r="A38" s="320" t="s">
         <v>348</v>
       </c>
-      <c r="B38" s="376" t="s">
+      <c r="B38" s="321" t="s">
         <v>350</v>
       </c>
-      <c r="C38" s="378">
+      <c r="C38" s="323">
         <v>19076.400000000001</v>
       </c>
       <c r="D38" s="181"/>
@@ -12988,13 +13080,13 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="375" t="s">
+      <c r="A39" s="320" t="s">
         <v>351</v>
       </c>
-      <c r="B39" s="376" t="s">
+      <c r="B39" s="321" t="s">
         <v>352</v>
       </c>
-      <c r="C39" s="378">
+      <c r="C39" s="323">
         <v>74198.06</v>
       </c>
       <c r="D39" s="181"/>
@@ -13005,13 +13097,13 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="375" t="s">
+      <c r="A40" s="320" t="s">
         <v>353</v>
       </c>
-      <c r="B40" s="376" t="s">
+      <c r="B40" s="321" t="s">
         <v>354</v>
       </c>
-      <c r="C40" s="378">
+      <c r="C40" s="323">
         <v>20015.7</v>
       </c>
       <c r="D40" s="181"/>
@@ -13022,13 +13114,13 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="375" t="s">
+      <c r="A41" s="320" t="s">
         <v>353</v>
       </c>
-      <c r="B41" s="376" t="s">
+      <c r="B41" s="321" t="s">
         <v>355</v>
       </c>
-      <c r="C41" s="378">
+      <c r="C41" s="323">
         <v>98367.76</v>
       </c>
       <c r="D41" s="181"/>
@@ -13039,13 +13131,13 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="375" t="s">
+      <c r="A42" s="320" t="s">
         <v>356</v>
       </c>
-      <c r="B42" s="376" t="s">
+      <c r="B42" s="321" t="s">
         <v>357</v>
       </c>
-      <c r="C42" s="378">
+      <c r="C42" s="323">
         <v>36491.4</v>
       </c>
       <c r="D42" s="185"/>
@@ -13056,13 +13148,13 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="375" t="s">
+      <c r="A43" s="320" t="s">
         <v>356</v>
       </c>
-      <c r="B43" s="376" t="s">
+      <c r="B43" s="321" t="s">
         <v>358</v>
       </c>
-      <c r="C43" s="378">
+      <c r="C43" s="323">
         <v>83135.100000000006</v>
       </c>
       <c r="D43" s="192"/>
@@ -13073,13 +13165,13 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="375" t="s">
+      <c r="A44" s="320" t="s">
         <v>356</v>
       </c>
-      <c r="B44" s="376" t="s">
+      <c r="B44" s="321" t="s">
         <v>359</v>
       </c>
-      <c r="C44" s="378">
+      <c r="C44" s="323">
         <v>91182.07</v>
       </c>
       <c r="D44" s="192"/>
@@ -13090,13 +13182,13 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="375" t="s">
+      <c r="A45" s="320" t="s">
         <v>356</v>
       </c>
-      <c r="B45" s="376" t="s">
+      <c r="B45" s="321" t="s">
         <v>360</v>
       </c>
-      <c r="C45" s="378">
+      <c r="C45" s="323">
         <v>375</v>
       </c>
       <c r="D45" s="192"/>
@@ -13107,13 +13199,13 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="375" t="s">
+      <c r="A46" s="320" t="s">
         <v>361</v>
       </c>
-      <c r="B46" s="376" t="s">
+      <c r="B46" s="321" t="s">
         <v>362</v>
       </c>
-      <c r="C46" s="378">
+      <c r="C46" s="323">
         <v>117319.28</v>
       </c>
       <c r="D46" s="192"/>
@@ -13124,13 +13216,13 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="380">
+      <c r="A47" s="325">
         <v>45108</v>
       </c>
-      <c r="B47" s="376" t="s">
+      <c r="B47" s="321" t="s">
         <v>364</v>
       </c>
-      <c r="C47" s="377">
+      <c r="C47" s="322">
         <v>155507.29</v>
       </c>
       <c r="D47" s="192"/>
@@ -13141,13 +13233,13 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="380">
+      <c r="A48" s="325">
         <v>45108</v>
       </c>
-      <c r="B48" s="376" t="s">
+      <c r="B48" s="321" t="s">
         <v>365</v>
       </c>
-      <c r="C48" s="377">
+      <c r="C48" s="322">
         <v>1390.8</v>
       </c>
       <c r="D48" s="192"/>
@@ -13158,9 +13250,9 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="380"/>
-      <c r="B49" s="376"/>
-      <c r="C49" s="377"/>
+      <c r="A49" s="325"/>
+      <c r="B49" s="321"/>
+      <c r="C49" s="322"/>
       <c r="D49" s="192"/>
       <c r="E49" s="100"/>
       <c r="F49" s="183">
@@ -13169,9 +13261,9 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="380"/>
-      <c r="B50" s="376"/>
-      <c r="C50" s="377"/>
+      <c r="A50" s="325"/>
+      <c r="B50" s="321"/>
+      <c r="C50" s="322"/>
       <c r="D50" s="192"/>
       <c r="E50" s="100"/>
       <c r="F50" s="183">
@@ -13180,9 +13272,9 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="380"/>
-      <c r="B51" s="376"/>
-      <c r="C51" s="377"/>
+      <c r="A51" s="325"/>
+      <c r="B51" s="321"/>
+      <c r="C51" s="322"/>
       <c r="D51" s="192"/>
       <c r="E51" s="100"/>
       <c r="F51" s="183">
@@ -13191,7 +13283,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="379"/>
+      <c r="A52" s="324"/>
       <c r="B52" s="248"/>
       <c r="C52" s="149"/>
       <c r="D52" s="192"/>
@@ -13202,7 +13294,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="379"/>
+      <c r="A53" s="324"/>
       <c r="B53" s="248"/>
       <c r="C53" s="149"/>
       <c r="D53" s="192"/>
@@ -13213,7 +13305,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="379"/>
+      <c r="A54" s="324"/>
       <c r="B54" s="248"/>
       <c r="C54" s="149"/>
       <c r="D54" s="192"/>
@@ -15036,23 +15128,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="332"/>
-      <c r="C1" s="334" t="s">
+      <c r="B1" s="338"/>
+      <c r="C1" s="340" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="335"/>
-      <c r="E1" s="335"/>
-      <c r="F1" s="335"/>
-      <c r="G1" s="335"/>
-      <c r="H1" s="335"/>
-      <c r="I1" s="335"/>
-      <c r="J1" s="335"/>
-      <c r="K1" s="335"/>
-      <c r="L1" s="335"/>
-      <c r="M1" s="335"/>
+      <c r="D1" s="341"/>
+      <c r="E1" s="341"/>
+      <c r="F1" s="341"/>
+      <c r="G1" s="341"/>
+      <c r="H1" s="341"/>
+      <c r="I1" s="341"/>
+      <c r="J1" s="341"/>
+      <c r="K1" s="341"/>
+      <c r="L1" s="341"/>
+      <c r="M1" s="341"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="333"/>
+      <c r="B2" s="339"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -15062,21 +15154,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="336" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="337"/>
+      <c r="B3" s="342" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="343"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="338" t="s">
+      <c r="H3" s="344" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="338"/>
+      <c r="I3" s="344"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="341" t="s">
+      <c r="R3" s="347" t="s">
         <v>2</v>
       </c>
     </row>
@@ -15091,14 +15183,14 @@
       <c r="D4" s="17">
         <v>44955</v>
       </c>
-      <c r="E4" s="343" t="s">
+      <c r="E4" s="349" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="344"/>
-      <c r="H4" s="345" t="s">
+      <c r="F4" s="350"/>
+      <c r="H4" s="351" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="346"/>
+      <c r="I4" s="352"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -15108,11 +15200,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="359" t="s">
+      <c r="P4" s="365" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="360"/>
-      <c r="R4" s="358"/>
+      <c r="Q4" s="366"/>
+      <c r="R4" s="364"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -16913,11 +17005,11 @@
       <c r="J45" s="74"/>
       <c r="K45" s="97"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="339">
+      <c r="M45" s="345">
         <f>SUM(M5:M39)</f>
         <v>2238523</v>
       </c>
-      <c r="N45" s="350">
+      <c r="N45" s="356">
         <f>SUM(N5:N39)</f>
         <v>97258</v>
       </c>
@@ -16947,8 +17039,8 @@
       <c r="J46" s="74"/>
       <c r="K46" s="102"/>
       <c r="L46" s="76"/>
-      <c r="M46" s="340"/>
-      <c r="N46" s="351"/>
+      <c r="M46" s="346"/>
+      <c r="N46" s="357"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -17040,29 +17132,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="352" t="s">
+      <c r="H51" s="358" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="353"/>
+      <c r="I51" s="359"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="354">
+      <c r="K51" s="360">
         <f>I49+L49</f>
         <v>90767.040000000008</v>
       </c>
-      <c r="L51" s="355"/>
-      <c r="M51" s="356">
+      <c r="L51" s="361"/>
+      <c r="M51" s="362">
         <f>N45+M45</f>
         <v>2335781</v>
       </c>
-      <c r="N51" s="357"/>
+      <c r="N51" s="363"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="349" t="s">
+      <c r="D52" s="355" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="349"/>
+      <c r="E52" s="355"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2261973.96</v>
@@ -17073,22 +17165,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="320" t="s">
+      <c r="D53" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="320"/>
+      <c r="E53" s="326"/>
       <c r="F53" s="131">
         <v>-2224189.7400000002</v>
       </c>
-      <c r="I53" s="321" t="s">
+      <c r="I53" s="327" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="322"/>
-      <c r="K53" s="323">
+      <c r="J53" s="328"/>
+      <c r="K53" s="329">
         <f>F55+F56+F57</f>
         <v>296963.76999999973</v>
       </c>
-      <c r="L53" s="324"/>
+      <c r="L53" s="330"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -17119,11 +17211,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="325">
+      <c r="K55" s="331">
         <f>-C4</f>
         <v>-223528.9</v>
       </c>
-      <c r="L55" s="326"/>
+      <c r="L55" s="332"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -17140,22 +17232,22 @@
       <c r="C57" s="150">
         <v>44985</v>
       </c>
-      <c r="D57" s="327" t="s">
+      <c r="D57" s="333" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="328"/>
+      <c r="E57" s="334"/>
       <c r="F57" s="151">
         <v>230554.55</v>
       </c>
-      <c r="I57" s="329" t="s">
+      <c r="I57" s="335" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="330"/>
-      <c r="K57" s="331">
+      <c r="J57" s="336"/>
+      <c r="K57" s="337">
         <f>K53+K55</f>
         <v>73434.869999999733</v>
       </c>
-      <c r="L57" s="331"/>
+      <c r="L57" s="337"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -18759,23 +18851,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="332"/>
-      <c r="C1" s="334" t="s">
+      <c r="B1" s="338"/>
+      <c r="C1" s="340" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="335"/>
-      <c r="E1" s="335"/>
-      <c r="F1" s="335"/>
-      <c r="G1" s="335"/>
-      <c r="H1" s="335"/>
-      <c r="I1" s="335"/>
-      <c r="J1" s="335"/>
-      <c r="K1" s="335"/>
-      <c r="L1" s="335"/>
-      <c r="M1" s="335"/>
+      <c r="D1" s="341"/>
+      <c r="E1" s="341"/>
+      <c r="F1" s="341"/>
+      <c r="G1" s="341"/>
+      <c r="H1" s="341"/>
+      <c r="I1" s="341"/>
+      <c r="J1" s="341"/>
+      <c r="K1" s="341"/>
+      <c r="L1" s="341"/>
+      <c r="M1" s="341"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="333"/>
+      <c r="B2" s="339"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -18785,21 +18877,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="336" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="337"/>
+      <c r="B3" s="342" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="343"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="338" t="s">
+      <c r="H3" s="344" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="338"/>
+      <c r="I3" s="344"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="341" t="s">
+      <c r="R3" s="347" t="s">
         <v>2</v>
       </c>
     </row>
@@ -18814,14 +18906,14 @@
       <c r="D4" s="17">
         <v>44985</v>
       </c>
-      <c r="E4" s="343" t="s">
+      <c r="E4" s="349" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="344"/>
-      <c r="H4" s="345" t="s">
+      <c r="F4" s="350"/>
+      <c r="H4" s="351" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="346"/>
+      <c r="I4" s="352"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -18831,11 +18923,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="359" t="s">
+      <c r="P4" s="365" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="360"/>
-      <c r="R4" s="358"/>
+      <c r="Q4" s="366"/>
+      <c r="R4" s="364"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -20628,11 +20720,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="231"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="339">
+      <c r="M45" s="345">
         <f>SUM(M5:M39)</f>
         <v>2689952</v>
       </c>
-      <c r="N45" s="350">
+      <c r="N45" s="356">
         <f>SUM(N5:N39)</f>
         <v>61422</v>
       </c>
@@ -20662,8 +20754,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="340"/>
-      <c r="N46" s="351"/>
+      <c r="M46" s="346"/>
+      <c r="N46" s="357"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -20755,29 +20847,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="352" t="s">
+      <c r="H51" s="358" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="353"/>
+      <c r="I51" s="359"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="354">
+      <c r="K51" s="360">
         <f>I49+L49</f>
         <v>425400.67</v>
       </c>
-      <c r="L51" s="355"/>
-      <c r="M51" s="356">
+      <c r="L51" s="361"/>
+      <c r="M51" s="362">
         <f>N45+M45</f>
         <v>2751374</v>
       </c>
-      <c r="N51" s="357"/>
+      <c r="N51" s="363"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="349" t="s">
+      <c r="D52" s="355" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="349"/>
+      <c r="E52" s="355"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2464124.33</v>
@@ -20788,22 +20880,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="320" t="s">
+      <c r="D53" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="320"/>
+      <c r="E53" s="326"/>
       <c r="F53" s="131">
         <v>-2869426.04</v>
       </c>
-      <c r="I53" s="321" t="s">
+      <c r="I53" s="327" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="322"/>
-      <c r="K53" s="361">
+      <c r="J53" s="328"/>
+      <c r="K53" s="367">
         <f>F55+F56+F57</f>
         <v>-32021.369999999937</v>
       </c>
-      <c r="L53" s="362"/>
+      <c r="L53" s="368"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -20834,11 +20926,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="363">
+      <c r="K55" s="369">
         <f>-C4</f>
         <v>-230554.55</v>
       </c>
-      <c r="L55" s="364"/>
+      <c r="L55" s="370"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -20855,22 +20947,22 @@
       <c r="C57" s="150">
         <v>45015</v>
       </c>
-      <c r="D57" s="327" t="s">
+      <c r="D57" s="333" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="328"/>
+      <c r="E57" s="334"/>
       <c r="F57" s="151">
         <v>341192.34</v>
       </c>
-      <c r="I57" s="365" t="s">
+      <c r="I57" s="371" t="s">
         <v>170</v>
       </c>
-      <c r="J57" s="366"/>
-      <c r="K57" s="367">
+      <c r="J57" s="372"/>
+      <c r="K57" s="373">
         <f>K53+K55</f>
         <v>-262575.91999999993</v>
       </c>
-      <c r="L57" s="367"/>
+      <c r="L57" s="373"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -22417,23 +22509,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="332"/>
-      <c r="C1" s="334" t="s">
+      <c r="B1" s="338"/>
+      <c r="C1" s="340" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="335"/>
-      <c r="E1" s="335"/>
-      <c r="F1" s="335"/>
-      <c r="G1" s="335"/>
-      <c r="H1" s="335"/>
-      <c r="I1" s="335"/>
-      <c r="J1" s="335"/>
-      <c r="K1" s="335"/>
-      <c r="L1" s="335"/>
-      <c r="M1" s="335"/>
+      <c r="D1" s="341"/>
+      <c r="E1" s="341"/>
+      <c r="F1" s="341"/>
+      <c r="G1" s="341"/>
+      <c r="H1" s="341"/>
+      <c r="I1" s="341"/>
+      <c r="J1" s="341"/>
+      <c r="K1" s="341"/>
+      <c r="L1" s="341"/>
+      <c r="M1" s="341"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="333"/>
+      <c r="B2" s="339"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -22446,21 +22538,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="336" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="337"/>
+      <c r="B3" s="342" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="343"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="338" t="s">
+      <c r="H3" s="344" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="338"/>
+      <c r="I3" s="344"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="371" t="s">
+      <c r="R3" s="377" t="s">
         <v>2</v>
       </c>
     </row>
@@ -22475,14 +22567,14 @@
       <c r="D4" s="17">
         <v>45015</v>
       </c>
-      <c r="E4" s="343" t="s">
+      <c r="E4" s="349" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="344"/>
-      <c r="H4" s="345" t="s">
+      <c r="F4" s="350"/>
+      <c r="H4" s="351" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="346"/>
+      <c r="I4" s="352"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -22492,11 +22584,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="359" t="s">
+      <c r="P4" s="365" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="360"/>
-      <c r="R4" s="372"/>
+      <c r="Q4" s="366"/>
+      <c r="R4" s="378"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -24383,11 +24475,11 @@
       <c r="L45" s="312">
         <v>2123.98</v>
       </c>
-      <c r="M45" s="339">
+      <c r="M45" s="345">
         <f>SUM(M5:M39)</f>
         <v>2488709</v>
       </c>
-      <c r="N45" s="350">
+      <c r="N45" s="356">
         <f>SUM(N5:N39)</f>
         <v>78710</v>
       </c>
@@ -24423,8 +24515,8 @@
       <c r="L46" s="281">
         <v>34015</v>
       </c>
-      <c r="M46" s="340"/>
-      <c r="N46" s="351"/>
+      <c r="M46" s="346"/>
+      <c r="N46" s="357"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -24516,29 +24608,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="352" t="s">
+      <c r="H51" s="358" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="353"/>
+      <c r="I51" s="359"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="354">
+      <c r="K51" s="360">
         <f>I49+L49</f>
         <v>124244.06999999999</v>
       </c>
-      <c r="L51" s="355"/>
-      <c r="M51" s="356">
+      <c r="L51" s="361"/>
+      <c r="M51" s="362">
         <f>N45+M45</f>
         <v>2567419</v>
       </c>
-      <c r="N51" s="357"/>
+      <c r="N51" s="363"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="349" t="s">
+      <c r="D52" s="355" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="349"/>
+      <c r="E52" s="355"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2480239.9300000002</v>
@@ -24549,22 +24641,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="320" t="s">
+      <c r="D53" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="320"/>
+      <c r="E53" s="326"/>
       <c r="F53" s="131">
         <v>-2463938.5299999998</v>
       </c>
-      <c r="I53" s="321" t="s">
+      <c r="I53" s="327" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="322"/>
-      <c r="K53" s="361">
+      <c r="J53" s="328"/>
+      <c r="K53" s="367">
         <f>F55+F56+F57</f>
         <v>439109.10000000038</v>
       </c>
-      <c r="L53" s="362"/>
+      <c r="L53" s="368"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -24595,11 +24687,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="363">
+      <c r="K55" s="369">
         <f>-C4</f>
         <v>-341192.34</v>
       </c>
-      <c r="L55" s="364"/>
+      <c r="L55" s="370"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -24616,22 +24708,22 @@
       <c r="C57" s="150">
         <v>45050</v>
       </c>
-      <c r="D57" s="327" t="s">
+      <c r="D57" s="333" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="328"/>
+      <c r="E57" s="334"/>
       <c r="F57" s="151">
         <v>394548.7</v>
       </c>
-      <c r="I57" s="368" t="s">
+      <c r="I57" s="374" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="369"/>
-      <c r="K57" s="370">
+      <c r="J57" s="375"/>
+      <c r="K57" s="376">
         <f>K53+K55</f>
         <v>97916.760000000359</v>
       </c>
-      <c r="L57" s="370"/>
+      <c r="L57" s="376"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -26168,23 +26260,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="332"/>
-      <c r="C1" s="334" t="s">
+      <c r="B1" s="338"/>
+      <c r="C1" s="340" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="335"/>
-      <c r="E1" s="335"/>
-      <c r="F1" s="335"/>
-      <c r="G1" s="335"/>
-      <c r="H1" s="335"/>
-      <c r="I1" s="335"/>
-      <c r="J1" s="335"/>
-      <c r="K1" s="335"/>
-      <c r="L1" s="335"/>
-      <c r="M1" s="335"/>
+      <c r="D1" s="341"/>
+      <c r="E1" s="341"/>
+      <c r="F1" s="341"/>
+      <c r="G1" s="341"/>
+      <c r="H1" s="341"/>
+      <c r="I1" s="341"/>
+      <c r="J1" s="341"/>
+      <c r="K1" s="341"/>
+      <c r="L1" s="341"/>
+      <c r="M1" s="341"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="333"/>
+      <c r="B2" s="339"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -26197,21 +26289,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="336" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="337"/>
+      <c r="B3" s="342" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="343"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="338" t="s">
+      <c r="H3" s="344" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="338"/>
+      <c r="I3" s="344"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="373" t="s">
+      <c r="R3" s="379" t="s">
         <v>2</v>
       </c>
     </row>
@@ -26226,14 +26318,14 @@
       <c r="D4" s="307">
         <v>45050</v>
       </c>
-      <c r="E4" s="343" t="s">
+      <c r="E4" s="349" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="344"/>
-      <c r="H4" s="345" t="s">
+      <c r="F4" s="350"/>
+      <c r="H4" s="351" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="346"/>
+      <c r="I4" s="352"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -26243,11 +26335,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="359" t="s">
+      <c r="P4" s="365" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="360"/>
-      <c r="R4" s="374"/>
+      <c r="Q4" s="366"/>
+      <c r="R4" s="380"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -28120,11 +28212,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="339">
+      <c r="M45" s="345">
         <f>SUM(M5:M39)</f>
         <v>3007589</v>
       </c>
-      <c r="N45" s="350">
+      <c r="N45" s="356">
         <f>SUM(N5:N39)</f>
         <v>29752</v>
       </c>
@@ -28154,8 +28246,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="340"/>
-      <c r="N46" s="351"/>
+      <c r="M46" s="346"/>
+      <c r="N46" s="357"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -28247,29 +28339,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="352" t="s">
+      <c r="H51" s="358" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="353"/>
+      <c r="I51" s="359"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="354">
+      <c r="K51" s="360">
         <f>I49+L49</f>
         <v>84500.43</v>
       </c>
-      <c r="L51" s="355"/>
-      <c r="M51" s="356">
+      <c r="L51" s="361"/>
+      <c r="M51" s="362">
         <f>N45+M45</f>
         <v>3037341</v>
       </c>
-      <c r="N51" s="357"/>
+      <c r="N51" s="363"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="349" t="s">
+      <c r="D52" s="355" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="349"/>
+      <c r="E52" s="355"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2988109.57</v>
@@ -28280,22 +28372,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="320" t="s">
+      <c r="D53" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="320"/>
+      <c r="E53" s="326"/>
       <c r="F53" s="131">
         <v>-2955802.29</v>
       </c>
-      <c r="I53" s="321" t="s">
+      <c r="I53" s="327" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="322"/>
-      <c r="K53" s="361">
+      <c r="J53" s="328"/>
+      <c r="K53" s="367">
         <f>F55+F56+F57</f>
         <v>419364.9699999998</v>
       </c>
-      <c r="L53" s="362"/>
+      <c r="L53" s="368"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -28326,11 +28418,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="363">
+      <c r="K55" s="369">
         <f>-C4</f>
         <v>-394548.7</v>
       </c>
-      <c r="L55" s="364"/>
+      <c r="L55" s="370"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -28347,22 +28439,22 @@
       <c r="C57" s="150">
         <v>45081</v>
       </c>
-      <c r="D57" s="327" t="s">
+      <c r="D57" s="333" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="328"/>
+      <c r="E57" s="334"/>
       <c r="F57" s="316">
         <v>345633.69</v>
       </c>
-      <c r="I57" s="368" t="s">
+      <c r="I57" s="374" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="369"/>
-      <c r="K57" s="370">
+      <c r="J57" s="375"/>
+      <c r="K57" s="376">
         <f>K53+K55</f>
         <v>24816.269999999786</v>
       </c>
-      <c r="L57" s="370"/>
+      <c r="L57" s="376"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  HERRADURA  JUNIO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  HERRADURA  JUNIO    2023.xlsx
@@ -385,7 +385,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="367">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -3556,69 +3556,6 @@
     <xf numFmtId="15" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3670,6 +3607,69 @@
     <xf numFmtId="167" fontId="14" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3700,6 +3700,12 @@
     <xf numFmtId="166" fontId="3" fillId="7" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="51" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="51" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="14" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3708,12 +3714,6 @@
     </xf>
     <xf numFmtId="166" fontId="16" fillId="9" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="51" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="51" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="51" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -6601,23 +6601,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="338"/>
-      <c r="C1" s="340" t="s">
+      <c r="B1" s="343"/>
+      <c r="C1" s="345" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="341"/>
-      <c r="E1" s="341"/>
-      <c r="F1" s="341"/>
-      <c r="G1" s="341"/>
-      <c r="H1" s="341"/>
-      <c r="I1" s="341"/>
-      <c r="J1" s="341"/>
-      <c r="K1" s="341"/>
-      <c r="L1" s="341"/>
-      <c r="M1" s="341"/>
+      <c r="D1" s="346"/>
+      <c r="E1" s="346"/>
+      <c r="F1" s="346"/>
+      <c r="G1" s="346"/>
+      <c r="H1" s="346"/>
+      <c r="I1" s="346"/>
+      <c r="J1" s="346"/>
+      <c r="K1" s="346"/>
+      <c r="L1" s="346"/>
+      <c r="M1" s="346"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="339"/>
+      <c r="B2" s="344"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -6627,21 +6627,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="342" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="343"/>
+      <c r="B3" s="347" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="348"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="344" t="s">
+      <c r="H3" s="349" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="344"/>
+      <c r="I3" s="349"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="347" t="s">
+      <c r="R3" s="326" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6656,14 +6656,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="349" t="s">
+      <c r="E4" s="328" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="350"/>
-      <c r="H4" s="351" t="s">
+      <c r="F4" s="329"/>
+      <c r="H4" s="330" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="352"/>
+      <c r="I4" s="331"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -6673,11 +6673,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="353" t="s">
+      <c r="P4" s="332" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="354"/>
-      <c r="R4" s="348"/>
+      <c r="Q4" s="333"/>
+      <c r="R4" s="327"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -8482,11 +8482,11 @@
       <c r="L49" s="76">
         <v>549</v>
       </c>
-      <c r="M49" s="345">
+      <c r="M49" s="350">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="356">
+      <c r="N49" s="335">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
@@ -8521,8 +8521,8 @@
       <c r="L50" s="76">
         <v>2591.1799999999998</v>
       </c>
-      <c r="M50" s="346"/>
-      <c r="N50" s="357"/>
+      <c r="M50" s="351"/>
+      <c r="N50" s="336"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -8614,29 +8614,29 @@
       <c r="A55" s="133"/>
       <c r="B55" s="134"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="358" t="s">
+      <c r="H55" s="337" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="359"/>
+      <c r="I55" s="338"/>
       <c r="J55" s="135"/>
-      <c r="K55" s="360">
+      <c r="K55" s="339">
         <f>I53+L53</f>
         <v>63475.360000000001</v>
       </c>
-      <c r="L55" s="361"/>
-      <c r="M55" s="362">
+      <c r="L55" s="340"/>
+      <c r="M55" s="341">
         <f>N49+M49</f>
         <v>1715746.5</v>
       </c>
-      <c r="N55" s="363"/>
+      <c r="N55" s="342"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="355" t="s">
+      <c r="D56" s="334" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="355"/>
+      <c r="E56" s="334"/>
       <c r="F56" s="136">
         <f>F53-K55-C53</f>
         <v>1656897.64</v>
@@ -8647,22 +8647,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="326" t="s">
+      <c r="D57" s="352" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="326"/>
+      <c r="E57" s="352"/>
       <c r="F57" s="131">
         <v>-1524395.48</v>
       </c>
-      <c r="I57" s="327" t="s">
+      <c r="I57" s="353" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="328"/>
-      <c r="K57" s="329">
+      <c r="J57" s="354"/>
+      <c r="K57" s="355">
         <f>F59+F60+F61</f>
         <v>393764.05999999994</v>
       </c>
-      <c r="L57" s="330"/>
+      <c r="L57" s="356"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
@@ -8693,11 +8693,11 @@
         <v>18</v>
       </c>
       <c r="J59" s="147"/>
-      <c r="K59" s="331">
+      <c r="K59" s="357">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L59" s="332"/>
+      <c r="L59" s="358"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="148" t="s">
@@ -8714,22 +8714,22 @@
       <c r="C61" s="150">
         <v>44955</v>
       </c>
-      <c r="D61" s="333" t="s">
+      <c r="D61" s="359" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="334"/>
+      <c r="E61" s="360"/>
       <c r="F61" s="151">
         <v>223528.9</v>
       </c>
-      <c r="I61" s="335" t="s">
+      <c r="I61" s="361" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="336"/>
-      <c r="K61" s="337">
+      <c r="J61" s="362"/>
+      <c r="K61" s="363">
         <f>K57+K59</f>
         <v>19815.339999999967</v>
       </c>
-      <c r="L61" s="337"/>
+      <c r="L61" s="363"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="152"/>
@@ -8854,6 +8854,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -8863,18 +8875,6 @@
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="M55:N55"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10278,8 +10278,8 @@
   </sheetPr>
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10304,23 +10304,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="338"/>
-      <c r="C1" s="340" t="s">
+      <c r="B1" s="343"/>
+      <c r="C1" s="345" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="341"/>
-      <c r="E1" s="341"/>
-      <c r="F1" s="341"/>
-      <c r="G1" s="341"/>
-      <c r="H1" s="341"/>
-      <c r="I1" s="341"/>
-      <c r="J1" s="341"/>
-      <c r="K1" s="341"/>
-      <c r="L1" s="341"/>
-      <c r="M1" s="341"/>
+      <c r="D1" s="346"/>
+      <c r="E1" s="346"/>
+      <c r="F1" s="346"/>
+      <c r="G1" s="346"/>
+      <c r="H1" s="346"/>
+      <c r="I1" s="346"/>
+      <c r="J1" s="346"/>
+      <c r="K1" s="346"/>
+      <c r="L1" s="346"/>
+      <c r="M1" s="346"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="339"/>
+      <c r="B2" s="344"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -10333,17 +10333,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="342" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="343"/>
+      <c r="B3" s="347" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="348"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="344" t="s">
+      <c r="H3" s="349" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="344"/>
+      <c r="I3" s="349"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
@@ -10362,14 +10362,14 @@
       <c r="D4" s="307">
         <v>45081</v>
       </c>
-      <c r="E4" s="349" t="s">
+      <c r="E4" s="328" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="350"/>
-      <c r="H4" s="351" t="s">
+      <c r="F4" s="329"/>
+      <c r="H4" s="330" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="352"/>
+      <c r="I4" s="331"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -10731,17 +10731,22 @@
       <c r="E12" s="27">
         <v>45089</v>
       </c>
-      <c r="F12" s="28"/>
+      <c r="F12" s="28">
+        <v>158875</v>
+      </c>
       <c r="G12" s="29"/>
       <c r="H12" s="30">
         <v>45089</v>
       </c>
-      <c r="I12" s="31"/>
+      <c r="I12" s="31">
+        <v>130</v>
+      </c>
       <c r="J12" s="258"/>
       <c r="K12" s="264"/>
       <c r="L12" s="259"/>
       <c r="M12" s="33">
-        <v>0</v>
+        <f>46000+14200+98545</f>
+        <v>158745</v>
       </c>
       <c r="N12" s="34">
         <v>0</v>
@@ -10749,7 +10754,7 @@
       <c r="O12" s="35"/>
       <c r="P12" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>158875</v>
       </c>
       <c r="Q12" s="236">
         <f t="shared" si="1"/>
@@ -10772,29 +10777,34 @@
       <c r="E13" s="27">
         <v>45090</v>
       </c>
-      <c r="F13" s="28"/>
+      <c r="F13" s="28">
+        <v>90002</v>
+      </c>
       <c r="G13" s="29"/>
       <c r="H13" s="30">
         <v>45090</v>
       </c>
-      <c r="I13" s="31"/>
+      <c r="I13" s="31">
+        <v>5</v>
+      </c>
       <c r="J13" s="258"/>
       <c r="K13" s="71"/>
       <c r="L13" s="259"/>
       <c r="M13" s="33">
-        <v>0</v>
+        <f>56576+33200</f>
+        <v>89776</v>
       </c>
       <c r="N13" s="34">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="O13" s="35"/>
       <c r="P13" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90008</v>
       </c>
       <c r="Q13" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R13" s="238">
         <v>0</v>
@@ -10813,17 +10823,22 @@
       <c r="E14" s="27">
         <v>45091</v>
       </c>
-      <c r="F14" s="28"/>
+      <c r="F14" s="28">
+        <v>101786</v>
+      </c>
       <c r="G14" s="29"/>
       <c r="H14" s="30">
         <v>45091</v>
       </c>
-      <c r="I14" s="31"/>
+      <c r="I14" s="31">
+        <v>214</v>
+      </c>
       <c r="J14" s="258"/>
       <c r="K14" s="260"/>
       <c r="L14" s="259"/>
       <c r="M14" s="33">
-        <v>0</v>
+        <f>16000+85572</f>
+        <v>101572</v>
       </c>
       <c r="N14" s="34">
         <v>0</v>
@@ -10831,7 +10846,7 @@
       <c r="O14" s="35"/>
       <c r="P14" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>101786</v>
       </c>
       <c r="Q14" s="236">
         <f t="shared" si="1"/>
@@ -10854,17 +10869,22 @@
       <c r="E15" s="27">
         <v>45092</v>
       </c>
-      <c r="F15" s="28"/>
+      <c r="F15" s="28">
+        <v>127207</v>
+      </c>
       <c r="G15" s="29"/>
       <c r="H15" s="30">
         <v>45092</v>
       </c>
-      <c r="I15" s="31"/>
+      <c r="I15" s="31">
+        <v>118</v>
+      </c>
       <c r="J15" s="258"/>
       <c r="K15" s="260"/>
       <c r="L15" s="259"/>
       <c r="M15" s="33">
-        <v>0</v>
+        <f>94589+200+32300</f>
+        <v>127089</v>
       </c>
       <c r="N15" s="34">
         <v>0</v>
@@ -10872,7 +10892,7 @@
       <c r="O15" s="314"/>
       <c r="P15" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>127207</v>
       </c>
       <c r="Q15" s="236">
         <f t="shared" si="1"/>
@@ -10889,35 +10909,42 @@
         <v>45093</v>
       </c>
       <c r="C16" s="25">
-        <v>0</v>
-      </c>
-      <c r="D16" s="52"/>
+        <v>8396</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>69</v>
+      </c>
       <c r="E16" s="27">
         <v>45093</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="28">
+        <v>176461</v>
+      </c>
       <c r="G16" s="29"/>
       <c r="H16" s="30">
         <v>45093</v>
       </c>
-      <c r="I16" s="31"/>
+      <c r="I16" s="31">
+        <v>53</v>
+      </c>
       <c r="J16" s="258"/>
       <c r="K16" s="260"/>
       <c r="L16" s="13"/>
       <c r="M16" s="33">
-        <v>0</v>
+        <f>42400+123810</f>
+        <v>166210</v>
       </c>
       <c r="N16" s="34">
-        <v>0</v>
+        <v>1857</v>
       </c>
       <c r="O16" s="35"/>
       <c r="P16" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>176516</v>
       </c>
       <c r="Q16" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="R16" s="238">
         <v>0</v>
@@ -11981,21 +12008,21 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="345">
+      <c r="M45" s="350">
         <f>SUM(M5:M39)</f>
-        <v>691786</v>
-      </c>
-      <c r="N45" s="356">
+        <v>1335178</v>
+      </c>
+      <c r="N45" s="335">
         <f>SUM(N5:N39)</f>
-        <v>19740.28</v>
+        <v>21824.28</v>
       </c>
       <c r="P45" s="98">
         <f t="shared" si="0"/>
-        <v>711526.28</v>
+        <v>1357002.28</v>
       </c>
       <c r="Q45" s="236">
         <f t="shared" si="1"/>
-        <v>711526.28</v>
+        <v>1357002.28</v>
       </c>
       <c r="R45" s="99">
         <f>SUM(R5:R39)</f>
@@ -12015,8 +12042,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="346"/>
-      <c r="N46" s="357"/>
+      <c r="M46" s="351"/>
+      <c r="N46" s="336"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -12066,7 +12093,7 @@
       </c>
       <c r="C49" s="122">
         <f>SUM(C5:C48)</f>
-        <v>17434</v>
+        <v>25830</v>
       </c>
       <c r="D49" s="123"/>
       <c r="E49" s="124" t="s">
@@ -12074,7 +12101,7 @@
       </c>
       <c r="F49" s="125">
         <f>SUM(F5:F48)</f>
-        <v>696391</v>
+        <v>1350722</v>
       </c>
       <c r="G49" s="123"/>
       <c r="H49" s="126" t="s">
@@ -12082,7 +12109,7 @@
       </c>
       <c r="I49" s="127">
         <f>SUM(I5:I48)</f>
-        <v>732</v>
+        <v>1252</v>
       </c>
       <c r="J49" s="290"/>
       <c r="K49" s="291" t="s">
@@ -12108,32 +12135,32 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="358" t="s">
+      <c r="H51" s="337" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="359"/>
+      <c r="I51" s="338"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="360">
+      <c r="K51" s="339">
         <f>I49+L49</f>
-        <v>9432</v>
-      </c>
-      <c r="L51" s="361"/>
-      <c r="M51" s="362">
+        <v>9952</v>
+      </c>
+      <c r="L51" s="340"/>
+      <c r="M51" s="341">
         <f>N45+M45</f>
-        <v>711526.28</v>
-      </c>
-      <c r="N51" s="363"/>
+        <v>1357002.28</v>
+      </c>
+      <c r="N51" s="342"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="355" t="s">
+      <c r="D52" s="334" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="355"/>
+      <c r="E52" s="334"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
-        <v>669525</v>
+        <v>1314940</v>
       </c>
       <c r="I52" s="137"/>
       <c r="J52" s="138"/>
@@ -12141,20 +12168,20 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="326" t="s">
+      <c r="D53" s="352" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="326"/>
+      <c r="E53" s="352"/>
       <c r="F53" s="131">
         <v>-3128572.23</v>
       </c>
-      <c r="I53" s="327" t="s">
+      <c r="I53" s="353" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="328"/>
+      <c r="J53" s="354"/>
       <c r="K53" s="367">
         <f>F55+F56+F57</f>
-        <v>-2099939.12</v>
+        <v>-1454524.12</v>
       </c>
       <c r="L53" s="368"/>
       <c r="P53" s="36"/>
@@ -12180,7 +12207,7 @@
       </c>
       <c r="F55" s="131">
         <f>SUM(F52:F54)</f>
-        <v>-2459047.23</v>
+        <v>-1813632.23</v>
       </c>
       <c r="H55" s="23"/>
       <c r="I55" s="146" t="s">
@@ -12208,22 +12235,22 @@
       <c r="C57" s="150">
         <v>45109</v>
       </c>
-      <c r="D57" s="333" t="s">
+      <c r="D57" s="359" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="334"/>
+      <c r="E57" s="360"/>
       <c r="F57" s="316">
         <v>359108.11</v>
       </c>
-      <c r="I57" s="374" t="s">
+      <c r="I57" s="376" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="375"/>
-      <c r="K57" s="376">
+      <c r="J57" s="377"/>
+      <c r="K57" s="378">
         <f>K53+K55</f>
-        <v>-2445572.81</v>
-      </c>
-      <c r="L57" s="376"/>
+        <v>-1800157.81</v>
+      </c>
+      <c r="L57" s="378"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -12348,18 +12375,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -12369,6 +12384,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15128,23 +15155,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="338"/>
-      <c r="C1" s="340" t="s">
+      <c r="B1" s="343"/>
+      <c r="C1" s="345" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="341"/>
-      <c r="E1" s="341"/>
-      <c r="F1" s="341"/>
-      <c r="G1" s="341"/>
-      <c r="H1" s="341"/>
-      <c r="I1" s="341"/>
-      <c r="J1" s="341"/>
-      <c r="K1" s="341"/>
-      <c r="L1" s="341"/>
-      <c r="M1" s="341"/>
+      <c r="D1" s="346"/>
+      <c r="E1" s="346"/>
+      <c r="F1" s="346"/>
+      <c r="G1" s="346"/>
+      <c r="H1" s="346"/>
+      <c r="I1" s="346"/>
+      <c r="J1" s="346"/>
+      <c r="K1" s="346"/>
+      <c r="L1" s="346"/>
+      <c r="M1" s="346"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="339"/>
+      <c r="B2" s="344"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -15154,21 +15181,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="342" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="343"/>
+      <c r="B3" s="347" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="348"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="344" t="s">
+      <c r="H3" s="349" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="344"/>
+      <c r="I3" s="349"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="347" t="s">
+      <c r="R3" s="326" t="s">
         <v>2</v>
       </c>
     </row>
@@ -15183,14 +15210,14 @@
       <c r="D4" s="17">
         <v>44955</v>
       </c>
-      <c r="E4" s="349" t="s">
+      <c r="E4" s="328" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="350"/>
-      <c r="H4" s="351" t="s">
+      <c r="F4" s="329"/>
+      <c r="H4" s="330" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="352"/>
+      <c r="I4" s="331"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -17005,11 +17032,11 @@
       <c r="J45" s="74"/>
       <c r="K45" s="97"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="345">
+      <c r="M45" s="350">
         <f>SUM(M5:M39)</f>
         <v>2238523</v>
       </c>
-      <c r="N45" s="356">
+      <c r="N45" s="335">
         <f>SUM(N5:N39)</f>
         <v>97258</v>
       </c>
@@ -17039,8 +17066,8 @@
       <c r="J46" s="74"/>
       <c r="K46" s="102"/>
       <c r="L46" s="76"/>
-      <c r="M46" s="346"/>
-      <c r="N46" s="357"/>
+      <c r="M46" s="351"/>
+      <c r="N46" s="336"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -17132,29 +17159,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="358" t="s">
+      <c r="H51" s="337" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="359"/>
+      <c r="I51" s="338"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="360">
+      <c r="K51" s="339">
         <f>I49+L49</f>
         <v>90767.040000000008</v>
       </c>
-      <c r="L51" s="361"/>
-      <c r="M51" s="362">
+      <c r="L51" s="340"/>
+      <c r="M51" s="341">
         <f>N45+M45</f>
         <v>2335781</v>
       </c>
-      <c r="N51" s="363"/>
+      <c r="N51" s="342"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="355" t="s">
+      <c r="D52" s="334" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="355"/>
+      <c r="E52" s="334"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2261973.96</v>
@@ -17165,22 +17192,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="326" t="s">
+      <c r="D53" s="352" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="326"/>
+      <c r="E53" s="352"/>
       <c r="F53" s="131">
         <v>-2224189.7400000002</v>
       </c>
-      <c r="I53" s="327" t="s">
+      <c r="I53" s="353" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="328"/>
-      <c r="K53" s="329">
+      <c r="J53" s="354"/>
+      <c r="K53" s="355">
         <f>F55+F56+F57</f>
         <v>296963.76999999973</v>
       </c>
-      <c r="L53" s="330"/>
+      <c r="L53" s="356"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -17211,11 +17238,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="331">
+      <c r="K55" s="357">
         <f>-C4</f>
         <v>-223528.9</v>
       </c>
-      <c r="L55" s="332"/>
+      <c r="L55" s="358"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -17232,22 +17259,22 @@
       <c r="C57" s="150">
         <v>44985</v>
       </c>
-      <c r="D57" s="333" t="s">
+      <c r="D57" s="359" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="334"/>
+      <c r="E57" s="360"/>
       <c r="F57" s="151">
         <v>230554.55</v>
       </c>
-      <c r="I57" s="335" t="s">
+      <c r="I57" s="361" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="336"/>
-      <c r="K57" s="337">
+      <c r="J57" s="362"/>
+      <c r="K57" s="363">
         <f>K53+K55</f>
         <v>73434.869999999733</v>
       </c>
-      <c r="L57" s="337"/>
+      <c r="L57" s="363"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -17372,6 +17399,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -17381,18 +17420,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18851,23 +18878,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="338"/>
-      <c r="C1" s="340" t="s">
+      <c r="B1" s="343"/>
+      <c r="C1" s="345" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="341"/>
-      <c r="E1" s="341"/>
-      <c r="F1" s="341"/>
-      <c r="G1" s="341"/>
-      <c r="H1" s="341"/>
-      <c r="I1" s="341"/>
-      <c r="J1" s="341"/>
-      <c r="K1" s="341"/>
-      <c r="L1" s="341"/>
-      <c r="M1" s="341"/>
+      <c r="D1" s="346"/>
+      <c r="E1" s="346"/>
+      <c r="F1" s="346"/>
+      <c r="G1" s="346"/>
+      <c r="H1" s="346"/>
+      <c r="I1" s="346"/>
+      <c r="J1" s="346"/>
+      <c r="K1" s="346"/>
+      <c r="L1" s="346"/>
+      <c r="M1" s="346"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="339"/>
+      <c r="B2" s="344"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -18877,21 +18904,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="342" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="343"/>
+      <c r="B3" s="347" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="348"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="344" t="s">
+      <c r="H3" s="349" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="344"/>
+      <c r="I3" s="349"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="347" t="s">
+      <c r="R3" s="326" t="s">
         <v>2</v>
       </c>
     </row>
@@ -18906,14 +18933,14 @@
       <c r="D4" s="17">
         <v>44985</v>
       </c>
-      <c r="E4" s="349" t="s">
+      <c r="E4" s="328" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="350"/>
-      <c r="H4" s="351" t="s">
+      <c r="F4" s="329"/>
+      <c r="H4" s="330" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="352"/>
+      <c r="I4" s="331"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -20720,11 +20747,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="231"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="345">
+      <c r="M45" s="350">
         <f>SUM(M5:M39)</f>
         <v>2689952</v>
       </c>
-      <c r="N45" s="356">
+      <c r="N45" s="335">
         <f>SUM(N5:N39)</f>
         <v>61422</v>
       </c>
@@ -20754,8 +20781,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="346"/>
-      <c r="N46" s="357"/>
+      <c r="M46" s="351"/>
+      <c r="N46" s="336"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -20847,29 +20874,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="358" t="s">
+      <c r="H51" s="337" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="359"/>
+      <c r="I51" s="338"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="360">
+      <c r="K51" s="339">
         <f>I49+L49</f>
         <v>425400.67</v>
       </c>
-      <c r="L51" s="361"/>
-      <c r="M51" s="362">
+      <c r="L51" s="340"/>
+      <c r="M51" s="341">
         <f>N45+M45</f>
         <v>2751374</v>
       </c>
-      <c r="N51" s="363"/>
+      <c r="N51" s="342"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="355" t="s">
+      <c r="D52" s="334" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="355"/>
+      <c r="E52" s="334"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2464124.33</v>
@@ -20880,17 +20907,17 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="326" t="s">
+      <c r="D53" s="352" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="326"/>
+      <c r="E53" s="352"/>
       <c r="F53" s="131">
         <v>-2869426.04</v>
       </c>
-      <c r="I53" s="327" t="s">
+      <c r="I53" s="353" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="328"/>
+      <c r="J53" s="354"/>
       <c r="K53" s="367">
         <f>F55+F56+F57</f>
         <v>-32021.369999999937</v>
@@ -20947,10 +20974,10 @@
       <c r="C57" s="150">
         <v>45015</v>
       </c>
-      <c r="D57" s="333" t="s">
+      <c r="D57" s="359" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="334"/>
+      <c r="E57" s="360"/>
       <c r="F57" s="151">
         <v>341192.34</v>
       </c>
@@ -21087,18 +21114,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -21108,6 +21123,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22509,23 +22536,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="338"/>
-      <c r="C1" s="340" t="s">
+      <c r="B1" s="343"/>
+      <c r="C1" s="345" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="341"/>
-      <c r="E1" s="341"/>
-      <c r="F1" s="341"/>
-      <c r="G1" s="341"/>
-      <c r="H1" s="341"/>
-      <c r="I1" s="341"/>
-      <c r="J1" s="341"/>
-      <c r="K1" s="341"/>
-      <c r="L1" s="341"/>
-      <c r="M1" s="341"/>
+      <c r="D1" s="346"/>
+      <c r="E1" s="346"/>
+      <c r="F1" s="346"/>
+      <c r="G1" s="346"/>
+      <c r="H1" s="346"/>
+      <c r="I1" s="346"/>
+      <c r="J1" s="346"/>
+      <c r="K1" s="346"/>
+      <c r="L1" s="346"/>
+      <c r="M1" s="346"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="339"/>
+      <c r="B2" s="344"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -22538,21 +22565,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="342" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="343"/>
+      <c r="B3" s="347" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="348"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="344" t="s">
+      <c r="H3" s="349" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="344"/>
+      <c r="I3" s="349"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="377" t="s">
+      <c r="R3" s="374" t="s">
         <v>2</v>
       </c>
     </row>
@@ -22567,14 +22594,14 @@
       <c r="D4" s="17">
         <v>45015</v>
       </c>
-      <c r="E4" s="349" t="s">
+      <c r="E4" s="328" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="350"/>
-      <c r="H4" s="351" t="s">
+      <c r="F4" s="329"/>
+      <c r="H4" s="330" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="352"/>
+      <c r="I4" s="331"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -22588,7 +22615,7 @@
         <v>8</v>
       </c>
       <c r="Q4" s="366"/>
-      <c r="R4" s="378"/>
+      <c r="R4" s="375"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -24475,11 +24502,11 @@
       <c r="L45" s="312">
         <v>2123.98</v>
       </c>
-      <c r="M45" s="345">
+      <c r="M45" s="350">
         <f>SUM(M5:M39)</f>
         <v>2488709</v>
       </c>
-      <c r="N45" s="356">
+      <c r="N45" s="335">
         <f>SUM(N5:N39)</f>
         <v>78710</v>
       </c>
@@ -24515,8 +24542,8 @@
       <c r="L46" s="281">
         <v>34015</v>
       </c>
-      <c r="M46" s="346"/>
-      <c r="N46" s="357"/>
+      <c r="M46" s="351"/>
+      <c r="N46" s="336"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -24608,29 +24635,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="358" t="s">
+      <c r="H51" s="337" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="359"/>
+      <c r="I51" s="338"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="360">
+      <c r="K51" s="339">
         <f>I49+L49</f>
         <v>124244.06999999999</v>
       </c>
-      <c r="L51" s="361"/>
-      <c r="M51" s="362">
+      <c r="L51" s="340"/>
+      <c r="M51" s="341">
         <f>N45+M45</f>
         <v>2567419</v>
       </c>
-      <c r="N51" s="363"/>
+      <c r="N51" s="342"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="355" t="s">
+      <c r="D52" s="334" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="355"/>
+      <c r="E52" s="334"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2480239.9300000002</v>
@@ -24641,17 +24668,17 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="326" t="s">
+      <c r="D53" s="352" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="326"/>
+      <c r="E53" s="352"/>
       <c r="F53" s="131">
         <v>-2463938.5299999998</v>
       </c>
-      <c r="I53" s="327" t="s">
+      <c r="I53" s="353" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="328"/>
+      <c r="J53" s="354"/>
       <c r="K53" s="367">
         <f>F55+F56+F57</f>
         <v>439109.10000000038</v>
@@ -24708,22 +24735,22 @@
       <c r="C57" s="150">
         <v>45050</v>
       </c>
-      <c r="D57" s="333" t="s">
+      <c r="D57" s="359" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="334"/>
+      <c r="E57" s="360"/>
       <c r="F57" s="151">
         <v>394548.7</v>
       </c>
-      <c r="I57" s="374" t="s">
+      <c r="I57" s="376" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="375"/>
-      <c r="K57" s="376">
+      <c r="J57" s="377"/>
+      <c r="K57" s="378">
         <f>K53+K55</f>
         <v>97916.760000000359</v>
       </c>
-      <c r="L57" s="376"/>
+      <c r="L57" s="378"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -24848,6 +24875,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -24857,18 +24896,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.27559055118110237" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26260,23 +26287,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="338"/>
-      <c r="C1" s="340" t="s">
+      <c r="B1" s="343"/>
+      <c r="C1" s="345" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="341"/>
-      <c r="E1" s="341"/>
-      <c r="F1" s="341"/>
-      <c r="G1" s="341"/>
-      <c r="H1" s="341"/>
-      <c r="I1" s="341"/>
-      <c r="J1" s="341"/>
-      <c r="K1" s="341"/>
-      <c r="L1" s="341"/>
-      <c r="M1" s="341"/>
+      <c r="D1" s="346"/>
+      <c r="E1" s="346"/>
+      <c r="F1" s="346"/>
+      <c r="G1" s="346"/>
+      <c r="H1" s="346"/>
+      <c r="I1" s="346"/>
+      <c r="J1" s="346"/>
+      <c r="K1" s="346"/>
+      <c r="L1" s="346"/>
+      <c r="M1" s="346"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="339"/>
+      <c r="B2" s="344"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -26289,17 +26316,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="342" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="343"/>
+      <c r="B3" s="347" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="348"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="344" t="s">
+      <c r="H3" s="349" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="344"/>
+      <c r="I3" s="349"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
@@ -26318,14 +26345,14 @@
       <c r="D4" s="307">
         <v>45050</v>
       </c>
-      <c r="E4" s="349" t="s">
+      <c r="E4" s="328" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="350"/>
-      <c r="H4" s="351" t="s">
+      <c r="F4" s="329"/>
+      <c r="H4" s="330" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="352"/>
+      <c r="I4" s="331"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -28212,11 +28239,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="345">
+      <c r="M45" s="350">
         <f>SUM(M5:M39)</f>
         <v>3007589</v>
       </c>
-      <c r="N45" s="356">
+      <c r="N45" s="335">
         <f>SUM(N5:N39)</f>
         <v>29752</v>
       </c>
@@ -28246,8 +28273,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="346"/>
-      <c r="N46" s="357"/>
+      <c r="M46" s="351"/>
+      <c r="N46" s="336"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -28339,29 +28366,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="358" t="s">
+      <c r="H51" s="337" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="359"/>
+      <c r="I51" s="338"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="360">
+      <c r="K51" s="339">
         <f>I49+L49</f>
         <v>84500.43</v>
       </c>
-      <c r="L51" s="361"/>
-      <c r="M51" s="362">
+      <c r="L51" s="340"/>
+      <c r="M51" s="341">
         <f>N45+M45</f>
         <v>3037341</v>
       </c>
-      <c r="N51" s="363"/>
+      <c r="N51" s="342"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="355" t="s">
+      <c r="D52" s="334" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="355"/>
+      <c r="E52" s="334"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2988109.57</v>
@@ -28372,17 +28399,17 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="326" t="s">
+      <c r="D53" s="352" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="326"/>
+      <c r="E53" s="352"/>
       <c r="F53" s="131">
         <v>-2955802.29</v>
       </c>
-      <c r="I53" s="327" t="s">
+      <c r="I53" s="353" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="328"/>
+      <c r="J53" s="354"/>
       <c r="K53" s="367">
         <f>F55+F56+F57</f>
         <v>419364.9699999998</v>
@@ -28439,22 +28466,22 @@
       <c r="C57" s="150">
         <v>45081</v>
       </c>
-      <c r="D57" s="333" t="s">
+      <c r="D57" s="359" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="334"/>
+      <c r="E57" s="360"/>
       <c r="F57" s="316">
         <v>345633.69</v>
       </c>
-      <c r="I57" s="374" t="s">
+      <c r="I57" s="376" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="375"/>
-      <c r="K57" s="376">
+      <c r="J57" s="377"/>
+      <c r="K57" s="378">
         <f>K53+K55</f>
         <v>24816.269999999786</v>
       </c>
-      <c r="L57" s="376"/>
+      <c r="L57" s="378"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -28579,18 +28606,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -28600,6 +28615,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  HERRADURA  JUNIO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  HERRADURA  JUNIO    2023.xlsx
@@ -385,7 +385,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="368">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1499,6 +1499,9 @@
   </si>
   <si>
     <t>NOMINA # 23</t>
+  </si>
+  <si>
+    <t>NOMINA # 24 y Vacaciones Esther Morlaes Alarcon</t>
   </si>
 </sst>
 </file>
@@ -2919,7 +2922,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="381">
+  <cellXfs count="382">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3556,6 +3559,7 @@
     <xf numFmtId="15" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6601,23 +6605,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="343"/>
-      <c r="C1" s="345" t="s">
+      <c r="B1" s="344"/>
+      <c r="C1" s="346" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="346"/>
-      <c r="E1" s="346"/>
-      <c r="F1" s="346"/>
-      <c r="G1" s="346"/>
-      <c r="H1" s="346"/>
-      <c r="I1" s="346"/>
-      <c r="J1" s="346"/>
-      <c r="K1" s="346"/>
-      <c r="L1" s="346"/>
-      <c r="M1" s="346"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="347"/>
+      <c r="F1" s="347"/>
+      <c r="G1" s="347"/>
+      <c r="H1" s="347"/>
+      <c r="I1" s="347"/>
+      <c r="J1" s="347"/>
+      <c r="K1" s="347"/>
+      <c r="L1" s="347"/>
+      <c r="M1" s="347"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="344"/>
+      <c r="B2" s="345"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -6627,21 +6631,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="347" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="348"/>
+      <c r="B3" s="348" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="349"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="349" t="s">
+      <c r="H3" s="350" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="349"/>
+      <c r="I3" s="350"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="326" t="s">
+      <c r="R3" s="327" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6656,14 +6660,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="328" t="s">
+      <c r="E4" s="329" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="329"/>
-      <c r="H4" s="330" t="s">
+      <c r="F4" s="330"/>
+      <c r="H4" s="331" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="331"/>
+      <c r="I4" s="332"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -6673,11 +6677,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="332" t="s">
+      <c r="P4" s="333" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="333"/>
-      <c r="R4" s="327"/>
+      <c r="Q4" s="334"/>
+      <c r="R4" s="328"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -8482,11 +8486,11 @@
       <c r="L49" s="76">
         <v>549</v>
       </c>
-      <c r="M49" s="350">
+      <c r="M49" s="351">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="335">
+      <c r="N49" s="336">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
@@ -8521,8 +8525,8 @@
       <c r="L50" s="76">
         <v>2591.1799999999998</v>
       </c>
-      <c r="M50" s="351"/>
-      <c r="N50" s="336"/>
+      <c r="M50" s="352"/>
+      <c r="N50" s="337"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -8614,29 +8618,29 @@
       <c r="A55" s="133"/>
       <c r="B55" s="134"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="337" t="s">
+      <c r="H55" s="338" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="338"/>
+      <c r="I55" s="339"/>
       <c r="J55" s="135"/>
-      <c r="K55" s="339">
+      <c r="K55" s="340">
         <f>I53+L53</f>
         <v>63475.360000000001</v>
       </c>
-      <c r="L55" s="340"/>
-      <c r="M55" s="341">
+      <c r="L55" s="341"/>
+      <c r="M55" s="342">
         <f>N49+M49</f>
         <v>1715746.5</v>
       </c>
-      <c r="N55" s="342"/>
+      <c r="N55" s="343"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="334" t="s">
+      <c r="D56" s="335" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="334"/>
+      <c r="E56" s="335"/>
       <c r="F56" s="136">
         <f>F53-K55-C53</f>
         <v>1656897.64</v>
@@ -8647,22 +8651,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="352" t="s">
+      <c r="D57" s="353" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="352"/>
+      <c r="E57" s="353"/>
       <c r="F57" s="131">
         <v>-1524395.48</v>
       </c>
-      <c r="I57" s="353" t="s">
+      <c r="I57" s="354" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="354"/>
-      <c r="K57" s="355">
+      <c r="J57" s="355"/>
+      <c r="K57" s="356">
         <f>F59+F60+F61</f>
         <v>393764.05999999994</v>
       </c>
-      <c r="L57" s="356"/>
+      <c r="L57" s="357"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
@@ -8693,11 +8697,11 @@
         <v>18</v>
       </c>
       <c r="J59" s="147"/>
-      <c r="K59" s="357">
+      <c r="K59" s="358">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L59" s="358"/>
+      <c r="L59" s="359"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="148" t="s">
@@ -8714,22 +8718,22 @@
       <c r="C61" s="150">
         <v>44955</v>
       </c>
-      <c r="D61" s="359" t="s">
+      <c r="D61" s="360" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="360"/>
+      <c r="E61" s="361"/>
       <c r="F61" s="151">
         <v>223528.9</v>
       </c>
-      <c r="I61" s="361" t="s">
+      <c r="I61" s="362" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="362"/>
-      <c r="K61" s="363">
+      <c r="J61" s="363"/>
+      <c r="K61" s="364">
         <f>K57+K59</f>
         <v>19815.339999999967</v>
       </c>
-      <c r="L61" s="363"/>
+      <c r="L61" s="364"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="152"/>
@@ -10278,8 +10282,8 @@
   </sheetPr>
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10304,23 +10308,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="343"/>
-      <c r="C1" s="345" t="s">
+      <c r="B1" s="344"/>
+      <c r="C1" s="346" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="346"/>
-      <c r="E1" s="346"/>
-      <c r="F1" s="346"/>
-      <c r="G1" s="346"/>
-      <c r="H1" s="346"/>
-      <c r="I1" s="346"/>
-      <c r="J1" s="346"/>
-      <c r="K1" s="346"/>
-      <c r="L1" s="346"/>
-      <c r="M1" s="346"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="347"/>
+      <c r="F1" s="347"/>
+      <c r="G1" s="347"/>
+      <c r="H1" s="347"/>
+      <c r="I1" s="347"/>
+      <c r="J1" s="347"/>
+      <c r="K1" s="347"/>
+      <c r="L1" s="347"/>
+      <c r="M1" s="347"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="344"/>
+      <c r="B2" s="345"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -10333,21 +10337,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="347" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="348"/>
+      <c r="B3" s="348" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="349"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="349" t="s">
+      <c r="H3" s="350" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="349"/>
+      <c r="I3" s="350"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="379" t="s">
+      <c r="R3" s="380" t="s">
         <v>2</v>
       </c>
     </row>
@@ -10362,14 +10366,14 @@
       <c r="D4" s="307">
         <v>45081</v>
       </c>
-      <c r="E4" s="328" t="s">
+      <c r="E4" s="329" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="329"/>
-      <c r="H4" s="330" t="s">
+      <c r="F4" s="330"/>
+      <c r="H4" s="331" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="331"/>
+      <c r="I4" s="332"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -10379,11 +10383,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="365" t="s">
+      <c r="P4" s="366" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="366"/>
-      <c r="R4" s="380"/>
+      <c r="Q4" s="367"/>
+      <c r="R4" s="381"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -10957,35 +10961,48 @@
         <v>45094</v>
       </c>
       <c r="C17" s="25">
-        <v>0</v>
-      </c>
-      <c r="D17" s="46"/>
+        <v>3900</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>213</v>
+      </c>
       <c r="E17" s="27">
         <v>45094</v>
       </c>
-      <c r="F17" s="28"/>
+      <c r="F17" s="28">
+        <v>119489</v>
+      </c>
       <c r="G17" s="29"/>
       <c r="H17" s="30">
         <v>45094</v>
       </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="258"/>
-      <c r="K17" s="260"/>
-      <c r="L17" s="263"/>
+      <c r="I17" s="31">
+        <v>140</v>
+      </c>
+      <c r="J17" s="258">
+        <v>45094</v>
+      </c>
+      <c r="K17" s="326" t="s">
+        <v>367</v>
+      </c>
+      <c r="L17" s="263">
+        <v>9950</v>
+      </c>
       <c r="M17" s="33">
-        <v>0</v>
+        <f>12200+92087</f>
+        <v>104287</v>
       </c>
       <c r="N17" s="34">
-        <v>0</v>
+        <v>1249</v>
       </c>
       <c r="O17" s="35"/>
       <c r="P17" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>119526</v>
       </c>
       <c r="Q17" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="R17" s="238">
         <v>0</v>
@@ -11004,17 +11021,22 @@
       <c r="E18" s="27">
         <v>45095</v>
       </c>
-      <c r="F18" s="28"/>
+      <c r="F18" s="28">
+        <v>83403</v>
+      </c>
       <c r="G18" s="29"/>
       <c r="H18" s="30">
         <v>45095</v>
       </c>
-      <c r="I18" s="31"/>
+      <c r="I18" s="31">
+        <v>50</v>
+      </c>
       <c r="J18" s="258"/>
       <c r="K18" s="265"/>
       <c r="L18" s="259"/>
       <c r="M18" s="33">
-        <v>0</v>
+        <f>67100+16253</f>
+        <v>83353</v>
       </c>
       <c r="N18" s="34">
         <v>0</v>
@@ -11022,7 +11044,7 @@
       <c r="O18" s="35"/>
       <c r="P18" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>83403</v>
       </c>
       <c r="Q18" s="236">
         <f t="shared" si="1"/>
@@ -11045,17 +11067,22 @@
       <c r="E19" s="27">
         <v>45096</v>
       </c>
-      <c r="F19" s="28"/>
+      <c r="F19" s="28">
+        <v>121449</v>
+      </c>
       <c r="G19" s="29"/>
       <c r="H19" s="30">
         <v>45096</v>
       </c>
-      <c r="I19" s="31"/>
+      <c r="I19" s="31">
+        <v>929</v>
+      </c>
       <c r="J19" s="258"/>
       <c r="K19" s="266"/>
       <c r="L19" s="267"/>
       <c r="M19" s="33">
-        <v>0</v>
+        <f>79520+41000</f>
+        <v>120520</v>
       </c>
       <c r="N19" s="34">
         <v>0</v>
@@ -11063,7 +11090,7 @@
       <c r="O19" s="35"/>
       <c r="P19" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>121449</v>
       </c>
       <c r="Q19" s="236">
         <f t="shared" si="1"/>
@@ -11086,17 +11113,22 @@
       <c r="E20" s="27">
         <v>45097</v>
       </c>
-      <c r="F20" s="28"/>
+      <c r="F20" s="28">
+        <v>146120</v>
+      </c>
       <c r="G20" s="29"/>
       <c r="H20" s="30">
         <v>45097</v>
       </c>
-      <c r="I20" s="31"/>
+      <c r="I20" s="31">
+        <v>80</v>
+      </c>
       <c r="J20" s="258"/>
       <c r="K20" s="262"/>
       <c r="L20" s="263"/>
       <c r="M20" s="33">
-        <v>0</v>
+        <f>5000+141040</f>
+        <v>146040</v>
       </c>
       <c r="N20" s="34">
         <v>0</v>
@@ -11104,11 +11136,10 @@
       <c r="O20" s="35"/>
       <c r="P20" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="236">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>146120</v>
+      </c>
+      <c r="Q20" s="236" t="s">
+        <v>9</v>
       </c>
       <c r="R20" s="238">
         <v>0</v>
@@ -11127,17 +11158,22 @@
       <c r="E21" s="27">
         <v>45098</v>
       </c>
-      <c r="F21" s="28"/>
+      <c r="F21" s="28">
+        <v>34428</v>
+      </c>
       <c r="G21" s="29"/>
       <c r="H21" s="30">
         <v>45098</v>
       </c>
-      <c r="I21" s="31"/>
+      <c r="I21" s="31">
+        <v>200</v>
+      </c>
       <c r="J21" s="258"/>
       <c r="K21" s="268"/>
       <c r="L21" s="263"/>
       <c r="M21" s="33">
-        <v>0</v>
+        <f>7000+27228</f>
+        <v>34228</v>
       </c>
       <c r="N21" s="34">
         <v>0</v>
@@ -11145,7 +11181,7 @@
       <c r="O21" s="35"/>
       <c r="P21" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34428</v>
       </c>
       <c r="Q21" s="236">
         <f t="shared" si="1"/>
@@ -11162,23 +11198,30 @@
         <v>45099</v>
       </c>
       <c r="C22" s="25">
-        <v>0</v>
-      </c>
-      <c r="D22" s="38"/>
+        <v>12689</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>69</v>
+      </c>
       <c r="E22" s="27">
         <v>45099</v>
       </c>
-      <c r="F22" s="28"/>
+      <c r="F22" s="28">
+        <v>204772</v>
+      </c>
       <c r="G22" s="29"/>
       <c r="H22" s="30">
         <v>45099</v>
       </c>
-      <c r="I22" s="31"/>
+      <c r="I22" s="31">
+        <v>31</v>
+      </c>
       <c r="J22" s="258"/>
       <c r="K22" s="302"/>
       <c r="L22" s="269"/>
       <c r="M22" s="33">
-        <v>0</v>
+        <f>90000+102052</f>
+        <v>192052</v>
       </c>
       <c r="N22" s="34">
         <v>0</v>
@@ -11186,7 +11229,7 @@
       <c r="O22" s="315"/>
       <c r="P22" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>204772</v>
       </c>
       <c r="Q22" s="236">
         <f t="shared" si="1"/>
@@ -12008,21 +12051,21 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="350">
+      <c r="M45" s="351">
         <f>SUM(M5:M39)</f>
-        <v>1335178</v>
-      </c>
-      <c r="N45" s="335">
+        <v>2015658</v>
+      </c>
+      <c r="N45" s="336">
         <f>SUM(N5:N39)</f>
-        <v>21824.28</v>
+        <v>23073.279999999999</v>
       </c>
       <c r="P45" s="98">
         <f t="shared" si="0"/>
-        <v>1357002.28</v>
+        <v>2038731.28</v>
       </c>
       <c r="Q45" s="236">
         <f t="shared" si="1"/>
-        <v>1357002.28</v>
+        <v>2038731.28</v>
       </c>
       <c r="R45" s="99">
         <f>SUM(R5:R39)</f>
@@ -12042,8 +12085,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="351"/>
-      <c r="N46" s="336"/>
+      <c r="M46" s="352"/>
+      <c r="N46" s="337"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -12093,7 +12136,7 @@
       </c>
       <c r="C49" s="122">
         <f>SUM(C5:C48)</f>
-        <v>25830</v>
+        <v>42419</v>
       </c>
       <c r="D49" s="123"/>
       <c r="E49" s="124" t="s">
@@ -12101,7 +12144,7 @@
       </c>
       <c r="F49" s="125">
         <f>SUM(F5:F48)</f>
-        <v>1350722</v>
+        <v>2060383</v>
       </c>
       <c r="G49" s="123"/>
       <c r="H49" s="126" t="s">
@@ -12109,7 +12152,7 @@
       </c>
       <c r="I49" s="127">
         <f>SUM(I5:I48)</f>
-        <v>1252</v>
+        <v>2682</v>
       </c>
       <c r="J49" s="290"/>
       <c r="K49" s="291" t="s">
@@ -12117,7 +12160,7 @@
       </c>
       <c r="L49" s="292">
         <f>SUM(L5:L48)</f>
-        <v>8700</v>
+        <v>18650</v>
       </c>
       <c r="M49" s="131"/>
       <c r="N49" s="131"/>
@@ -12135,32 +12178,32 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="337" t="s">
+      <c r="H51" s="338" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="338"/>
+      <c r="I51" s="339"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="339">
+      <c r="K51" s="340">
         <f>I49+L49</f>
-        <v>9952</v>
-      </c>
-      <c r="L51" s="340"/>
-      <c r="M51" s="341">
+        <v>21332</v>
+      </c>
+      <c r="L51" s="341"/>
+      <c r="M51" s="342">
         <f>N45+M45</f>
-        <v>1357002.28</v>
-      </c>
-      <c r="N51" s="342"/>
+        <v>2038731.28</v>
+      </c>
+      <c r="N51" s="343"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="334" t="s">
+      <c r="D52" s="335" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="334"/>
+      <c r="E52" s="335"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
-        <v>1314940</v>
+        <v>1996632</v>
       </c>
       <c r="I52" s="137"/>
       <c r="J52" s="138"/>
@@ -12168,22 +12211,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="352" t="s">
+      <c r="D53" s="353" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="352"/>
+      <c r="E53" s="353"/>
       <c r="F53" s="131">
         <v>-3128572.23</v>
       </c>
-      <c r="I53" s="353" t="s">
+      <c r="I53" s="354" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="354"/>
-      <c r="K53" s="367">
+      <c r="J53" s="355"/>
+      <c r="K53" s="368">
         <f>F55+F56+F57</f>
-        <v>-1454524.12</v>
-      </c>
-      <c r="L53" s="368"/>
+        <v>-772832.12</v>
+      </c>
+      <c r="L53" s="369"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -12207,18 +12250,18 @@
       </c>
       <c r="F55" s="131">
         <f>SUM(F52:F54)</f>
-        <v>-1813632.23</v>
+        <v>-1131940.23</v>
       </c>
       <c r="H55" s="23"/>
       <c r="I55" s="146" t="s">
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="369">
+      <c r="K55" s="370">
         <f>-C4</f>
         <v>-345633.69</v>
       </c>
-      <c r="L55" s="370"/>
+      <c r="L55" s="371"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -12235,22 +12278,22 @@
       <c r="C57" s="150">
         <v>45109</v>
       </c>
-      <c r="D57" s="359" t="s">
+      <c r="D57" s="360" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="360"/>
+      <c r="E57" s="361"/>
       <c r="F57" s="316">
         <v>359108.11</v>
       </c>
-      <c r="I57" s="376" t="s">
+      <c r="I57" s="377" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="377"/>
-      <c r="K57" s="378">
+      <c r="J57" s="378"/>
+      <c r="K57" s="379">
         <f>K53+K55</f>
-        <v>-1800157.81</v>
-      </c>
-      <c r="L57" s="378"/>
+        <v>-1118465.81</v>
+      </c>
+      <c r="L57" s="379"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -15155,23 +15198,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="343"/>
-      <c r="C1" s="345" t="s">
+      <c r="B1" s="344"/>
+      <c r="C1" s="346" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="346"/>
-      <c r="E1" s="346"/>
-      <c r="F1" s="346"/>
-      <c r="G1" s="346"/>
-      <c r="H1" s="346"/>
-      <c r="I1" s="346"/>
-      <c r="J1" s="346"/>
-      <c r="K1" s="346"/>
-      <c r="L1" s="346"/>
-      <c r="M1" s="346"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="347"/>
+      <c r="F1" s="347"/>
+      <c r="G1" s="347"/>
+      <c r="H1" s="347"/>
+      <c r="I1" s="347"/>
+      <c r="J1" s="347"/>
+      <c r="K1" s="347"/>
+      <c r="L1" s="347"/>
+      <c r="M1" s="347"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="344"/>
+      <c r="B2" s="345"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -15181,21 +15224,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="347" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="348"/>
+      <c r="B3" s="348" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="349"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="349" t="s">
+      <c r="H3" s="350" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="349"/>
+      <c r="I3" s="350"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="326" t="s">
+      <c r="R3" s="327" t="s">
         <v>2</v>
       </c>
     </row>
@@ -15210,14 +15253,14 @@
       <c r="D4" s="17">
         <v>44955</v>
       </c>
-      <c r="E4" s="328" t="s">
+      <c r="E4" s="329" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="329"/>
-      <c r="H4" s="330" t="s">
+      <c r="F4" s="330"/>
+      <c r="H4" s="331" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="331"/>
+      <c r="I4" s="332"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -15227,11 +15270,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="365" t="s">
+      <c r="P4" s="366" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="366"/>
-      <c r="R4" s="364"/>
+      <c r="Q4" s="367"/>
+      <c r="R4" s="365"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -17032,11 +17075,11 @@
       <c r="J45" s="74"/>
       <c r="K45" s="97"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="350">
+      <c r="M45" s="351">
         <f>SUM(M5:M39)</f>
         <v>2238523</v>
       </c>
-      <c r="N45" s="335">
+      <c r="N45" s="336">
         <f>SUM(N5:N39)</f>
         <v>97258</v>
       </c>
@@ -17066,8 +17109,8 @@
       <c r="J46" s="74"/>
       <c r="K46" s="102"/>
       <c r="L46" s="76"/>
-      <c r="M46" s="351"/>
-      <c r="N46" s="336"/>
+      <c r="M46" s="352"/>
+      <c r="N46" s="337"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -17159,29 +17202,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="337" t="s">
+      <c r="H51" s="338" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="338"/>
+      <c r="I51" s="339"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="339">
+      <c r="K51" s="340">
         <f>I49+L49</f>
         <v>90767.040000000008</v>
       </c>
-      <c r="L51" s="340"/>
-      <c r="M51" s="341">
+      <c r="L51" s="341"/>
+      <c r="M51" s="342">
         <f>N45+M45</f>
         <v>2335781</v>
       </c>
-      <c r="N51" s="342"/>
+      <c r="N51" s="343"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="334" t="s">
+      <c r="D52" s="335" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="334"/>
+      <c r="E52" s="335"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2261973.96</v>
@@ -17192,22 +17235,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="352" t="s">
+      <c r="D53" s="353" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="352"/>
+      <c r="E53" s="353"/>
       <c r="F53" s="131">
         <v>-2224189.7400000002</v>
       </c>
-      <c r="I53" s="353" t="s">
+      <c r="I53" s="354" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="354"/>
-      <c r="K53" s="355">
+      <c r="J53" s="355"/>
+      <c r="K53" s="356">
         <f>F55+F56+F57</f>
         <v>296963.76999999973</v>
       </c>
-      <c r="L53" s="356"/>
+      <c r="L53" s="357"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -17238,11 +17281,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="357">
+      <c r="K55" s="358">
         <f>-C4</f>
         <v>-223528.9</v>
       </c>
-      <c r="L55" s="358"/>
+      <c r="L55" s="359"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -17259,22 +17302,22 @@
       <c r="C57" s="150">
         <v>44985</v>
       </c>
-      <c r="D57" s="359" t="s">
+      <c r="D57" s="360" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="360"/>
+      <c r="E57" s="361"/>
       <c r="F57" s="151">
         <v>230554.55</v>
       </c>
-      <c r="I57" s="361" t="s">
+      <c r="I57" s="362" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="362"/>
-      <c r="K57" s="363">
+      <c r="J57" s="363"/>
+      <c r="K57" s="364">
         <f>K53+K55</f>
         <v>73434.869999999733</v>
       </c>
-      <c r="L57" s="363"/>
+      <c r="L57" s="364"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -18878,23 +18921,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="343"/>
-      <c r="C1" s="345" t="s">
+      <c r="B1" s="344"/>
+      <c r="C1" s="346" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="346"/>
-      <c r="E1" s="346"/>
-      <c r="F1" s="346"/>
-      <c r="G1" s="346"/>
-      <c r="H1" s="346"/>
-      <c r="I1" s="346"/>
-      <c r="J1" s="346"/>
-      <c r="K1" s="346"/>
-      <c r="L1" s="346"/>
-      <c r="M1" s="346"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="347"/>
+      <c r="F1" s="347"/>
+      <c r="G1" s="347"/>
+      <c r="H1" s="347"/>
+      <c r="I1" s="347"/>
+      <c r="J1" s="347"/>
+      <c r="K1" s="347"/>
+      <c r="L1" s="347"/>
+      <c r="M1" s="347"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="344"/>
+      <c r="B2" s="345"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -18904,21 +18947,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="347" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="348"/>
+      <c r="B3" s="348" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="349"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="349" t="s">
+      <c r="H3" s="350" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="349"/>
+      <c r="I3" s="350"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="326" t="s">
+      <c r="R3" s="327" t="s">
         <v>2</v>
       </c>
     </row>
@@ -18933,14 +18976,14 @@
       <c r="D4" s="17">
         <v>44985</v>
       </c>
-      <c r="E4" s="328" t="s">
+      <c r="E4" s="329" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="329"/>
-      <c r="H4" s="330" t="s">
+      <c r="F4" s="330"/>
+      <c r="H4" s="331" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="331"/>
+      <c r="I4" s="332"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -18950,11 +18993,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="365" t="s">
+      <c r="P4" s="366" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="366"/>
-      <c r="R4" s="364"/>
+      <c r="Q4" s="367"/>
+      <c r="R4" s="365"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -20747,11 +20790,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="231"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="350">
+      <c r="M45" s="351">
         <f>SUM(M5:M39)</f>
         <v>2689952</v>
       </c>
-      <c r="N45" s="335">
+      <c r="N45" s="336">
         <f>SUM(N5:N39)</f>
         <v>61422</v>
       </c>
@@ -20781,8 +20824,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="351"/>
-      <c r="N46" s="336"/>
+      <c r="M46" s="352"/>
+      <c r="N46" s="337"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -20874,29 +20917,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="337" t="s">
+      <c r="H51" s="338" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="338"/>
+      <c r="I51" s="339"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="339">
+      <c r="K51" s="340">
         <f>I49+L49</f>
         <v>425400.67</v>
       </c>
-      <c r="L51" s="340"/>
-      <c r="M51" s="341">
+      <c r="L51" s="341"/>
+      <c r="M51" s="342">
         <f>N45+M45</f>
         <v>2751374</v>
       </c>
-      <c r="N51" s="342"/>
+      <c r="N51" s="343"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="334" t="s">
+      <c r="D52" s="335" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="334"/>
+      <c r="E52" s="335"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2464124.33</v>
@@ -20907,22 +20950,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="352" t="s">
+      <c r="D53" s="353" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="352"/>
+      <c r="E53" s="353"/>
       <c r="F53" s="131">
         <v>-2869426.04</v>
       </c>
-      <c r="I53" s="353" t="s">
+      <c r="I53" s="354" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="354"/>
-      <c r="K53" s="367">
+      <c r="J53" s="355"/>
+      <c r="K53" s="368">
         <f>F55+F56+F57</f>
         <v>-32021.369999999937</v>
       </c>
-      <c r="L53" s="368"/>
+      <c r="L53" s="369"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -20953,11 +20996,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="369">
+      <c r="K55" s="370">
         <f>-C4</f>
         <v>-230554.55</v>
       </c>
-      <c r="L55" s="370"/>
+      <c r="L55" s="371"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -20974,22 +21017,22 @@
       <c r="C57" s="150">
         <v>45015</v>
       </c>
-      <c r="D57" s="359" t="s">
+      <c r="D57" s="360" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="360"/>
+      <c r="E57" s="361"/>
       <c r="F57" s="151">
         <v>341192.34</v>
       </c>
-      <c r="I57" s="371" t="s">
+      <c r="I57" s="372" t="s">
         <v>170</v>
       </c>
-      <c r="J57" s="372"/>
-      <c r="K57" s="373">
+      <c r="J57" s="373"/>
+      <c r="K57" s="374">
         <f>K53+K55</f>
         <v>-262575.91999999993</v>
       </c>
-      <c r="L57" s="373"/>
+      <c r="L57" s="374"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -22536,23 +22579,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="343"/>
-      <c r="C1" s="345" t="s">
+      <c r="B1" s="344"/>
+      <c r="C1" s="346" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="346"/>
-      <c r="E1" s="346"/>
-      <c r="F1" s="346"/>
-      <c r="G1" s="346"/>
-      <c r="H1" s="346"/>
-      <c r="I1" s="346"/>
-      <c r="J1" s="346"/>
-      <c r="K1" s="346"/>
-      <c r="L1" s="346"/>
-      <c r="M1" s="346"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="347"/>
+      <c r="F1" s="347"/>
+      <c r="G1" s="347"/>
+      <c r="H1" s="347"/>
+      <c r="I1" s="347"/>
+      <c r="J1" s="347"/>
+      <c r="K1" s="347"/>
+      <c r="L1" s="347"/>
+      <c r="M1" s="347"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="344"/>
+      <c r="B2" s="345"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -22565,21 +22608,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="347" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="348"/>
+      <c r="B3" s="348" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="349"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="349" t="s">
+      <c r="H3" s="350" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="349"/>
+      <c r="I3" s="350"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="374" t="s">
+      <c r="R3" s="375" t="s">
         <v>2</v>
       </c>
     </row>
@@ -22594,14 +22637,14 @@
       <c r="D4" s="17">
         <v>45015</v>
       </c>
-      <c r="E4" s="328" t="s">
+      <c r="E4" s="329" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="329"/>
-      <c r="H4" s="330" t="s">
+      <c r="F4" s="330"/>
+      <c r="H4" s="331" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="331"/>
+      <c r="I4" s="332"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -22611,11 +22654,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="365" t="s">
+      <c r="P4" s="366" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="366"/>
-      <c r="R4" s="375"/>
+      <c r="Q4" s="367"/>
+      <c r="R4" s="376"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -24502,11 +24545,11 @@
       <c r="L45" s="312">
         <v>2123.98</v>
       </c>
-      <c r="M45" s="350">
+      <c r="M45" s="351">
         <f>SUM(M5:M39)</f>
         <v>2488709</v>
       </c>
-      <c r="N45" s="335">
+      <c r="N45" s="336">
         <f>SUM(N5:N39)</f>
         <v>78710</v>
       </c>
@@ -24542,8 +24585,8 @@
       <c r="L46" s="281">
         <v>34015</v>
       </c>
-      <c r="M46" s="351"/>
-      <c r="N46" s="336"/>
+      <c r="M46" s="352"/>
+      <c r="N46" s="337"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -24635,29 +24678,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="337" t="s">
+      <c r="H51" s="338" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="338"/>
+      <c r="I51" s="339"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="339">
+      <c r="K51" s="340">
         <f>I49+L49</f>
         <v>124244.06999999999</v>
       </c>
-      <c r="L51" s="340"/>
-      <c r="M51" s="341">
+      <c r="L51" s="341"/>
+      <c r="M51" s="342">
         <f>N45+M45</f>
         <v>2567419</v>
       </c>
-      <c r="N51" s="342"/>
+      <c r="N51" s="343"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="334" t="s">
+      <c r="D52" s="335" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="334"/>
+      <c r="E52" s="335"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2480239.9300000002</v>
@@ -24668,22 +24711,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="352" t="s">
+      <c r="D53" s="353" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="352"/>
+      <c r="E53" s="353"/>
       <c r="F53" s="131">
         <v>-2463938.5299999998</v>
       </c>
-      <c r="I53" s="353" t="s">
+      <c r="I53" s="354" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="354"/>
-      <c r="K53" s="367">
+      <c r="J53" s="355"/>
+      <c r="K53" s="368">
         <f>F55+F56+F57</f>
         <v>439109.10000000038</v>
       </c>
-      <c r="L53" s="368"/>
+      <c r="L53" s="369"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -24714,11 +24757,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="369">
+      <c r="K55" s="370">
         <f>-C4</f>
         <v>-341192.34</v>
       </c>
-      <c r="L55" s="370"/>
+      <c r="L55" s="371"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -24735,22 +24778,22 @@
       <c r="C57" s="150">
         <v>45050</v>
       </c>
-      <c r="D57" s="359" t="s">
+      <c r="D57" s="360" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="360"/>
+      <c r="E57" s="361"/>
       <c r="F57" s="151">
         <v>394548.7</v>
       </c>
-      <c r="I57" s="376" t="s">
+      <c r="I57" s="377" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="377"/>
-      <c r="K57" s="378">
+      <c r="J57" s="378"/>
+      <c r="K57" s="379">
         <f>K53+K55</f>
         <v>97916.760000000359</v>
       </c>
-      <c r="L57" s="378"/>
+      <c r="L57" s="379"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -26287,23 +26330,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="343"/>
-      <c r="C1" s="345" t="s">
+      <c r="B1" s="344"/>
+      <c r="C1" s="346" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="346"/>
-      <c r="E1" s="346"/>
-      <c r="F1" s="346"/>
-      <c r="G1" s="346"/>
-      <c r="H1" s="346"/>
-      <c r="I1" s="346"/>
-      <c r="J1" s="346"/>
-      <c r="K1" s="346"/>
-      <c r="L1" s="346"/>
-      <c r="M1" s="346"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="347"/>
+      <c r="F1" s="347"/>
+      <c r="G1" s="347"/>
+      <c r="H1" s="347"/>
+      <c r="I1" s="347"/>
+      <c r="J1" s="347"/>
+      <c r="K1" s="347"/>
+      <c r="L1" s="347"/>
+      <c r="M1" s="347"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="344"/>
+      <c r="B2" s="345"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -26316,21 +26359,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="347" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="348"/>
+      <c r="B3" s="348" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="349"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="349" t="s">
+      <c r="H3" s="350" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="349"/>
+      <c r="I3" s="350"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="379" t="s">
+      <c r="R3" s="380" t="s">
         <v>2</v>
       </c>
     </row>
@@ -26345,14 +26388,14 @@
       <c r="D4" s="307">
         <v>45050</v>
       </c>
-      <c r="E4" s="328" t="s">
+      <c r="E4" s="329" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="329"/>
-      <c r="H4" s="330" t="s">
+      <c r="F4" s="330"/>
+      <c r="H4" s="331" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="331"/>
+      <c r="I4" s="332"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -26362,11 +26405,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="365" t="s">
+      <c r="P4" s="366" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="366"/>
-      <c r="R4" s="380"/>
+      <c r="Q4" s="367"/>
+      <c r="R4" s="381"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -28239,11 +28282,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="350">
+      <c r="M45" s="351">
         <f>SUM(M5:M39)</f>
         <v>3007589</v>
       </c>
-      <c r="N45" s="335">
+      <c r="N45" s="336">
         <f>SUM(N5:N39)</f>
         <v>29752</v>
       </c>
@@ -28273,8 +28316,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="351"/>
-      <c r="N46" s="336"/>
+      <c r="M46" s="352"/>
+      <c r="N46" s="337"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -28366,29 +28409,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="337" t="s">
+      <c r="H51" s="338" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="338"/>
+      <c r="I51" s="339"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="339">
+      <c r="K51" s="340">
         <f>I49+L49</f>
         <v>84500.43</v>
       </c>
-      <c r="L51" s="340"/>
-      <c r="M51" s="341">
+      <c r="L51" s="341"/>
+      <c r="M51" s="342">
         <f>N45+M45</f>
         <v>3037341</v>
       </c>
-      <c r="N51" s="342"/>
+      <c r="N51" s="343"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="334" t="s">
+      <c r="D52" s="335" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="334"/>
+      <c r="E52" s="335"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2988109.57</v>
@@ -28399,22 +28442,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="352" t="s">
+      <c r="D53" s="353" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="352"/>
+      <c r="E53" s="353"/>
       <c r="F53" s="131">
         <v>-2955802.29</v>
       </c>
-      <c r="I53" s="353" t="s">
+      <c r="I53" s="354" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="354"/>
-      <c r="K53" s="367">
+      <c r="J53" s="355"/>
+      <c r="K53" s="368">
         <f>F55+F56+F57</f>
         <v>419364.9699999998</v>
       </c>
-      <c r="L53" s="368"/>
+      <c r="L53" s="369"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -28445,11 +28488,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="369">
+      <c r="K55" s="370">
         <f>-C4</f>
         <v>-394548.7</v>
       </c>
-      <c r="L55" s="370"/>
+      <c r="L55" s="371"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -28466,22 +28509,22 @@
       <c r="C57" s="150">
         <v>45081</v>
       </c>
-      <c r="D57" s="359" t="s">
+      <c r="D57" s="360" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="360"/>
+      <c r="E57" s="361"/>
       <c r="F57" s="316">
         <v>345633.69</v>
       </c>
-      <c r="I57" s="376" t="s">
+      <c r="I57" s="377" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="377"/>
-      <c r="K57" s="378">
+      <c r="J57" s="378"/>
+      <c r="K57" s="379">
         <f>K53+K55</f>
         <v>24816.269999999786</v>
       </c>
-      <c r="L57" s="378"/>
+      <c r="L57" s="379"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  HERRADURA  JUNIO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  HERRADURA  JUNIO    2023.xlsx
@@ -385,7 +385,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="370">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1502,6 +1502,12 @@
   </si>
   <si>
     <t>NOMINA # 24 y Vacaciones Esther Morlaes Alarcon</t>
+  </si>
+  <si>
+    <t>LONGANIZA--QUESO GOUDA</t>
+  </si>
+  <si>
+    <t>NOMINA # 25</t>
   </si>
 </sst>
 </file>
@@ -10282,8 +10288,8 @@
   </sheetPr>
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11246,35 +11252,40 @@
         <v>45100</v>
       </c>
       <c r="C23" s="25">
-        <v>0</v>
+        <v>9833</v>
       </c>
       <c r="D23" s="46"/>
       <c r="E23" s="27">
         <v>45100</v>
       </c>
-      <c r="F23" s="28"/>
+      <c r="F23" s="28">
+        <v>184445</v>
+      </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30">
         <v>45100</v>
       </c>
-      <c r="I23" s="31"/>
+      <c r="I23" s="31">
+        <v>204</v>
+      </c>
       <c r="J23" s="270"/>
       <c r="K23" s="271"/>
       <c r="L23" s="263"/>
       <c r="M23" s="33">
-        <v>0</v>
+        <f>15500+158659</f>
+        <v>174159</v>
       </c>
       <c r="N23" s="34">
-        <v>0</v>
+        <v>256.47000000000003</v>
       </c>
       <c r="O23" s="35"/>
       <c r="P23" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>184452.47</v>
       </c>
       <c r="Q23" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.4700000000011642</v>
       </c>
       <c r="R23" s="238">
         <v>0</v>
@@ -11287,35 +11298,48 @@
         <v>45101</v>
       </c>
       <c r="C24" s="25">
-        <v>0</v>
-      </c>
-      <c r="D24" s="42"/>
+        <v>5616</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>368</v>
+      </c>
       <c r="E24" s="27">
         <v>45101</v>
       </c>
-      <c r="F24" s="28"/>
+      <c r="F24" s="28">
+        <v>114135</v>
+      </c>
       <c r="G24" s="29"/>
       <c r="H24" s="30">
         <v>45101</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="272"/>
-      <c r="K24" s="271"/>
-      <c r="L24" s="273"/>
+      <c r="I24" s="31">
+        <v>38</v>
+      </c>
+      <c r="J24" s="272">
+        <v>45101</v>
+      </c>
+      <c r="K24" s="271" t="s">
+        <v>369</v>
+      </c>
+      <c r="L24" s="273">
+        <v>8017</v>
+      </c>
       <c r="M24" s="33">
-        <v>0</v>
+        <f>26000+73808</f>
+        <v>99808</v>
       </c>
       <c r="N24" s="34">
-        <v>0</v>
+        <v>675.88</v>
       </c>
       <c r="O24" s="35"/>
       <c r="P24" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>114154.88</v>
       </c>
       <c r="Q24" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.880000000004657</v>
       </c>
       <c r="R24" s="238">
         <v>0</v>
@@ -11334,29 +11358,34 @@
       <c r="E25" s="27">
         <v>45102</v>
       </c>
-      <c r="F25" s="28"/>
+      <c r="F25" s="28">
+        <v>122912</v>
+      </c>
       <c r="G25" s="29"/>
       <c r="H25" s="30">
         <v>45102</v>
       </c>
-      <c r="I25" s="31"/>
+      <c r="I25" s="31">
+        <v>5</v>
+      </c>
       <c r="J25" s="274"/>
       <c r="K25" s="275"/>
       <c r="L25" s="276"/>
       <c r="M25" s="33">
-        <v>0</v>
+        <f>101000+19010+500</f>
+        <v>120510</v>
       </c>
       <c r="N25" s="34">
-        <v>0</v>
+        <v>2468.91</v>
       </c>
       <c r="O25" s="35"/>
       <c r="P25" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>122983.91</v>
       </c>
       <c r="Q25" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>71.910000000003492</v>
       </c>
       <c r="R25" s="238">
         <v>0</v>
@@ -11375,29 +11404,34 @@
       <c r="E26" s="27">
         <v>45103</v>
       </c>
-      <c r="F26" s="28"/>
+      <c r="F26" s="28">
+        <v>156919</v>
+      </c>
       <c r="G26" s="29"/>
       <c r="H26" s="30">
         <v>45103</v>
       </c>
-      <c r="I26" s="31"/>
+      <c r="I26" s="31">
+        <v>199</v>
+      </c>
       <c r="J26" s="258"/>
       <c r="K26" s="271"/>
       <c r="L26" s="263"/>
       <c r="M26" s="33">
-        <v>0</v>
+        <f>23000+133406</f>
+        <v>156406</v>
       </c>
       <c r="N26" s="34">
-        <v>0</v>
+        <v>323.42</v>
       </c>
       <c r="O26" s="35"/>
       <c r="P26" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>156928.42000000001</v>
       </c>
       <c r="Q26" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.4200000000128057</v>
       </c>
       <c r="R26" s="238">
         <v>0</v>
@@ -11410,23 +11444,28 @@
         <v>45104</v>
       </c>
       <c r="C27" s="25">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D27" s="42"/>
       <c r="E27" s="27">
         <v>45104</v>
       </c>
-      <c r="F27" s="28"/>
+      <c r="F27" s="28">
+        <v>86884</v>
+      </c>
       <c r="G27" s="29"/>
       <c r="H27" s="30">
         <v>45104</v>
       </c>
-      <c r="I27" s="31"/>
+      <c r="I27" s="31">
+        <v>144</v>
+      </c>
       <c r="J27" s="277"/>
       <c r="K27" s="275"/>
       <c r="L27" s="276"/>
       <c r="M27" s="33">
-        <v>0</v>
+        <f>54724+32000</f>
+        <v>86724</v>
       </c>
       <c r="N27" s="34">
         <v>0</v>
@@ -11434,7 +11473,7 @@
       <c r="O27" s="35"/>
       <c r="P27" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86884</v>
       </c>
       <c r="Q27" s="236">
         <f t="shared" si="1"/>
@@ -11457,29 +11496,34 @@
       <c r="E28" s="27">
         <v>45105</v>
       </c>
-      <c r="F28" s="28"/>
+      <c r="F28" s="28">
+        <v>115082</v>
+      </c>
       <c r="G28" s="29"/>
       <c r="H28" s="30">
         <v>45105</v>
       </c>
-      <c r="I28" s="31"/>
+      <c r="I28" s="31">
+        <v>152</v>
+      </c>
       <c r="J28" s="278"/>
       <c r="K28" s="71"/>
       <c r="L28" s="276"/>
       <c r="M28" s="33">
-        <v>0</v>
+        <f>67303+47000</f>
+        <v>114303</v>
       </c>
       <c r="N28" s="34">
-        <v>0</v>
+        <v>645.80999999999995</v>
       </c>
       <c r="O28" s="35"/>
       <c r="P28" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>115100.81</v>
       </c>
       <c r="Q28" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18.809999999997672</v>
       </c>
       <c r="R28" s="238">
         <v>0</v>
@@ -11498,29 +11542,34 @@
       <c r="E29" s="27">
         <v>45106</v>
       </c>
-      <c r="F29" s="28"/>
+      <c r="F29" s="28">
+        <v>98065</v>
+      </c>
       <c r="G29" s="29"/>
       <c r="H29" s="30">
         <v>45106</v>
       </c>
-      <c r="I29" s="31"/>
+      <c r="I29" s="31">
+        <v>130</v>
+      </c>
       <c r="J29" s="277"/>
       <c r="K29" s="279"/>
       <c r="L29" s="276"/>
       <c r="M29" s="33">
-        <v>0</v>
+        <f>68310+29000</f>
+        <v>97310</v>
       </c>
       <c r="N29" s="34">
-        <v>0</v>
+        <v>643.75</v>
       </c>
       <c r="O29" s="35"/>
       <c r="P29" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98083.75</v>
       </c>
       <c r="Q29" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="R29" s="238">
         <v>0</v>
@@ -11534,35 +11583,42 @@
         <v>45107</v>
       </c>
       <c r="C30" s="25">
-        <v>0</v>
-      </c>
-      <c r="D30" s="72"/>
+        <v>9696</v>
+      </c>
+      <c r="D30" s="72" t="s">
+        <v>69</v>
+      </c>
       <c r="E30" s="27">
         <v>45107</v>
       </c>
-      <c r="F30" s="28"/>
+      <c r="F30" s="28">
+        <v>120962</v>
+      </c>
       <c r="G30" s="29"/>
       <c r="H30" s="30">
         <v>45107</v>
       </c>
-      <c r="I30" s="31"/>
+      <c r="I30" s="31">
+        <v>103</v>
+      </c>
       <c r="J30" s="86"/>
       <c r="K30" s="280"/>
       <c r="L30" s="281"/>
       <c r="M30" s="33">
-        <v>0</v>
+        <f>98289+12000</f>
+        <v>110289</v>
       </c>
       <c r="N30" s="34">
-        <v>0</v>
+        <v>900.22</v>
       </c>
       <c r="O30" s="35"/>
       <c r="P30" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>120988.22</v>
       </c>
       <c r="Q30" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26.220000000001164</v>
       </c>
       <c r="R30" s="238">
         <v>0</v>
@@ -12053,19 +12109,19 @@
       <c r="L45" s="281"/>
       <c r="M45" s="351">
         <f>SUM(M5:M39)</f>
-        <v>2015658</v>
+        <v>2975167</v>
       </c>
       <c r="N45" s="336">
         <f>SUM(N5:N39)</f>
-        <v>23073.279999999999</v>
+        <v>28987.74</v>
       </c>
       <c r="P45" s="98">
         <f t="shared" si="0"/>
-        <v>2038731.28</v>
+        <v>3004154.74</v>
       </c>
       <c r="Q45" s="236">
         <f t="shared" si="1"/>
-        <v>2038731.28</v>
+        <v>3004154.74</v>
       </c>
       <c r="R45" s="99">
         <f>SUM(R5:R39)</f>
@@ -12136,7 +12192,7 @@
       </c>
       <c r="C49" s="122">
         <f>SUM(C5:C48)</f>
-        <v>42419</v>
+        <v>67580</v>
       </c>
       <c r="D49" s="123"/>
       <c r="E49" s="124" t="s">
@@ -12144,7 +12200,7 @@
       </c>
       <c r="F49" s="125">
         <f>SUM(F5:F48)</f>
-        <v>2060383</v>
+        <v>3059787</v>
       </c>
       <c r="G49" s="123"/>
       <c r="H49" s="126" t="s">
@@ -12152,7 +12208,7 @@
       </c>
       <c r="I49" s="127">
         <f>SUM(I5:I48)</f>
-        <v>2682</v>
+        <v>3657</v>
       </c>
       <c r="J49" s="290"/>
       <c r="K49" s="291" t="s">
@@ -12160,7 +12216,7 @@
       </c>
       <c r="L49" s="292">
         <f>SUM(L5:L48)</f>
-        <v>18650</v>
+        <v>26667</v>
       </c>
       <c r="M49" s="131"/>
       <c r="N49" s="131"/>
@@ -12185,12 +12241,12 @@
       <c r="J51" s="135"/>
       <c r="K51" s="340">
         <f>I49+L49</f>
-        <v>21332</v>
+        <v>30324</v>
       </c>
       <c r="L51" s="341"/>
       <c r="M51" s="342">
         <f>N45+M45</f>
-        <v>2038731.28</v>
+        <v>3004154.74</v>
       </c>
       <c r="N51" s="343"/>
       <c r="P51" s="36"/>
@@ -12203,7 +12259,7 @@
       <c r="E52" s="335"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
-        <v>1996632</v>
+        <v>2961883</v>
       </c>
       <c r="I52" s="137"/>
       <c r="J52" s="138"/>
@@ -12224,7 +12280,7 @@
       <c r="J53" s="355"/>
       <c r="K53" s="368">
         <f>F55+F56+F57</f>
-        <v>-772832.12</v>
+        <v>192418.88</v>
       </c>
       <c r="L53" s="369"/>
       <c r="P53" s="36"/>
@@ -12250,7 +12306,7 @@
       </c>
       <c r="F55" s="131">
         <f>SUM(F52:F54)</f>
-        <v>-1131940.23</v>
+        <v>-166689.22999999998</v>
       </c>
       <c r="H55" s="23"/>
       <c r="I55" s="146" t="s">
@@ -12291,7 +12347,7 @@
       <c r="J57" s="378"/>
       <c r="K57" s="379">
         <f>K53+K55</f>
-        <v>-1118465.81</v>
+        <v>-153214.81</v>
       </c>
       <c r="L57" s="379"/>
     </row>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  HERRADURA  JUNIO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  HERRADURA  JUNIO    2023.xlsx
@@ -385,7 +385,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="378">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1508,6 +1508,30 @@
   </si>
   <si>
     <t>NOMINA # 25</t>
+  </si>
+  <si>
+    <t>NOMINA # 26</t>
+  </si>
+  <si>
+    <t>bancanet</t>
+  </si>
+  <si>
+    <t>comision ????</t>
+  </si>
+  <si>
+    <t>guardia junio</t>
+  </si>
+  <si>
+    <t>telmex</t>
+  </si>
+  <si>
+    <t>fumigacion</t>
+  </si>
+  <si>
+    <t>ADT SEGURITY</t>
+  </si>
+  <si>
+    <t>Comisiones banco</t>
   </si>
 </sst>
 </file>
@@ -2043,7 +2067,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="71">
+  <borders count="72">
     <border>
       <left/>
       <right/>
@@ -2923,12 +2947,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="382">
+  <cellXfs count="387">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3566,6 +3603,69 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3617,69 +3717,6 @@
     <xf numFmtId="167" fontId="14" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3710,12 +3747,6 @@
     <xf numFmtId="166" fontId="3" fillId="7" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="51" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="51" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="14" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3725,11 +3756,26 @@
     <xf numFmtId="166" fontId="16" fillId="9" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="51" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="51" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="51" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="51" fillId="12" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="8" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="13" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6611,23 +6657,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="344"/>
-      <c r="C1" s="346" t="s">
+      <c r="B1" s="339"/>
+      <c r="C1" s="341" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="347"/>
-      <c r="E1" s="347"/>
-      <c r="F1" s="347"/>
-      <c r="G1" s="347"/>
-      <c r="H1" s="347"/>
-      <c r="I1" s="347"/>
-      <c r="J1" s="347"/>
-      <c r="K1" s="347"/>
-      <c r="L1" s="347"/>
-      <c r="M1" s="347"/>
+      <c r="D1" s="342"/>
+      <c r="E1" s="342"/>
+      <c r="F1" s="342"/>
+      <c r="G1" s="342"/>
+      <c r="H1" s="342"/>
+      <c r="I1" s="342"/>
+      <c r="J1" s="342"/>
+      <c r="K1" s="342"/>
+      <c r="L1" s="342"/>
+      <c r="M1" s="342"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="345"/>
+      <c r="B2" s="340"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -6637,21 +6683,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="348" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="349"/>
+      <c r="B3" s="343" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="344"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="350" t="s">
+      <c r="H3" s="345" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="350"/>
+      <c r="I3" s="345"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="327" t="s">
+      <c r="R3" s="348" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6666,14 +6712,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="329" t="s">
+      <c r="E4" s="350" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="330"/>
-      <c r="H4" s="331" t="s">
+      <c r="F4" s="351"/>
+      <c r="H4" s="352" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="332"/>
+      <c r="I4" s="353"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -6683,11 +6729,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="333" t="s">
+      <c r="P4" s="354" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="334"/>
-      <c r="R4" s="328"/>
+      <c r="Q4" s="355"/>
+      <c r="R4" s="349"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -8492,11 +8538,11 @@
       <c r="L49" s="76">
         <v>549</v>
       </c>
-      <c r="M49" s="351">
+      <c r="M49" s="346">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="336">
+      <c r="N49" s="357">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
@@ -8531,8 +8577,8 @@
       <c r="L50" s="76">
         <v>2591.1799999999998</v>
       </c>
-      <c r="M50" s="352"/>
-      <c r="N50" s="337"/>
+      <c r="M50" s="347"/>
+      <c r="N50" s="358"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -8624,29 +8670,29 @@
       <c r="A55" s="133"/>
       <c r="B55" s="134"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="338" t="s">
+      <c r="H55" s="359" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="339"/>
+      <c r="I55" s="360"/>
       <c r="J55" s="135"/>
-      <c r="K55" s="340">
+      <c r="K55" s="361">
         <f>I53+L53</f>
         <v>63475.360000000001</v>
       </c>
-      <c r="L55" s="341"/>
-      <c r="M55" s="342">
+      <c r="L55" s="362"/>
+      <c r="M55" s="363">
         <f>N49+M49</f>
         <v>1715746.5</v>
       </c>
-      <c r="N55" s="343"/>
+      <c r="N55" s="364"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="335" t="s">
+      <c r="D56" s="356" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="335"/>
+      <c r="E56" s="356"/>
       <c r="F56" s="136">
         <f>F53-K55-C53</f>
         <v>1656897.64</v>
@@ -8657,22 +8703,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="353" t="s">
+      <c r="D57" s="327" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="353"/>
+      <c r="E57" s="327"/>
       <c r="F57" s="131">
         <v>-1524395.48</v>
       </c>
-      <c r="I57" s="354" t="s">
+      <c r="I57" s="328" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="355"/>
-      <c r="K57" s="356">
+      <c r="J57" s="329"/>
+      <c r="K57" s="330">
         <f>F59+F60+F61</f>
         <v>393764.05999999994</v>
       </c>
-      <c r="L57" s="357"/>
+      <c r="L57" s="331"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
@@ -8703,11 +8749,11 @@
         <v>18</v>
       </c>
       <c r="J59" s="147"/>
-      <c r="K59" s="358">
+      <c r="K59" s="332">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L59" s="359"/>
+      <c r="L59" s="333"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="148" t="s">
@@ -8724,22 +8770,22 @@
       <c r="C61" s="150">
         <v>44955</v>
       </c>
-      <c r="D61" s="360" t="s">
+      <c r="D61" s="334" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="361"/>
+      <c r="E61" s="335"/>
       <c r="F61" s="151">
         <v>223528.9</v>
       </c>
-      <c r="I61" s="362" t="s">
+      <c r="I61" s="336" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="363"/>
-      <c r="K61" s="364">
+      <c r="J61" s="337"/>
+      <c r="K61" s="338">
         <f>K57+K59</f>
         <v>19815.339999999967</v>
       </c>
-      <c r="L61" s="364"/>
+      <c r="L61" s="338"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="152"/>
@@ -8864,18 +8910,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M49:M50"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -8885,6 +8919,18 @@
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="M55:N55"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10288,8 +10334,8 @@
   </sheetPr>
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10314,23 +10360,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="344"/>
-      <c r="C1" s="346" t="s">
+      <c r="B1" s="339"/>
+      <c r="C1" s="341" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="347"/>
-      <c r="E1" s="347"/>
-      <c r="F1" s="347"/>
-      <c r="G1" s="347"/>
-      <c r="H1" s="347"/>
-      <c r="I1" s="347"/>
-      <c r="J1" s="347"/>
-      <c r="K1" s="347"/>
-      <c r="L1" s="347"/>
-      <c r="M1" s="347"/>
+      <c r="D1" s="342"/>
+      <c r="E1" s="342"/>
+      <c r="F1" s="342"/>
+      <c r="G1" s="342"/>
+      <c r="H1" s="342"/>
+      <c r="I1" s="342"/>
+      <c r="J1" s="342"/>
+      <c r="K1" s="342"/>
+      <c r="L1" s="342"/>
+      <c r="M1" s="342"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="345"/>
+      <c r="B2" s="340"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -10343,17 +10389,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="348" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="349"/>
+      <c r="B3" s="343" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="344"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="350" t="s">
+      <c r="H3" s="345" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="350"/>
+      <c r="I3" s="345"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
@@ -10372,14 +10418,14 @@
       <c r="D4" s="307">
         <v>45081</v>
       </c>
-      <c r="E4" s="329" t="s">
+      <c r="E4" s="350" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="330"/>
-      <c r="H4" s="331" t="s">
+      <c r="F4" s="351"/>
+      <c r="H4" s="352" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="332"/>
+      <c r="I4" s="353"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -11631,35 +11677,48 @@
         <v>45108</v>
       </c>
       <c r="C31" s="25">
-        <v>0</v>
-      </c>
-      <c r="D31" s="77"/>
+        <v>3000</v>
+      </c>
+      <c r="D31" s="77" t="s">
+        <v>67</v>
+      </c>
       <c r="E31" s="27">
         <v>45108</v>
       </c>
-      <c r="F31" s="28"/>
+      <c r="F31" s="28">
+        <v>141525</v>
+      </c>
       <c r="G31" s="29"/>
       <c r="H31" s="30">
         <v>45108</v>
       </c>
-      <c r="I31" s="31"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="282"/>
-      <c r="L31" s="283"/>
+      <c r="I31" s="31">
+        <v>148</v>
+      </c>
+      <c r="J31" s="278">
+        <v>45108</v>
+      </c>
+      <c r="K31" s="275" t="s">
+        <v>370</v>
+      </c>
+      <c r="L31" s="276">
+        <v>8233</v>
+      </c>
       <c r="M31" s="33">
-        <v>0</v>
+        <f>24500+103972</f>
+        <v>128472</v>
       </c>
       <c r="N31" s="34">
-        <v>0</v>
+        <v>1722.16</v>
       </c>
       <c r="O31" s="35"/>
       <c r="P31" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>141575.16</v>
       </c>
       <c r="Q31" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50.160000000003492</v>
       </c>
       <c r="R31" s="238">
         <v>0</v>
@@ -11678,29 +11737,34 @@
       <c r="E32" s="27">
         <v>45109</v>
       </c>
-      <c r="F32" s="28"/>
+      <c r="F32" s="28">
+        <v>68123</v>
+      </c>
       <c r="G32" s="29"/>
       <c r="H32" s="30">
         <v>45109</v>
       </c>
-      <c r="I32" s="31"/>
+      <c r="I32" s="31">
+        <v>0</v>
+      </c>
       <c r="J32" s="86"/>
       <c r="K32" s="280"/>
       <c r="L32" s="281"/>
       <c r="M32" s="33">
-        <v>0</v>
+        <f>56000+11112</f>
+        <v>67112</v>
       </c>
       <c r="N32" s="34">
-        <v>0</v>
+        <v>1041.33</v>
       </c>
       <c r="O32" s="35"/>
       <c r="P32" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>68153.33</v>
       </c>
       <c r="Q32" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30.330000000001746</v>
       </c>
       <c r="R32" s="238">
         <v>0</v>
@@ -11783,9 +11847,15 @@
       <c r="G35" s="29"/>
       <c r="H35" s="30"/>
       <c r="I35" s="31"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="282"/>
-      <c r="L35" s="216"/>
+      <c r="J35" s="86">
+        <v>45083</v>
+      </c>
+      <c r="K35" s="282" t="s">
+        <v>371</v>
+      </c>
+      <c r="L35" s="216">
+        <v>365.4</v>
+      </c>
       <c r="M35" s="33">
         <v>0</v>
       </c>
@@ -11795,11 +11865,11 @@
       <c r="O35" s="35"/>
       <c r="P35" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>365.4</v>
       </c>
       <c r="Q35" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>365.4</v>
       </c>
       <c r="R35" s="238">
         <v>0</v>
@@ -11816,9 +11886,15 @@
       <c r="G36" s="29"/>
       <c r="H36" s="30"/>
       <c r="I36" s="31"/>
-      <c r="J36" s="86"/>
-      <c r="K36" s="285"/>
-      <c r="L36" s="216"/>
+      <c r="J36" s="86">
+        <v>45084</v>
+      </c>
+      <c r="K36" s="285" t="s">
+        <v>372</v>
+      </c>
+      <c r="L36" s="216">
+        <v>1225.1199999999999</v>
+      </c>
       <c r="M36" s="33">
         <v>0</v>
       </c>
@@ -11828,11 +11904,11 @@
       <c r="O36" s="35"/>
       <c r="P36" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1225.1199999999999</v>
       </c>
       <c r="Q36" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1225.1199999999999</v>
       </c>
       <c r="R36" s="238">
         <v>0</v>
@@ -11849,9 +11925,13 @@
       <c r="G37" s="29"/>
       <c r="H37" s="30"/>
       <c r="I37" s="31"/>
-      <c r="J37" s="86"/>
-      <c r="K37" s="318"/>
-      <c r="L37" s="216"/>
+      <c r="J37" s="86">
+        <v>45084</v>
+      </c>
+      <c r="K37" s="385"/>
+      <c r="L37" s="216">
+        <v>6902.3</v>
+      </c>
       <c r="M37" s="33">
         <v>0</v>
       </c>
@@ -11881,9 +11961,15 @@
       <c r="G38" s="29"/>
       <c r="H38" s="30"/>
       <c r="I38" s="31"/>
-      <c r="J38" s="86"/>
-      <c r="K38" s="282"/>
-      <c r="L38" s="216"/>
+      <c r="J38" s="86">
+        <v>45086</v>
+      </c>
+      <c r="K38" s="282" t="s">
+        <v>373</v>
+      </c>
+      <c r="L38" s="216">
+        <v>14500</v>
+      </c>
       <c r="M38" s="33">
         <v>0</v>
       </c>
@@ -11913,9 +11999,13 @@
       <c r="G39" s="29"/>
       <c r="H39" s="30"/>
       <c r="I39" s="31"/>
-      <c r="J39" s="86"/>
-      <c r="K39" s="319"/>
-      <c r="L39" s="281"/>
+      <c r="J39" s="86">
+        <v>45091</v>
+      </c>
+      <c r="K39" s="386"/>
+      <c r="L39" s="281">
+        <v>522</v>
+      </c>
       <c r="M39" s="33">
         <v>0</v>
       </c>
@@ -11945,9 +12035,15 @@
       <c r="G40" s="29"/>
       <c r="H40" s="30"/>
       <c r="I40" s="31"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="231"/>
-      <c r="L40" s="281"/>
+      <c r="J40" s="86">
+        <v>45093</v>
+      </c>
+      <c r="K40" s="231" t="s">
+        <v>374</v>
+      </c>
+      <c r="L40" s="281">
+        <v>664</v>
+      </c>
       <c r="M40" s="33">
         <v>0</v>
       </c>
@@ -11977,9 +12073,15 @@
       <c r="G41" s="29"/>
       <c r="H41" s="30"/>
       <c r="I41" s="31"/>
-      <c r="J41" s="86"/>
-      <c r="K41" s="305"/>
-      <c r="L41" s="281"/>
+      <c r="J41" s="86">
+        <v>45097</v>
+      </c>
+      <c r="K41" s="305" t="s">
+        <v>375</v>
+      </c>
+      <c r="L41" s="281">
+        <v>1392</v>
+      </c>
       <c r="M41" s="33">
         <v>0</v>
       </c>
@@ -12009,9 +12111,15 @@
       <c r="G42" s="29"/>
       <c r="H42" s="30"/>
       <c r="I42" s="31"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="231"/>
-      <c r="L42" s="281"/>
+      <c r="J42" s="86">
+        <v>45105</v>
+      </c>
+      <c r="K42" s="231" t="s">
+        <v>376</v>
+      </c>
+      <c r="L42" s="281">
+        <v>1031.47</v>
+      </c>
       <c r="M42" s="33">
         <v>0</v>
       </c>
@@ -12041,9 +12149,15 @@
       <c r="G43" s="29"/>
       <c r="H43" s="30"/>
       <c r="I43" s="91"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="89"/>
-      <c r="L43" s="281"/>
+      <c r="J43" s="86">
+        <v>45107</v>
+      </c>
+      <c r="K43" s="89" t="s">
+        <v>377</v>
+      </c>
+      <c r="L43" s="281">
+        <v>786.07</v>
+      </c>
       <c r="M43" s="33">
         <v>0</v>
       </c>
@@ -12085,7 +12199,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q44" s="236">
+      <c r="Q44" s="382">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -12107,23 +12221,23 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="351">
+      <c r="M45" s="346">
         <f>SUM(M5:M39)</f>
-        <v>2975167</v>
-      </c>
-      <c r="N45" s="336">
+        <v>3170751</v>
+      </c>
+      <c r="N45" s="357">
         <f>SUM(N5:N39)</f>
-        <v>28987.74</v>
+        <v>31751.230000000003</v>
       </c>
       <c r="P45" s="98">
         <f t="shared" si="0"/>
-        <v>3004154.74</v>
-      </c>
-      <c r="Q45" s="236">
-        <f t="shared" si="1"/>
-        <v>3004154.74</v>
-      </c>
-      <c r="R45" s="99">
+        <v>3202502.23</v>
+      </c>
+      <c r="Q45" s="383">
+        <f>SUM(Q21:Q44)</f>
+        <v>1843.4700000000262</v>
+      </c>
+      <c r="R45" s="384">
         <f>SUM(R5:R39)</f>
         <v>41424</v>
       </c>
@@ -12141,8 +12255,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="352"/>
-      <c r="N46" s="337"/>
+      <c r="M46" s="347"/>
+      <c r="N46" s="358"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -12192,7 +12306,7 @@
       </c>
       <c r="C49" s="122">
         <f>SUM(C5:C48)</f>
-        <v>67580</v>
+        <v>70580</v>
       </c>
       <c r="D49" s="123"/>
       <c r="E49" s="124" t="s">
@@ -12200,7 +12314,7 @@
       </c>
       <c r="F49" s="125">
         <f>SUM(F5:F48)</f>
-        <v>3059787</v>
+        <v>3269435</v>
       </c>
       <c r="G49" s="123"/>
       <c r="H49" s="126" t="s">
@@ -12208,7 +12322,7 @@
       </c>
       <c r="I49" s="127">
         <f>SUM(I5:I48)</f>
-        <v>3657</v>
+        <v>3805</v>
       </c>
       <c r="J49" s="290"/>
       <c r="K49" s="291" t="s">
@@ -12216,7 +12330,7 @@
       </c>
       <c r="L49" s="292">
         <f>SUM(L5:L48)</f>
-        <v>26667</v>
+        <v>62288.360000000008</v>
       </c>
       <c r="M49" s="131"/>
       <c r="N49" s="131"/>
@@ -12234,32 +12348,32 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="338" t="s">
+      <c r="H51" s="359" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="339"/>
+      <c r="I51" s="360"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="340">
+      <c r="K51" s="361">
         <f>I49+L49</f>
-        <v>30324</v>
-      </c>
-      <c r="L51" s="341"/>
-      <c r="M51" s="342">
+        <v>66093.360000000015</v>
+      </c>
+      <c r="L51" s="362"/>
+      <c r="M51" s="363">
         <f>N45+M45</f>
-        <v>3004154.74</v>
-      </c>
-      <c r="N51" s="343"/>
+        <v>3202502.23</v>
+      </c>
+      <c r="N51" s="364"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="335" t="s">
+      <c r="D52" s="356" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="335"/>
+      <c r="E52" s="356"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
-        <v>2961883</v>
+        <v>3132761.64</v>
       </c>
       <c r="I52" s="137"/>
       <c r="J52" s="138"/>
@@ -12267,20 +12381,20 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="353" t="s">
+      <c r="D53" s="327" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="353"/>
+      <c r="E53" s="327"/>
       <c r="F53" s="131">
         <v>-3128572.23</v>
       </c>
-      <c r="I53" s="354" t="s">
+      <c r="I53" s="328" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="355"/>
+      <c r="J53" s="329"/>
       <c r="K53" s="368">
         <f>F55+F56+F57</f>
-        <v>192418.88</v>
+        <v>417897.52000000014</v>
       </c>
       <c r="L53" s="369"/>
       <c r="P53" s="36"/>
@@ -12306,7 +12420,7 @@
       </c>
       <c r="F55" s="131">
         <f>SUM(F52:F54)</f>
-        <v>-166689.22999999998</v>
+        <v>4189.410000000149</v>
       </c>
       <c r="H55" s="23"/>
       <c r="I55" s="146" t="s">
@@ -12327,29 +12441,29 @@
         <v>20</v>
       </c>
       <c r="F56" s="149">
-        <v>0</v>
+        <v>54600</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C57" s="150">
         <v>45109</v>
       </c>
-      <c r="D57" s="360" t="s">
+      <c r="D57" s="334" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="361"/>
+      <c r="E57" s="335"/>
       <c r="F57" s="316">
         <v>359108.11</v>
       </c>
-      <c r="I57" s="377" t="s">
+      <c r="I57" s="375" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="378"/>
-      <c r="K57" s="379">
+      <c r="J57" s="376"/>
+      <c r="K57" s="377">
         <f>K53+K55</f>
-        <v>-153214.81</v>
-      </c>
-      <c r="L57" s="379"/>
+        <v>72263.830000000133</v>
+      </c>
+      <c r="L57" s="377"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -12474,6 +12588,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -12483,22 +12609,11 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -15254,23 +15369,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="344"/>
-      <c r="C1" s="346" t="s">
+      <c r="B1" s="339"/>
+      <c r="C1" s="341" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="347"/>
-      <c r="E1" s="347"/>
-      <c r="F1" s="347"/>
-      <c r="G1" s="347"/>
-      <c r="H1" s="347"/>
-      <c r="I1" s="347"/>
-      <c r="J1" s="347"/>
-      <c r="K1" s="347"/>
-      <c r="L1" s="347"/>
-      <c r="M1" s="347"/>
+      <c r="D1" s="342"/>
+      <c r="E1" s="342"/>
+      <c r="F1" s="342"/>
+      <c r="G1" s="342"/>
+      <c r="H1" s="342"/>
+      <c r="I1" s="342"/>
+      <c r="J1" s="342"/>
+      <c r="K1" s="342"/>
+      <c r="L1" s="342"/>
+      <c r="M1" s="342"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="345"/>
+      <c r="B2" s="340"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -15280,21 +15395,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="348" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="349"/>
+      <c r="B3" s="343" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="344"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="350" t="s">
+      <c r="H3" s="345" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="350"/>
+      <c r="I3" s="345"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="327" t="s">
+      <c r="R3" s="348" t="s">
         <v>2</v>
       </c>
     </row>
@@ -15309,14 +15424,14 @@
       <c r="D4" s="17">
         <v>44955</v>
       </c>
-      <c r="E4" s="329" t="s">
+      <c r="E4" s="350" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="330"/>
-      <c r="H4" s="331" t="s">
+      <c r="F4" s="351"/>
+      <c r="H4" s="352" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="332"/>
+      <c r="I4" s="353"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -17131,11 +17246,11 @@
       <c r="J45" s="74"/>
       <c r="K45" s="97"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="351">
+      <c r="M45" s="346">
         <f>SUM(M5:M39)</f>
         <v>2238523</v>
       </c>
-      <c r="N45" s="336">
+      <c r="N45" s="357">
         <f>SUM(N5:N39)</f>
         <v>97258</v>
       </c>
@@ -17165,8 +17280,8 @@
       <c r="J46" s="74"/>
       <c r="K46" s="102"/>
       <c r="L46" s="76"/>
-      <c r="M46" s="352"/>
-      <c r="N46" s="337"/>
+      <c r="M46" s="347"/>
+      <c r="N46" s="358"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -17258,29 +17373,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="338" t="s">
+      <c r="H51" s="359" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="339"/>
+      <c r="I51" s="360"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="340">
+      <c r="K51" s="361">
         <f>I49+L49</f>
         <v>90767.040000000008</v>
       </c>
-      <c r="L51" s="341"/>
-      <c r="M51" s="342">
+      <c r="L51" s="362"/>
+      <c r="M51" s="363">
         <f>N45+M45</f>
         <v>2335781</v>
       </c>
-      <c r="N51" s="343"/>
+      <c r="N51" s="364"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="335" t="s">
+      <c r="D52" s="356" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="335"/>
+      <c r="E52" s="356"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2261973.96</v>
@@ -17291,22 +17406,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="353" t="s">
+      <c r="D53" s="327" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="353"/>
+      <c r="E53" s="327"/>
       <c r="F53" s="131">
         <v>-2224189.7400000002</v>
       </c>
-      <c r="I53" s="354" t="s">
+      <c r="I53" s="328" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="355"/>
-      <c r="K53" s="356">
+      <c r="J53" s="329"/>
+      <c r="K53" s="330">
         <f>F55+F56+F57</f>
         <v>296963.76999999973</v>
       </c>
-      <c r="L53" s="357"/>
+      <c r="L53" s="331"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -17337,11 +17452,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="358">
+      <c r="K55" s="332">
         <f>-C4</f>
         <v>-223528.9</v>
       </c>
-      <c r="L55" s="359"/>
+      <c r="L55" s="333"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -17358,22 +17473,22 @@
       <c r="C57" s="150">
         <v>44985</v>
       </c>
-      <c r="D57" s="360" t="s">
+      <c r="D57" s="334" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="361"/>
+      <c r="E57" s="335"/>
       <c r="F57" s="151">
         <v>230554.55</v>
       </c>
-      <c r="I57" s="362" t="s">
+      <c r="I57" s="336" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="363"/>
-      <c r="K57" s="364">
+      <c r="J57" s="337"/>
+      <c r="K57" s="338">
         <f>K53+K55</f>
         <v>73434.869999999733</v>
       </c>
-      <c r="L57" s="364"/>
+      <c r="L57" s="338"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -17498,18 +17613,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -17519,6 +17622,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18977,23 +19092,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="344"/>
-      <c r="C1" s="346" t="s">
+      <c r="B1" s="339"/>
+      <c r="C1" s="341" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="347"/>
-      <c r="E1" s="347"/>
-      <c r="F1" s="347"/>
-      <c r="G1" s="347"/>
-      <c r="H1" s="347"/>
-      <c r="I1" s="347"/>
-      <c r="J1" s="347"/>
-      <c r="K1" s="347"/>
-      <c r="L1" s="347"/>
-      <c r="M1" s="347"/>
+      <c r="D1" s="342"/>
+      <c r="E1" s="342"/>
+      <c r="F1" s="342"/>
+      <c r="G1" s="342"/>
+      <c r="H1" s="342"/>
+      <c r="I1" s="342"/>
+      <c r="J1" s="342"/>
+      <c r="K1" s="342"/>
+      <c r="L1" s="342"/>
+      <c r="M1" s="342"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="345"/>
+      <c r="B2" s="340"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -19003,21 +19118,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="348" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="349"/>
+      <c r="B3" s="343" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="344"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="350" t="s">
+      <c r="H3" s="345" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="350"/>
+      <c r="I3" s="345"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="327" t="s">
+      <c r="R3" s="348" t="s">
         <v>2</v>
       </c>
     </row>
@@ -19032,14 +19147,14 @@
       <c r="D4" s="17">
         <v>44985</v>
       </c>
-      <c r="E4" s="329" t="s">
+      <c r="E4" s="350" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="330"/>
-      <c r="H4" s="331" t="s">
+      <c r="F4" s="351"/>
+      <c r="H4" s="352" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="332"/>
+      <c r="I4" s="353"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -20846,11 +20961,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="231"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="351">
+      <c r="M45" s="346">
         <f>SUM(M5:M39)</f>
         <v>2689952</v>
       </c>
-      <c r="N45" s="336">
+      <c r="N45" s="357">
         <f>SUM(N5:N39)</f>
         <v>61422</v>
       </c>
@@ -20880,8 +20995,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="352"/>
-      <c r="N46" s="337"/>
+      <c r="M46" s="347"/>
+      <c r="N46" s="358"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -20973,29 +21088,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="338" t="s">
+      <c r="H51" s="359" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="339"/>
+      <c r="I51" s="360"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="340">
+      <c r="K51" s="361">
         <f>I49+L49</f>
         <v>425400.67</v>
       </c>
-      <c r="L51" s="341"/>
-      <c r="M51" s="342">
+      <c r="L51" s="362"/>
+      <c r="M51" s="363">
         <f>N45+M45</f>
         <v>2751374</v>
       </c>
-      <c r="N51" s="343"/>
+      <c r="N51" s="364"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="335" t="s">
+      <c r="D52" s="356" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="335"/>
+      <c r="E52" s="356"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2464124.33</v>
@@ -21006,17 +21121,17 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="353" t="s">
+      <c r="D53" s="327" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="353"/>
+      <c r="E53" s="327"/>
       <c r="F53" s="131">
         <v>-2869426.04</v>
       </c>
-      <c r="I53" s="354" t="s">
+      <c r="I53" s="328" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="355"/>
+      <c r="J53" s="329"/>
       <c r="K53" s="368">
         <f>F55+F56+F57</f>
         <v>-32021.369999999937</v>
@@ -21073,10 +21188,10 @@
       <c r="C57" s="150">
         <v>45015</v>
       </c>
-      <c r="D57" s="360" t="s">
+      <c r="D57" s="334" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="361"/>
+      <c r="E57" s="335"/>
       <c r="F57" s="151">
         <v>341192.34</v>
       </c>
@@ -21213,6 +21328,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -21222,18 +21349,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22635,23 +22750,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="344"/>
-      <c r="C1" s="346" t="s">
+      <c r="B1" s="339"/>
+      <c r="C1" s="341" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="347"/>
-      <c r="E1" s="347"/>
-      <c r="F1" s="347"/>
-      <c r="G1" s="347"/>
-      <c r="H1" s="347"/>
-      <c r="I1" s="347"/>
-      <c r="J1" s="347"/>
-      <c r="K1" s="347"/>
-      <c r="L1" s="347"/>
-      <c r="M1" s="347"/>
+      <c r="D1" s="342"/>
+      <c r="E1" s="342"/>
+      <c r="F1" s="342"/>
+      <c r="G1" s="342"/>
+      <c r="H1" s="342"/>
+      <c r="I1" s="342"/>
+      <c r="J1" s="342"/>
+      <c r="K1" s="342"/>
+      <c r="L1" s="342"/>
+      <c r="M1" s="342"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="345"/>
+      <c r="B2" s="340"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -22664,21 +22779,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="348" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="349"/>
+      <c r="B3" s="343" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="344"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="350" t="s">
+      <c r="H3" s="345" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="350"/>
+      <c r="I3" s="345"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="375" t="s">
+      <c r="R3" s="378" t="s">
         <v>2</v>
       </c>
     </row>
@@ -22693,14 +22808,14 @@
       <c r="D4" s="17">
         <v>45015</v>
       </c>
-      <c r="E4" s="329" t="s">
+      <c r="E4" s="350" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="330"/>
-      <c r="H4" s="331" t="s">
+      <c r="F4" s="351"/>
+      <c r="H4" s="352" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="332"/>
+      <c r="I4" s="353"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -22714,7 +22829,7 @@
         <v>8</v>
       </c>
       <c r="Q4" s="367"/>
-      <c r="R4" s="376"/>
+      <c r="R4" s="379"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -24601,11 +24716,11 @@
       <c r="L45" s="312">
         <v>2123.98</v>
       </c>
-      <c r="M45" s="351">
+      <c r="M45" s="346">
         <f>SUM(M5:M39)</f>
         <v>2488709</v>
       </c>
-      <c r="N45" s="336">
+      <c r="N45" s="357">
         <f>SUM(N5:N39)</f>
         <v>78710</v>
       </c>
@@ -24641,8 +24756,8 @@
       <c r="L46" s="281">
         <v>34015</v>
       </c>
-      <c r="M46" s="352"/>
-      <c r="N46" s="337"/>
+      <c r="M46" s="347"/>
+      <c r="N46" s="358"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -24734,29 +24849,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="338" t="s">
+      <c r="H51" s="359" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="339"/>
+      <c r="I51" s="360"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="340">
+      <c r="K51" s="361">
         <f>I49+L49</f>
         <v>124244.06999999999</v>
       </c>
-      <c r="L51" s="341"/>
-      <c r="M51" s="342">
+      <c r="L51" s="362"/>
+      <c r="M51" s="363">
         <f>N45+M45</f>
         <v>2567419</v>
       </c>
-      <c r="N51" s="343"/>
+      <c r="N51" s="364"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="335" t="s">
+      <c r="D52" s="356" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="335"/>
+      <c r="E52" s="356"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2480239.9300000002</v>
@@ -24767,17 +24882,17 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="353" t="s">
+      <c r="D53" s="327" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="353"/>
+      <c r="E53" s="327"/>
       <c r="F53" s="131">
         <v>-2463938.5299999998</v>
       </c>
-      <c r="I53" s="354" t="s">
+      <c r="I53" s="328" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="355"/>
+      <c r="J53" s="329"/>
       <c r="K53" s="368">
         <f>F55+F56+F57</f>
         <v>439109.10000000038</v>
@@ -24834,22 +24949,22 @@
       <c r="C57" s="150">
         <v>45050</v>
       </c>
-      <c r="D57" s="360" t="s">
+      <c r="D57" s="334" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="361"/>
+      <c r="E57" s="335"/>
       <c r="F57" s="151">
         <v>394548.7</v>
       </c>
-      <c r="I57" s="377" t="s">
+      <c r="I57" s="375" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="378"/>
-      <c r="K57" s="379">
+      <c r="J57" s="376"/>
+      <c r="K57" s="377">
         <f>K53+K55</f>
         <v>97916.760000000359</v>
       </c>
-      <c r="L57" s="379"/>
+      <c r="L57" s="377"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -24974,18 +25089,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -24995,6 +25098,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.27559055118110237" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26386,23 +26501,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="344"/>
-      <c r="C1" s="346" t="s">
+      <c r="B1" s="339"/>
+      <c r="C1" s="341" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="347"/>
-      <c r="E1" s="347"/>
-      <c r="F1" s="347"/>
-      <c r="G1" s="347"/>
-      <c r="H1" s="347"/>
-      <c r="I1" s="347"/>
-      <c r="J1" s="347"/>
-      <c r="K1" s="347"/>
-      <c r="L1" s="347"/>
-      <c r="M1" s="347"/>
+      <c r="D1" s="342"/>
+      <c r="E1" s="342"/>
+      <c r="F1" s="342"/>
+      <c r="G1" s="342"/>
+      <c r="H1" s="342"/>
+      <c r="I1" s="342"/>
+      <c r="J1" s="342"/>
+      <c r="K1" s="342"/>
+      <c r="L1" s="342"/>
+      <c r="M1" s="342"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="345"/>
+      <c r="B2" s="340"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -26415,17 +26530,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="348" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="349"/>
+      <c r="B3" s="343" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="344"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="350" t="s">
+      <c r="H3" s="345" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="350"/>
+      <c r="I3" s="345"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
@@ -26444,14 +26559,14 @@
       <c r="D4" s="307">
         <v>45050</v>
       </c>
-      <c r="E4" s="329" t="s">
+      <c r="E4" s="350" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="330"/>
-      <c r="H4" s="331" t="s">
+      <c r="F4" s="351"/>
+      <c r="H4" s="352" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="332"/>
+      <c r="I4" s="353"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -28338,11 +28453,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="351">
+      <c r="M45" s="346">
         <f>SUM(M5:M39)</f>
         <v>3007589</v>
       </c>
-      <c r="N45" s="336">
+      <c r="N45" s="357">
         <f>SUM(N5:N39)</f>
         <v>29752</v>
       </c>
@@ -28372,8 +28487,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="352"/>
-      <c r="N46" s="337"/>
+      <c r="M46" s="347"/>
+      <c r="N46" s="358"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -28465,29 +28580,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="338" t="s">
+      <c r="H51" s="359" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="339"/>
+      <c r="I51" s="360"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="340">
+      <c r="K51" s="361">
         <f>I49+L49</f>
         <v>84500.43</v>
       </c>
-      <c r="L51" s="341"/>
-      <c r="M51" s="342">
+      <c r="L51" s="362"/>
+      <c r="M51" s="363">
         <f>N45+M45</f>
         <v>3037341</v>
       </c>
-      <c r="N51" s="343"/>
+      <c r="N51" s="364"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="335" t="s">
+      <c r="D52" s="356" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="335"/>
+      <c r="E52" s="356"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2988109.57</v>
@@ -28498,17 +28613,17 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="353" t="s">
+      <c r="D53" s="327" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="353"/>
+      <c r="E53" s="327"/>
       <c r="F53" s="131">
         <v>-2955802.29</v>
       </c>
-      <c r="I53" s="354" t="s">
+      <c r="I53" s="328" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="355"/>
+      <c r="J53" s="329"/>
       <c r="K53" s="368">
         <f>F55+F56+F57</f>
         <v>419364.9699999998</v>
@@ -28565,22 +28680,22 @@
       <c r="C57" s="150">
         <v>45081</v>
       </c>
-      <c r="D57" s="360" t="s">
+      <c r="D57" s="334" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="361"/>
+      <c r="E57" s="335"/>
       <c r="F57" s="316">
         <v>345633.69</v>
       </c>
-      <c r="I57" s="377" t="s">
+      <c r="I57" s="375" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="378"/>
-      <c r="K57" s="379">
+      <c r="J57" s="376"/>
+      <c r="K57" s="377">
         <f>K53+K55</f>
         <v>24816.269999999786</v>
       </c>
-      <c r="L57" s="379"/>
+      <c r="L57" s="377"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -28705,6 +28820,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -28714,18 +28841,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
